--- a/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Final.xlsx
+++ b/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E8E767-0649-43D2-9002-DFA4E730CCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687F3A3-C828-48BF-B527-38B2BFBB8A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>Exemple de bloc de titre de phase</t>
-  </si>
-  <si>
-    <t>Cette ligne marque la fin du planning de projet. N’ENTREZ rien dans cette ligne. 
-Insérez de nouvelles lignes au-dessus de celle-ci pour continuer d’élaborer votre planning de projet.</t>
   </si>
   <si>
     <t>TÂCHE</t>
@@ -1066,7 +1062,7 @@
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1179,7 +1175,28 @@
     <xf numFmtId="0" fontId="25" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="49" borderId="10" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,14 +1217,56 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1215,81 +1274,21 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="49" borderId="10" xfId="10" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,9 +1296,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1868,8 +1873,8 @@
   </sheetPr>
   <dimension ref="A1:CZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="68" zoomScaleNormal="85" zoomScaleSheetLayoutView="92" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="92" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BD20" sqref="BD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1886,14 +1891,14 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,166 +1917,166 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="64">
+      <c r="D3" s="58">
         <f>DATE(2024,2,12)</f>
         <v>45334</v>
       </c>
-      <c r="E3" s="64"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:103" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="59">
         <f>F5</f>
         <v>45334</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59">
         <f>M5</f>
         <v>45341</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59">
         <f>T5</f>
         <v>45348</v>
       </c>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62">
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59">
         <f>AA5</f>
         <v>45355</v>
       </c>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62">
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59">
         <f>AH5</f>
         <v>45362</v>
       </c>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62">
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59">
         <f>AO5</f>
         <v>45369</v>
       </c>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62">
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59">
         <f>AV5</f>
         <v>45376</v>
       </c>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62">
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59">
         <f>BC5</f>
         <v>45383</v>
       </c>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62">
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59">
         <f>BJ5</f>
         <v>45390</v>
       </c>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="62"/>
-      <c r="BQ4" s="62">
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59">
         <f>BQ5</f>
         <v>45397</v>
       </c>
-      <c r="BR4" s="62"/>
-      <c r="BS4" s="62"/>
-      <c r="BT4" s="62"/>
-      <c r="BU4" s="62"/>
-      <c r="BV4" s="62"/>
-      <c r="BW4" s="63"/>
-      <c r="BX4" s="63">
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="61"/>
+      <c r="BX4" s="61">
         <f>BX5</f>
         <v>45404</v>
       </c>
-      <c r="BY4" s="63"/>
-      <c r="BZ4" s="62"/>
-      <c r="CA4" s="62"/>
-      <c r="CB4" s="62"/>
-      <c r="CC4" s="62"/>
-      <c r="CD4" s="62"/>
-      <c r="CE4" s="62">
+      <c r="BY4" s="61"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="59"/>
+      <c r="CB4" s="59"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="59">
         <f>CE5</f>
         <v>45411</v>
       </c>
-      <c r="CF4" s="62"/>
-      <c r="CG4" s="62"/>
-      <c r="CH4" s="62"/>
-      <c r="CI4" s="62"/>
-      <c r="CJ4" s="62"/>
-      <c r="CK4" s="62"/>
-      <c r="CL4" s="62">
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="59"/>
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="59"/>
+      <c r="CL4" s="59">
         <f>CL5</f>
         <v>45418</v>
       </c>
-      <c r="CM4" s="62"/>
-      <c r="CN4" s="62"/>
-      <c r="CO4" s="62"/>
-      <c r="CP4" s="62"/>
-      <c r="CQ4" s="62"/>
-      <c r="CR4" s="62"/>
-      <c r="CS4" s="62">
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="59"/>
+      <c r="CP4" s="59"/>
+      <c r="CQ4" s="59"/>
+      <c r="CR4" s="59"/>
+      <c r="CS4" s="59">
         <f>CS5</f>
         <v>45425</v>
       </c>
-      <c r="CT4" s="62"/>
-      <c r="CU4" s="62"/>
-      <c r="CV4" s="62"/>
-      <c r="CW4" s="62"/>
-      <c r="CX4" s="62"/>
-      <c r="CY4" s="62"/>
+      <c r="CT4" s="59"/>
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="59"/>
+      <c r="CW4" s="59"/>
+      <c r="CX4" s="59"/>
+      <c r="CY4" s="59"/>
     </row>
     <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
@@ -2475,16 +2480,16 @@
     <row r="6" spans="1:103" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="27" t="str">
         <f t="shared" ref="F6:AK6" si="33">LEFT(TEXT(F5,"jjj"),1)</f>
@@ -2939,8 +2944,8 @@
       <c r="BE7" s="25"/>
       <c r="BF7" s="25"/>
       <c r="BG7" s="25"/>
-      <c r="BH7" s="77"/>
-      <c r="BI7" s="78"/>
+      <c r="BH7" s="62"/>
+      <c r="BI7" s="63"/>
       <c r="BJ7" s="25"/>
       <c r="BK7" s="25"/>
       <c r="BL7" s="25"/>
@@ -2986,117 +2991,117 @@
     </row>
     <row r="8" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="50"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="50"/>
-      <c r="BI8" s="50"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="42"/>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="50"/>
-      <c r="BQ8" s="42"/>
-      <c r="BR8" s="42"/>
-      <c r="BS8" s="42"/>
-      <c r="BT8" s="42"/>
-      <c r="BU8" s="42"/>
-      <c r="BV8" s="50"/>
-      <c r="BW8" s="50"/>
-      <c r="BX8" s="42"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="42"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="50"/>
-      <c r="CD8" s="50"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="42"/>
-      <c r="CJ8" s="50"/>
-      <c r="CK8" s="50"/>
-      <c r="CL8" s="42"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="50"/>
-      <c r="CR8" s="50"/>
-      <c r="CS8" s="42"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="42"/>
-      <c r="CX8" s="50"/>
-      <c r="CY8" s="50"/>
+      <c r="B8" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="49"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="49"/>
+      <c r="BP8" s="49"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="49"/>
+      <c r="BW8" s="49"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="49"/>
+      <c r="CD8" s="49"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="49"/>
+      <c r="CK8" s="49"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="5"/>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="49"/>
+      <c r="CR8" s="49"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="5"/>
+      <c r="CU8" s="5"/>
+      <c r="CV8" s="5"/>
+      <c r="CW8" s="5"/>
+      <c r="CX8" s="49"/>
+      <c r="CY8" s="49"/>
     </row>
     <row r="9" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="54"/>
+      <c r="B9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="64"/>
       <c r="D9" s="18">
         <f>J5</f>
         <v>45338</v>
@@ -3105,111 +3110,111 @@
         <f>D9</f>
         <v>45338</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="42"/>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="50"/>
-      <c r="BQ9" s="42"/>
-      <c r="BR9" s="42"/>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="42"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="50"/>
-      <c r="BW9" s="50"/>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="42"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="50"/>
-      <c r="CD9" s="50"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="42"/>
-      <c r="CJ9" s="50"/>
-      <c r="CK9" s="50"/>
-      <c r="CL9" s="42"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="50"/>
-      <c r="CR9" s="50"/>
-      <c r="CS9" s="42"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="42"/>
-      <c r="CX9" s="50"/>
-      <c r="CY9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="49"/>
+      <c r="BP9" s="49"/>
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="5"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="49"/>
+      <c r="BW9" s="49"/>
+      <c r="BX9" s="5"/>
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="49"/>
+      <c r="CD9" s="49"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5"/>
+      <c r="CJ9" s="49"/>
+      <c r="CK9" s="49"/>
+      <c r="CL9" s="5"/>
+      <c r="CM9" s="5"/>
+      <c r="CN9" s="5"/>
+      <c r="CO9" s="5"/>
+      <c r="CP9" s="5"/>
+      <c r="CQ9" s="49"/>
+      <c r="CR9" s="49"/>
+      <c r="CS9" s="5"/>
+      <c r="CT9" s="5"/>
+      <c r="CU9" s="5"/>
+      <c r="CV9" s="5"/>
+      <c r="CW9" s="5"/>
+      <c r="CX9" s="49"/>
+      <c r="CY9" s="49"/>
     </row>
     <row r="10" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="54"/>
+      <c r="B10" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="64"/>
       <c r="D10" s="18">
         <f>D9</f>
         <v>45338</v>
@@ -3218,111 +3223,111 @@
         <f>M5</f>
         <v>45341</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="42"/>
-      <c r="BM10" s="42"/>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
-      <c r="BQ10" s="42"/>
-      <c r="BR10" s="42"/>
-      <c r="BS10" s="42"/>
-      <c r="BT10" s="42"/>
-      <c r="BU10" s="42"/>
-      <c r="BV10" s="50"/>
-      <c r="BW10" s="50"/>
-      <c r="BX10" s="42"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="42"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="50"/>
-      <c r="CD10" s="50"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="42"/>
-      <c r="CJ10" s="50"/>
-      <c r="CK10" s="50"/>
-      <c r="CL10" s="42"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="50"/>
-      <c r="CR10" s="50"/>
-      <c r="CS10" s="42"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="42"/>
-      <c r="CX10" s="50"/>
-      <c r="CY10" s="50"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="49"/>
+      <c r="BB10" s="49"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="49"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="49"/>
+      <c r="BP10" s="49"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="49"/>
+      <c r="BW10" s="49"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="49"/>
+      <c r="CD10" s="49"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="49"/>
+      <c r="CK10" s="49"/>
+      <c r="CL10" s="5"/>
+      <c r="CM10" s="5"/>
+      <c r="CN10" s="5"/>
+      <c r="CO10" s="5"/>
+      <c r="CP10" s="5"/>
+      <c r="CQ10" s="49"/>
+      <c r="CR10" s="49"/>
+      <c r="CS10" s="5"/>
+      <c r="CT10" s="5"/>
+      <c r="CU10" s="5"/>
+      <c r="CV10" s="5"/>
+      <c r="CW10" s="5"/>
+      <c r="CX10" s="49"/>
+      <c r="CY10" s="49"/>
     </row>
     <row r="11" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="54"/>
+      <c r="B11" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="64"/>
       <c r="D11" s="18">
         <f>O5</f>
         <v>45343</v>
@@ -3331,111 +3336,111 @@
         <f>O5</f>
         <v>45343</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="42"/>
-      <c r="BL11" s="42"/>
-      <c r="BM11" s="42"/>
-      <c r="BN11" s="42"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="50"/>
-      <c r="BQ11" s="42"/>
-      <c r="BR11" s="42"/>
-      <c r="BS11" s="42"/>
-      <c r="BT11" s="42"/>
-      <c r="BU11" s="42"/>
-      <c r="BV11" s="50"/>
-      <c r="BW11" s="50"/>
-      <c r="BX11" s="42"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="42"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="50"/>
-      <c r="CD11" s="50"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="42"/>
-      <c r="CJ11" s="50"/>
-      <c r="CK11" s="50"/>
-      <c r="CL11" s="42"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="50"/>
-      <c r="CR11" s="50"/>
-      <c r="CS11" s="42"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="42"/>
-      <c r="CX11" s="50"/>
-      <c r="CY11" s="50"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="49"/>
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="49"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="49"/>
+      <c r="BP11" s="49"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="49"/>
+      <c r="BW11" s="49"/>
+      <c r="BX11" s="5"/>
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="49"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
+      <c r="CI11" s="5"/>
+      <c r="CJ11" s="49"/>
+      <c r="CK11" s="49"/>
+      <c r="CL11" s="5"/>
+      <c r="CM11" s="5"/>
+      <c r="CN11" s="5"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="5"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="49"/>
+      <c r="CS11" s="5"/>
+      <c r="CT11" s="5"/>
+      <c r="CU11" s="5"/>
+      <c r="CV11" s="5"/>
+      <c r="CW11" s="5"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="54"/>
+      <c r="B12" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="64"/>
       <c r="D12" s="18">
         <f>N5</f>
         <v>45342</v>
@@ -3444,111 +3449,111 @@
         <f>D12</f>
         <v>45342</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="5"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="42"/>
-      <c r="BM12" s="42"/>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="50"/>
-      <c r="BP12" s="50"/>
-      <c r="BQ12" s="42"/>
-      <c r="BR12" s="42"/>
-      <c r="BS12" s="42"/>
-      <c r="BT12" s="42"/>
-      <c r="BU12" s="42"/>
-      <c r="BV12" s="50"/>
-      <c r="BW12" s="50"/>
-      <c r="BX12" s="42"/>
-      <c r="BY12" s="42"/>
-      <c r="BZ12" s="42"/>
-      <c r="CA12" s="42"/>
-      <c r="CB12" s="42"/>
-      <c r="CC12" s="50"/>
-      <c r="CD12" s="50"/>
-      <c r="CE12" s="42"/>
-      <c r="CF12" s="42"/>
-      <c r="CG12" s="42"/>
-      <c r="CH12" s="42"/>
-      <c r="CI12" s="42"/>
-      <c r="CJ12" s="50"/>
-      <c r="CK12" s="50"/>
-      <c r="CL12" s="42"/>
-      <c r="CM12" s="42"/>
-      <c r="CN12" s="42"/>
-      <c r="CO12" s="42"/>
-      <c r="CP12" s="42"/>
-      <c r="CQ12" s="50"/>
-      <c r="CR12" s="50"/>
-      <c r="CS12" s="42"/>
-      <c r="CT12" s="42"/>
-      <c r="CU12" s="42"/>
-      <c r="CV12" s="42"/>
-      <c r="CW12" s="42"/>
-      <c r="CX12" s="50"/>
-      <c r="CY12" s="50"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="49"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+      <c r="BV12" s="49"/>
+      <c r="BW12" s="49"/>
+      <c r="BX12" s="5"/>
+      <c r="BY12" s="5"/>
+      <c r="BZ12" s="5"/>
+      <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="49"/>
+      <c r="CD12" s="49"/>
+      <c r="CE12" s="5"/>
+      <c r="CF12" s="5"/>
+      <c r="CG12" s="5"/>
+      <c r="CH12" s="5"/>
+      <c r="CI12" s="5"/>
+      <c r="CJ12" s="49"/>
+      <c r="CK12" s="49"/>
+      <c r="CL12" s="5"/>
+      <c r="CM12" s="5"/>
+      <c r="CN12" s="5"/>
+      <c r="CO12" s="5"/>
+      <c r="CP12" s="5"/>
+      <c r="CQ12" s="49"/>
+      <c r="CR12" s="49"/>
+      <c r="CS12" s="5"/>
+      <c r="CT12" s="5"/>
+      <c r="CU12" s="5"/>
+      <c r="CV12" s="5"/>
+      <c r="CW12" s="5"/>
+      <c r="CX12" s="49"/>
+      <c r="CY12" s="49"/>
     </row>
     <row r="13" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="54"/>
+      <c r="B13" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="64"/>
       <c r="D13" s="18">
         <f>O5</f>
         <v>45343</v>
@@ -3557,111 +3562,111 @@
         <f>P5</f>
         <v>45344</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="42"/>
-      <c r="BG13" s="42"/>
-      <c r="BH13" s="50"/>
-      <c r="BI13" s="50"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="42"/>
-      <c r="BL13" s="42"/>
-      <c r="BM13" s="42"/>
-      <c r="BN13" s="42"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="50"/>
-      <c r="BQ13" s="42"/>
-      <c r="BR13" s="42"/>
-      <c r="BS13" s="42"/>
-      <c r="BT13" s="42"/>
-      <c r="BU13" s="42"/>
-      <c r="BV13" s="50"/>
-      <c r="BW13" s="50"/>
-      <c r="BX13" s="42"/>
-      <c r="BY13" s="42"/>
-      <c r="BZ13" s="42"/>
-      <c r="CA13" s="42"/>
-      <c r="CB13" s="42"/>
-      <c r="CC13" s="50"/>
-      <c r="CD13" s="50"/>
-      <c r="CE13" s="42"/>
-      <c r="CF13" s="42"/>
-      <c r="CG13" s="42"/>
-      <c r="CH13" s="42"/>
-      <c r="CI13" s="42"/>
-      <c r="CJ13" s="50"/>
-      <c r="CK13" s="50"/>
-      <c r="CL13" s="42"/>
-      <c r="CM13" s="42"/>
-      <c r="CN13" s="42"/>
-      <c r="CO13" s="42"/>
-      <c r="CP13" s="42"/>
-      <c r="CQ13" s="50"/>
-      <c r="CR13" s="50"/>
-      <c r="CS13" s="42"/>
-      <c r="CT13" s="42"/>
-      <c r="CU13" s="42"/>
-      <c r="CV13" s="42"/>
-      <c r="CW13" s="42"/>
-      <c r="CX13" s="50"/>
-      <c r="CY13" s="50"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="49"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="49"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="49"/>
+      <c r="BW13" s="49"/>
+      <c r="BX13" s="5"/>
+      <c r="BY13" s="5"/>
+      <c r="BZ13" s="5"/>
+      <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="49"/>
+      <c r="CD13" s="49"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="5"/>
+      <c r="CI13" s="5"/>
+      <c r="CJ13" s="49"/>
+      <c r="CK13" s="49"/>
+      <c r="CL13" s="5"/>
+      <c r="CM13" s="5"/>
+      <c r="CN13" s="5"/>
+      <c r="CO13" s="5"/>
+      <c r="CP13" s="5"/>
+      <c r="CQ13" s="49"/>
+      <c r="CR13" s="49"/>
+      <c r="CS13" s="5"/>
+      <c r="CT13" s="5"/>
+      <c r="CU13" s="5"/>
+      <c r="CV13" s="5"/>
+      <c r="CW13" s="5"/>
+      <c r="CX13" s="49"/>
+      <c r="CY13" s="49"/>
     </row>
     <row r="14" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="54"/>
+      <c r="B14" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="64"/>
       <c r="D14" s="18">
         <f>E13+1</f>
         <v>45345</v>
@@ -3670,220 +3675,220 @@
         <f>D14</f>
         <v>45345</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="50"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="50"/>
-      <c r="BI14" s="50"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
-      <c r="BL14" s="42"/>
-      <c r="BM14" s="42"/>
-      <c r="BN14" s="42"/>
-      <c r="BO14" s="50"/>
-      <c r="BP14" s="50"/>
-      <c r="BQ14" s="42"/>
-      <c r="BR14" s="42"/>
-      <c r="BS14" s="42"/>
-      <c r="BT14" s="42"/>
-      <c r="BU14" s="42"/>
-      <c r="BV14" s="50"/>
-      <c r="BW14" s="50"/>
-      <c r="BX14" s="42"/>
-      <c r="BY14" s="42"/>
-      <c r="BZ14" s="42"/>
-      <c r="CA14" s="42"/>
-      <c r="CB14" s="42"/>
-      <c r="CC14" s="50"/>
-      <c r="CD14" s="50"/>
-      <c r="CE14" s="42"/>
-      <c r="CF14" s="42"/>
-      <c r="CG14" s="42"/>
-      <c r="CH14" s="42"/>
-      <c r="CI14" s="42"/>
-      <c r="CJ14" s="50"/>
-      <c r="CK14" s="50"/>
-      <c r="CL14" s="42"/>
-      <c r="CM14" s="42"/>
-      <c r="CN14" s="42"/>
-      <c r="CO14" s="42"/>
-      <c r="CP14" s="42"/>
-      <c r="CQ14" s="50"/>
-      <c r="CR14" s="50"/>
-      <c r="CS14" s="42"/>
-      <c r="CT14" s="42"/>
-      <c r="CU14" s="42"/>
-      <c r="CV14" s="42"/>
-      <c r="CW14" s="42"/>
-      <c r="CX14" s="50"/>
-      <c r="CY14" s="50"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="49"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="49"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="5"/>
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="5"/>
+      <c r="BU14" s="5"/>
+      <c r="BV14" s="49"/>
+      <c r="BW14" s="49"/>
+      <c r="BX14" s="5"/>
+      <c r="BY14" s="5"/>
+      <c r="BZ14" s="5"/>
+      <c r="CA14" s="5"/>
+      <c r="CB14" s="5"/>
+      <c r="CC14" s="49"/>
+      <c r="CD14" s="49"/>
+      <c r="CE14" s="5"/>
+      <c r="CF14" s="5"/>
+      <c r="CG14" s="5"/>
+      <c r="CH14" s="5"/>
+      <c r="CI14" s="5"/>
+      <c r="CJ14" s="49"/>
+      <c r="CK14" s="49"/>
+      <c r="CL14" s="5"/>
+      <c r="CM14" s="5"/>
+      <c r="CN14" s="5"/>
+      <c r="CO14" s="5"/>
+      <c r="CP14" s="5"/>
+      <c r="CQ14" s="49"/>
+      <c r="CR14" s="49"/>
+      <c r="CS14" s="5"/>
+      <c r="CT14" s="5"/>
+      <c r="CU14" s="5"/>
+      <c r="CV14" s="5"/>
+      <c r="CW14" s="5"/>
+      <c r="CX14" s="49"/>
+      <c r="CY14" s="49"/>
     </row>
     <row r="15" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="79"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="79"/>
-      <c r="AQ15" s="79"/>
-      <c r="AR15" s="79"/>
-      <c r="AS15" s="79"/>
-      <c r="AT15" s="79"/>
-      <c r="AU15" s="79"/>
-      <c r="AV15" s="79"/>
-      <c r="AW15" s="79"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="79"/>
-      <c r="AZ15" s="79"/>
-      <c r="BA15" s="79"/>
-      <c r="BB15" s="79"/>
-      <c r="BC15" s="79"/>
-      <c r="BD15" s="79"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
-      <c r="BG15" s="42"/>
-      <c r="BH15" s="50"/>
-      <c r="BI15" s="50"/>
-      <c r="BJ15" s="42"/>
-      <c r="BK15" s="42"/>
-      <c r="BL15" s="42"/>
-      <c r="BM15" s="42"/>
-      <c r="BN15" s="42"/>
-      <c r="BO15" s="50"/>
-      <c r="BP15" s="50"/>
-      <c r="BQ15" s="42"/>
-      <c r="BR15" s="42"/>
-      <c r="BS15" s="42"/>
-      <c r="BT15" s="42"/>
-      <c r="BU15" s="42"/>
-      <c r="BV15" s="50"/>
-      <c r="BW15" s="50"/>
-      <c r="BX15" s="42"/>
-      <c r="BY15" s="42"/>
-      <c r="BZ15" s="42"/>
-      <c r="CA15" s="42"/>
-      <c r="CB15" s="42"/>
-      <c r="CC15" s="50"/>
-      <c r="CD15" s="50"/>
-      <c r="CE15" s="42"/>
-      <c r="CF15" s="42"/>
-      <c r="CG15" s="42"/>
-      <c r="CH15" s="42"/>
-      <c r="CI15" s="42"/>
-      <c r="CJ15" s="50"/>
-      <c r="CK15" s="50"/>
-      <c r="CL15" s="42"/>
-      <c r="CM15" s="42"/>
-      <c r="CN15" s="42"/>
-      <c r="CO15" s="42"/>
-      <c r="CP15" s="42"/>
-      <c r="CQ15" s="50"/>
-      <c r="CR15" s="50"/>
-      <c r="CS15" s="42"/>
-      <c r="CT15" s="42"/>
-      <c r="CU15" s="42"/>
-      <c r="CV15" s="42"/>
-      <c r="CW15" s="42"/>
-      <c r="CX15" s="50"/>
-      <c r="CY15" s="50"/>
+      <c r="B15" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="80"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="80"/>
+      <c r="AP15" s="80"/>
+      <c r="AQ15" s="80"/>
+      <c r="AR15" s="80"/>
+      <c r="AS15" s="80"/>
+      <c r="AT15" s="80"/>
+      <c r="AU15" s="80"/>
+      <c r="AV15" s="80"/>
+      <c r="AW15" s="80"/>
+      <c r="AX15" s="80"/>
+      <c r="AY15" s="80"/>
+      <c r="AZ15" s="80"/>
+      <c r="BA15" s="80"/>
+      <c r="BB15" s="80"/>
+      <c r="BC15" s="80"/>
+      <c r="BD15" s="80"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="49"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="49"/>
+      <c r="BP15" s="49"/>
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="5"/>
+      <c r="BU15" s="5"/>
+      <c r="BV15" s="49"/>
+      <c r="BW15" s="49"/>
+      <c r="BX15" s="5"/>
+      <c r="BY15" s="5"/>
+      <c r="BZ15" s="5"/>
+      <c r="CA15" s="5"/>
+      <c r="CB15" s="5"/>
+      <c r="CC15" s="49"/>
+      <c r="CD15" s="49"/>
+      <c r="CE15" s="5"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="5"/>
+      <c r="CI15" s="5"/>
+      <c r="CJ15" s="49"/>
+      <c r="CK15" s="49"/>
+      <c r="CL15" s="5"/>
+      <c r="CM15" s="5"/>
+      <c r="CN15" s="5"/>
+      <c r="CO15" s="5"/>
+      <c r="CP15" s="5"/>
+      <c r="CQ15" s="49"/>
+      <c r="CR15" s="49"/>
+      <c r="CS15" s="5"/>
+      <c r="CT15" s="5"/>
+      <c r="CU15" s="5"/>
+      <c r="CV15" s="5"/>
+      <c r="CW15" s="5"/>
+      <c r="CX15" s="49"/>
+      <c r="CY15" s="49"/>
     </row>
     <row r="16" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="55"/>
+      <c r="B16" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="68"/>
       <c r="D16" s="19">
         <f>T5</f>
         <v>45348</v>
@@ -3892,111 +3897,111 @@
         <f>U5</f>
         <v>45349</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="50"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
-      <c r="BH16" s="50"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
-      <c r="BL16" s="42"/>
-      <c r="BM16" s="42"/>
-      <c r="BN16" s="42"/>
-      <c r="BO16" s="50"/>
-      <c r="BP16" s="50"/>
-      <c r="BQ16" s="42"/>
-      <c r="BR16" s="42"/>
-      <c r="BS16" s="42"/>
-      <c r="BT16" s="42"/>
-      <c r="BU16" s="42"/>
-      <c r="BV16" s="50"/>
-      <c r="BW16" s="50"/>
-      <c r="BX16" s="42"/>
-      <c r="BY16" s="42"/>
-      <c r="BZ16" s="42"/>
-      <c r="CA16" s="42"/>
-      <c r="CB16" s="42"/>
-      <c r="CC16" s="50"/>
-      <c r="CD16" s="50"/>
-      <c r="CE16" s="42"/>
-      <c r="CF16" s="42"/>
-      <c r="CG16" s="42"/>
-      <c r="CH16" s="42"/>
-      <c r="CI16" s="42"/>
-      <c r="CJ16" s="50"/>
-      <c r="CK16" s="50"/>
-      <c r="CL16" s="42"/>
-      <c r="CM16" s="42"/>
-      <c r="CN16" s="42"/>
-      <c r="CO16" s="42"/>
-      <c r="CP16" s="42"/>
-      <c r="CQ16" s="50"/>
-      <c r="CR16" s="50"/>
-      <c r="CS16" s="42"/>
-      <c r="CT16" s="42"/>
-      <c r="CU16" s="42"/>
-      <c r="CV16" s="42"/>
-      <c r="CW16" s="42"/>
-      <c r="CX16" s="50"/>
-      <c r="CY16" s="50"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="49"/>
+      <c r="BB16" s="49"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="49"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="49"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5"/>
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="49"/>
+      <c r="BW16" s="49"/>
+      <c r="BX16" s="5"/>
+      <c r="BY16" s="5"/>
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="49"/>
+      <c r="CD16" s="49"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="5"/>
+      <c r="CI16" s="5"/>
+      <c r="CJ16" s="49"/>
+      <c r="CK16" s="49"/>
+      <c r="CL16" s="5"/>
+      <c r="CM16" s="5"/>
+      <c r="CN16" s="5"/>
+      <c r="CO16" s="5"/>
+      <c r="CP16" s="5"/>
+      <c r="CQ16" s="49"/>
+      <c r="CR16" s="49"/>
+      <c r="CS16" s="5"/>
+      <c r="CT16" s="5"/>
+      <c r="CU16" s="5"/>
+      <c r="CV16" s="5"/>
+      <c r="CW16" s="5"/>
+      <c r="CX16" s="49"/>
+      <c r="CY16" s="49"/>
     </row>
     <row r="17" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="55"/>
+      <c r="B17" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="68"/>
       <c r="D17" s="19">
         <f>U5</f>
         <v>45349</v>
@@ -4005,111 +4010,111 @@
         <f>AZ5</f>
         <v>45380</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
       <c r="AX17" s="8"/>
       <c r="AY17" s="5"/>
       <c r="AZ17" s="8"/>
-      <c r="BA17" s="50"/>
-      <c r="BB17" s="50"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="42"/>
-      <c r="BF17" s="42"/>
-      <c r="BG17" s="42"/>
-      <c r="BH17" s="50"/>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="42"/>
-      <c r="BK17" s="42"/>
-      <c r="BL17" s="42"/>
-      <c r="BM17" s="42"/>
-      <c r="BN17" s="42"/>
-      <c r="BO17" s="50"/>
-      <c r="BP17" s="50"/>
-      <c r="BQ17" s="42"/>
-      <c r="BR17" s="42"/>
-      <c r="BS17" s="42"/>
-      <c r="BT17" s="42"/>
-      <c r="BU17" s="42"/>
-      <c r="BV17" s="50"/>
-      <c r="BW17" s="50"/>
-      <c r="BX17" s="42"/>
-      <c r="BY17" s="42"/>
-      <c r="BZ17" s="42"/>
-      <c r="CA17" s="42"/>
-      <c r="CB17" s="42"/>
-      <c r="CC17" s="50"/>
-      <c r="CD17" s="50"/>
-      <c r="CE17" s="42"/>
-      <c r="CF17" s="42"/>
-      <c r="CG17" s="42"/>
-      <c r="CH17" s="42"/>
-      <c r="CI17" s="42"/>
-      <c r="CJ17" s="50"/>
-      <c r="CK17" s="50"/>
-      <c r="CL17" s="42"/>
-      <c r="CM17" s="42"/>
-      <c r="CN17" s="42"/>
-      <c r="CO17" s="42"/>
-      <c r="CP17" s="42"/>
-      <c r="CQ17" s="50"/>
-      <c r="CR17" s="50"/>
-      <c r="CS17" s="42"/>
-      <c r="CT17" s="42"/>
-      <c r="CU17" s="42"/>
-      <c r="CV17" s="42"/>
-      <c r="CW17" s="42"/>
-      <c r="CX17" s="50"/>
-      <c r="CY17" s="50"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="49"/>
+      <c r="BI17" s="49"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="49"/>
+      <c r="BP17" s="49"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="49"/>
+      <c r="BW17" s="49"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="49"/>
+      <c r="CD17" s="49"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
+      <c r="CH17" s="5"/>
+      <c r="CI17" s="5"/>
+      <c r="CJ17" s="49"/>
+      <c r="CK17" s="49"/>
+      <c r="CL17" s="5"/>
+      <c r="CM17" s="5"/>
+      <c r="CN17" s="5"/>
+      <c r="CO17" s="5"/>
+      <c r="CP17" s="5"/>
+      <c r="CQ17" s="49"/>
+      <c r="CR17" s="49"/>
+      <c r="CS17" s="5"/>
+      <c r="CT17" s="5"/>
+      <c r="CU17" s="5"/>
+      <c r="CV17" s="5"/>
+      <c r="CW17" s="5"/>
+      <c r="CX17" s="49"/>
+      <c r="CY17" s="49"/>
     </row>
     <row r="18" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="55"/>
+      <c r="B18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="68"/>
       <c r="D18" s="19">
         <f>AC5</f>
         <v>45357</v>
@@ -4118,111 +4123,111 @@
         <f>AH5</f>
         <v>45362</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="46"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42"/>
-      <c r="BG18" s="42"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="42"/>
-      <c r="BM18" s="42"/>
-      <c r="BN18" s="42"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
-      <c r="BQ18" s="42"/>
-      <c r="BR18" s="42"/>
-      <c r="BS18" s="42"/>
-      <c r="BT18" s="42"/>
-      <c r="BU18" s="42"/>
-      <c r="BV18" s="50"/>
-      <c r="BW18" s="50"/>
-      <c r="BX18" s="42"/>
-      <c r="BY18" s="42"/>
-      <c r="BZ18" s="42"/>
-      <c r="CA18" s="42"/>
-      <c r="CB18" s="42"/>
-      <c r="CC18" s="50"/>
-      <c r="CD18" s="50"/>
-      <c r="CE18" s="42"/>
-      <c r="CF18" s="42"/>
-      <c r="CG18" s="42"/>
-      <c r="CH18" s="42"/>
-      <c r="CI18" s="42"/>
-      <c r="CJ18" s="50"/>
-      <c r="CK18" s="50"/>
-      <c r="CL18" s="42"/>
-      <c r="CM18" s="42"/>
-      <c r="CN18" s="42"/>
-      <c r="CO18" s="42"/>
-      <c r="CP18" s="42"/>
-      <c r="CQ18" s="50"/>
-      <c r="CR18" s="50"/>
-      <c r="CS18" s="42"/>
-      <c r="CT18" s="42"/>
-      <c r="CU18" s="42"/>
-      <c r="CV18" s="42"/>
-      <c r="CW18" s="42"/>
-      <c r="CX18" s="50"/>
-      <c r="CY18" s="50"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="49"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="49"/>
+      <c r="BI18" s="49"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="49"/>
+      <c r="BP18" s="49"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="49"/>
+      <c r="BW18" s="49"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="5"/>
+      <c r="CA18" s="5"/>
+      <c r="CB18" s="5"/>
+      <c r="CC18" s="49"/>
+      <c r="CD18" s="49"/>
+      <c r="CE18" s="5"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="5"/>
+      <c r="CH18" s="5"/>
+      <c r="CI18" s="5"/>
+      <c r="CJ18" s="49"/>
+      <c r="CK18" s="49"/>
+      <c r="CL18" s="5"/>
+      <c r="CM18" s="5"/>
+      <c r="CN18" s="5"/>
+      <c r="CO18" s="5"/>
+      <c r="CP18" s="5"/>
+      <c r="CQ18" s="49"/>
+      <c r="CR18" s="49"/>
+      <c r="CS18" s="5"/>
+      <c r="CT18" s="5"/>
+      <c r="CU18" s="5"/>
+      <c r="CV18" s="5"/>
+      <c r="CW18" s="5"/>
+      <c r="CX18" s="49"/>
+      <c r="CY18" s="49"/>
     </row>
     <row r="19" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="55"/>
+      <c r="B19" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="68"/>
       <c r="D19" s="19">
         <f>AC5</f>
         <v>45357</v>
@@ -4231,111 +4236,111 @@
         <f>AH5</f>
         <v>45362</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="46"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
       <c r="AH19" s="8"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-      <c r="BG19" s="42"/>
-      <c r="BH19" s="50"/>
-      <c r="BI19" s="50"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="42"/>
-      <c r="BM19" s="42"/>
-      <c r="BN19" s="42"/>
-      <c r="BO19" s="50"/>
-      <c r="BP19" s="50"/>
-      <c r="BQ19" s="42"/>
-      <c r="BR19" s="42"/>
-      <c r="BS19" s="42"/>
-      <c r="BT19" s="42"/>
-      <c r="BU19" s="42"/>
-      <c r="BV19" s="50"/>
-      <c r="BW19" s="50"/>
-      <c r="BX19" s="42"/>
-      <c r="BY19" s="42"/>
-      <c r="BZ19" s="42"/>
-      <c r="CA19" s="42"/>
-      <c r="CB19" s="42"/>
-      <c r="CC19" s="50"/>
-      <c r="CD19" s="50"/>
-      <c r="CE19" s="42"/>
-      <c r="CF19" s="42"/>
-      <c r="CG19" s="42"/>
-      <c r="CH19" s="42"/>
-      <c r="CI19" s="42"/>
-      <c r="CJ19" s="50"/>
-      <c r="CK19" s="50"/>
-      <c r="CL19" s="42"/>
-      <c r="CM19" s="42"/>
-      <c r="CN19" s="42"/>
-      <c r="CO19" s="42"/>
-      <c r="CP19" s="42"/>
-      <c r="CQ19" s="50"/>
-      <c r="CR19" s="50"/>
-      <c r="CS19" s="42"/>
-      <c r="CT19" s="42"/>
-      <c r="CU19" s="42"/>
-      <c r="CV19" s="42"/>
-      <c r="CW19" s="42"/>
-      <c r="CX19" s="50"/>
-      <c r="CY19" s="50"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="49"/>
+      <c r="BB19" s="49"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="49"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
+      <c r="BO19" s="49"/>
+      <c r="BP19" s="49"/>
+      <c r="BQ19" s="5"/>
+      <c r="BR19" s="5"/>
+      <c r="BS19" s="5"/>
+      <c r="BT19" s="5"/>
+      <c r="BU19" s="5"/>
+      <c r="BV19" s="49"/>
+      <c r="BW19" s="49"/>
+      <c r="BX19" s="5"/>
+      <c r="BY19" s="5"/>
+      <c r="BZ19" s="5"/>
+      <c r="CA19" s="5"/>
+      <c r="CB19" s="5"/>
+      <c r="CC19" s="49"/>
+      <c r="CD19" s="49"/>
+      <c r="CE19" s="5"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="5"/>
+      <c r="CI19" s="5"/>
+      <c r="CJ19" s="49"/>
+      <c r="CK19" s="49"/>
+      <c r="CL19" s="5"/>
+      <c r="CM19" s="5"/>
+      <c r="CN19" s="5"/>
+      <c r="CO19" s="5"/>
+      <c r="CP19" s="5"/>
+      <c r="CQ19" s="49"/>
+      <c r="CR19" s="49"/>
+      <c r="CS19" s="5"/>
+      <c r="CT19" s="5"/>
+      <c r="CU19" s="5"/>
+      <c r="CV19" s="5"/>
+      <c r="CW19" s="5"/>
+      <c r="CX19" s="49"/>
+      <c r="CY19" s="49"/>
     </row>
     <row r="20" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="55"/>
+      <c r="B20" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="68"/>
       <c r="D20" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4344,111 +4349,111 @@
         <f>AK5</f>
         <v>45365</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="50"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="42"/>
-      <c r="BM20" s="42"/>
-      <c r="BN20" s="42"/>
-      <c r="BO20" s="50"/>
-      <c r="BP20" s="50"/>
-      <c r="BQ20" s="42"/>
-      <c r="BR20" s="42"/>
-      <c r="BS20" s="42"/>
-      <c r="BT20" s="42"/>
-      <c r="BU20" s="42"/>
-      <c r="BV20" s="50"/>
-      <c r="BW20" s="50"/>
-      <c r="BX20" s="42"/>
-      <c r="BY20" s="42"/>
-      <c r="BZ20" s="42"/>
-      <c r="CA20" s="42"/>
-      <c r="CB20" s="42"/>
-      <c r="CC20" s="50"/>
-      <c r="CD20" s="50"/>
-      <c r="CE20" s="42"/>
-      <c r="CF20" s="42"/>
-      <c r="CG20" s="42"/>
-      <c r="CH20" s="42"/>
-      <c r="CI20" s="42"/>
-      <c r="CJ20" s="50"/>
-      <c r="CK20" s="50"/>
-      <c r="CL20" s="42"/>
-      <c r="CM20" s="42"/>
-      <c r="CN20" s="42"/>
-      <c r="CO20" s="42"/>
-      <c r="CP20" s="42"/>
-      <c r="CQ20" s="50"/>
-      <c r="CR20" s="50"/>
-      <c r="CS20" s="42"/>
-      <c r="CT20" s="42"/>
-      <c r="CU20" s="42"/>
-      <c r="CV20" s="42"/>
-      <c r="CW20" s="42"/>
-      <c r="CX20" s="50"/>
-      <c r="CY20" s="50"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="49"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="49"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="49"/>
+      <c r="BP20" s="49"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+      <c r="BV20" s="49"/>
+      <c r="BW20" s="49"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="5"/>
+      <c r="BZ20" s="5"/>
+      <c r="CA20" s="5"/>
+      <c r="CB20" s="5"/>
+      <c r="CC20" s="49"/>
+      <c r="CD20" s="49"/>
+      <c r="CE20" s="5"/>
+      <c r="CF20" s="5"/>
+      <c r="CG20" s="5"/>
+      <c r="CH20" s="5"/>
+      <c r="CI20" s="5"/>
+      <c r="CJ20" s="49"/>
+      <c r="CK20" s="49"/>
+      <c r="CL20" s="5"/>
+      <c r="CM20" s="5"/>
+      <c r="CN20" s="5"/>
+      <c r="CO20" s="5"/>
+      <c r="CP20" s="5"/>
+      <c r="CQ20" s="49"/>
+      <c r="CR20" s="49"/>
+      <c r="CS20" s="5"/>
+      <c r="CT20" s="5"/>
+      <c r="CU20" s="5"/>
+      <c r="CV20" s="5"/>
+      <c r="CW20" s="5"/>
+      <c r="CX20" s="49"/>
+      <c r="CY20" s="49"/>
     </row>
     <row r="21" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="55"/>
+      <c r="B21" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="68"/>
       <c r="D21" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4457,111 +4462,111 @@
         <f>AZ5</f>
         <v>45380</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="46"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
       <c r="AH21" s="8"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
       <c r="AL21" s="8"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="5"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
       <c r="AX21" s="8"/>
       <c r="AY21" s="5"/>
       <c r="AZ21" s="8"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="42"/>
-      <c r="BG21" s="42"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="42"/>
-      <c r="BL21" s="42"/>
-      <c r="BM21" s="42"/>
-      <c r="BN21" s="42"/>
-      <c r="BO21" s="50"/>
-      <c r="BP21" s="50"/>
-      <c r="BQ21" s="42"/>
-      <c r="BR21" s="42"/>
-      <c r="BS21" s="42"/>
-      <c r="BT21" s="42"/>
-      <c r="BU21" s="42"/>
-      <c r="BV21" s="50"/>
-      <c r="BW21" s="50"/>
-      <c r="BX21" s="42"/>
-      <c r="BY21" s="42"/>
-      <c r="BZ21" s="42"/>
-      <c r="CA21" s="42"/>
-      <c r="CB21" s="42"/>
-      <c r="CC21" s="50"/>
-      <c r="CD21" s="50"/>
-      <c r="CE21" s="42"/>
-      <c r="CF21" s="42"/>
-      <c r="CG21" s="42"/>
-      <c r="CH21" s="42"/>
-      <c r="CI21" s="42"/>
-      <c r="CJ21" s="50"/>
-      <c r="CK21" s="50"/>
-      <c r="CL21" s="42"/>
-      <c r="CM21" s="42"/>
-      <c r="CN21" s="42"/>
-      <c r="CO21" s="42"/>
-      <c r="CP21" s="42"/>
-      <c r="CQ21" s="50"/>
-      <c r="CR21" s="50"/>
-      <c r="CS21" s="42"/>
-      <c r="CT21" s="42"/>
-      <c r="CU21" s="42"/>
-      <c r="CV21" s="42"/>
-      <c r="CW21" s="42"/>
-      <c r="CX21" s="50"/>
-      <c r="CY21" s="50"/>
+      <c r="BA21" s="49"/>
+      <c r="BB21" s="49"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="49"/>
+      <c r="BI21" s="49"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="49"/>
+      <c r="BP21" s="49"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="49"/>
+      <c r="BW21" s="49"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="5"/>
+      <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="49"/>
+      <c r="CD21" s="49"/>
+      <c r="CE21" s="5"/>
+      <c r="CF21" s="5"/>
+      <c r="CG21" s="5"/>
+      <c r="CH21" s="5"/>
+      <c r="CI21" s="5"/>
+      <c r="CJ21" s="49"/>
+      <c r="CK21" s="49"/>
+      <c r="CL21" s="5"/>
+      <c r="CM21" s="5"/>
+      <c r="CN21" s="5"/>
+      <c r="CO21" s="5"/>
+      <c r="CP21" s="5"/>
+      <c r="CQ21" s="49"/>
+      <c r="CR21" s="49"/>
+      <c r="CS21" s="5"/>
+      <c r="CT21" s="5"/>
+      <c r="CU21" s="5"/>
+      <c r="CV21" s="5"/>
+      <c r="CW21" s="5"/>
+      <c r="CX21" s="49"/>
+      <c r="CY21" s="49"/>
     </row>
     <row r="22" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="55"/>
+      <c r="B22" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="68"/>
       <c r="D22" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4570,220 +4575,220 @@
         <f>AZ5</f>
         <v>45380</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="46"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
       <c r="AO22" s="8"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
       <c r="AX22" s="8"/>
       <c r="AY22" s="5"/>
       <c r="AZ22" s="8"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="50"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="42"/>
-      <c r="BM22" s="42"/>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="50"/>
-      <c r="BP22" s="50"/>
-      <c r="BQ22" s="42"/>
-      <c r="BR22" s="42"/>
-      <c r="BS22" s="42"/>
-      <c r="BT22" s="42"/>
-      <c r="BU22" s="42"/>
-      <c r="BV22" s="50"/>
-      <c r="BW22" s="50"/>
-      <c r="BX22" s="42"/>
-      <c r="BY22" s="42"/>
-      <c r="BZ22" s="42"/>
-      <c r="CA22" s="42"/>
-      <c r="CB22" s="42"/>
-      <c r="CC22" s="50"/>
-      <c r="CD22" s="50"/>
-      <c r="CE22" s="42"/>
-      <c r="CF22" s="42"/>
-      <c r="CG22" s="42"/>
-      <c r="CH22" s="42"/>
-      <c r="CI22" s="42"/>
-      <c r="CJ22" s="50"/>
-      <c r="CK22" s="50"/>
-      <c r="CL22" s="42"/>
-      <c r="CM22" s="42"/>
-      <c r="CN22" s="42"/>
-      <c r="CO22" s="42"/>
-      <c r="CP22" s="42"/>
-      <c r="CQ22" s="50"/>
-      <c r="CR22" s="50"/>
-      <c r="CS22" s="42"/>
-      <c r="CT22" s="42"/>
-      <c r="CU22" s="42"/>
-      <c r="CV22" s="42"/>
-      <c r="CW22" s="42"/>
-      <c r="CX22" s="50"/>
-      <c r="CY22" s="50"/>
+      <c r="BA22" s="49"/>
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="49"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="49"/>
+      <c r="BW22" s="49"/>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
+      <c r="BZ22" s="5"/>
+      <c r="CA22" s="5"/>
+      <c r="CB22" s="5"/>
+      <c r="CC22" s="49"/>
+      <c r="CD22" s="49"/>
+      <c r="CE22" s="5"/>
+      <c r="CF22" s="5"/>
+      <c r="CG22" s="5"/>
+      <c r="CH22" s="5"/>
+      <c r="CI22" s="5"/>
+      <c r="CJ22" s="49"/>
+      <c r="CK22" s="49"/>
+      <c r="CL22" s="5"/>
+      <c r="CM22" s="5"/>
+      <c r="CN22" s="5"/>
+      <c r="CO22" s="5"/>
+      <c r="CP22" s="5"/>
+      <c r="CQ22" s="49"/>
+      <c r="CR22" s="49"/>
+      <c r="CS22" s="5"/>
+      <c r="CT22" s="5"/>
+      <c r="CU22" s="5"/>
+      <c r="CV22" s="5"/>
+      <c r="CW22" s="5"/>
+      <c r="CX22" s="49"/>
+      <c r="CY22" s="49"/>
     </row>
     <row r="23" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="46"/>
+      <c r="B23" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="80"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="80"/>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="80"/>
-      <c r="AN23" s="80"/>
-      <c r="AO23" s="80"/>
-      <c r="AP23" s="80"/>
-      <c r="AQ23" s="80"/>
-      <c r="AR23" s="80"/>
-      <c r="AS23" s="80"/>
-      <c r="AT23" s="80"/>
-      <c r="AU23" s="80"/>
-      <c r="AV23" s="80"/>
-      <c r="AW23" s="80"/>
-      <c r="AX23" s="80"/>
-      <c r="AY23" s="80"/>
-      <c r="AZ23" s="80"/>
-      <c r="BA23" s="80"/>
-      <c r="BB23" s="80"/>
-      <c r="BC23" s="80"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="50"/>
-      <c r="BI23" s="50"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="42"/>
-      <c r="BM23" s="42"/>
-      <c r="BN23" s="42"/>
-      <c r="BO23" s="50"/>
-      <c r="BP23" s="50"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
-      <c r="BT23" s="42"/>
-      <c r="BU23" s="42"/>
-      <c r="BV23" s="50"/>
-      <c r="BW23" s="50"/>
-      <c r="BX23" s="42"/>
-      <c r="BY23" s="42"/>
-      <c r="BZ23" s="42"/>
-      <c r="CA23" s="42"/>
-      <c r="CB23" s="42"/>
-      <c r="CC23" s="50"/>
-      <c r="CD23" s="50"/>
-      <c r="CE23" s="42"/>
-      <c r="CF23" s="42"/>
-      <c r="CG23" s="42"/>
-      <c r="CH23" s="42"/>
-      <c r="CI23" s="42"/>
-      <c r="CJ23" s="50"/>
-      <c r="CK23" s="50"/>
-      <c r="CL23" s="42"/>
-      <c r="CM23" s="42"/>
-      <c r="CN23" s="42"/>
-      <c r="CO23" s="42"/>
-      <c r="CP23" s="42"/>
-      <c r="CQ23" s="50"/>
-      <c r="CR23" s="50"/>
-      <c r="CS23" s="42"/>
-      <c r="CT23" s="42"/>
-      <c r="CU23" s="42"/>
-      <c r="CV23" s="42"/>
-      <c r="CW23" s="42"/>
-      <c r="CX23" s="50"/>
-      <c r="CY23" s="50"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="81"/>
+      <c r="AO23" s="81"/>
+      <c r="AP23" s="81"/>
+      <c r="AQ23" s="81"/>
+      <c r="AR23" s="81"/>
+      <c r="AS23" s="81"/>
+      <c r="AT23" s="81"/>
+      <c r="AU23" s="81"/>
+      <c r="AV23" s="81"/>
+      <c r="AW23" s="81"/>
+      <c r="AX23" s="81"/>
+      <c r="AY23" s="81"/>
+      <c r="AZ23" s="81"/>
+      <c r="BA23" s="81"/>
+      <c r="BB23" s="81"/>
+      <c r="BC23" s="81"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="49"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="49"/>
+      <c r="BP23" s="49"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BU23" s="5"/>
+      <c r="BV23" s="49"/>
+      <c r="BW23" s="49"/>
+      <c r="BX23" s="5"/>
+      <c r="BY23" s="5"/>
+      <c r="BZ23" s="5"/>
+      <c r="CA23" s="5"/>
+      <c r="CB23" s="5"/>
+      <c r="CC23" s="49"/>
+      <c r="CD23" s="49"/>
+      <c r="CE23" s="5"/>
+      <c r="CF23" s="5"/>
+      <c r="CG23" s="5"/>
+      <c r="CH23" s="5"/>
+      <c r="CI23" s="5"/>
+      <c r="CJ23" s="49"/>
+      <c r="CK23" s="49"/>
+      <c r="CL23" s="5"/>
+      <c r="CM23" s="5"/>
+      <c r="CN23" s="5"/>
+      <c r="CO23" s="5"/>
+      <c r="CP23" s="5"/>
+      <c r="CQ23" s="49"/>
+      <c r="CR23" s="49"/>
+      <c r="CS23" s="5"/>
+      <c r="CT23" s="5"/>
+      <c r="CU23" s="5"/>
+      <c r="CV23" s="5"/>
+      <c r="CW23" s="5"/>
+      <c r="CX23" s="49"/>
+      <c r="CY23" s="49"/>
     </row>
     <row r="24" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="60"/>
+      <c r="B24" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="69"/>
       <c r="D24" s="20">
         <f>AO5</f>
         <v>45369</v>
@@ -4792,111 +4797,111 @@
         <f>AP5</f>
         <v>45370</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="50"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="50"/>
-      <c r="BI24" s="50"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="42"/>
-      <c r="BM24" s="42"/>
-      <c r="BN24" s="42"/>
-      <c r="BO24" s="50"/>
-      <c r="BP24" s="50"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="42"/>
-      <c r="BS24" s="42"/>
-      <c r="BT24" s="42"/>
-      <c r="BU24" s="42"/>
-      <c r="BV24" s="50"/>
-      <c r="BW24" s="50"/>
-      <c r="BX24" s="42"/>
-      <c r="BY24" s="42"/>
-      <c r="BZ24" s="42"/>
-      <c r="CA24" s="42"/>
-      <c r="CB24" s="42"/>
-      <c r="CC24" s="50"/>
-      <c r="CD24" s="50"/>
-      <c r="CE24" s="42"/>
-      <c r="CF24" s="42"/>
-      <c r="CG24" s="42"/>
-      <c r="CH24" s="42"/>
-      <c r="CI24" s="42"/>
-      <c r="CJ24" s="50"/>
-      <c r="CK24" s="50"/>
-      <c r="CL24" s="42"/>
-      <c r="CM24" s="42"/>
-      <c r="CN24" s="42"/>
-      <c r="CO24" s="42"/>
-      <c r="CP24" s="42"/>
-      <c r="CQ24" s="50"/>
-      <c r="CR24" s="50"/>
-      <c r="CS24" s="42"/>
-      <c r="CT24" s="42"/>
-      <c r="CU24" s="42"/>
-      <c r="CV24" s="42"/>
-      <c r="CW24" s="42"/>
-      <c r="CX24" s="50"/>
-      <c r="CY24" s="50"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="49"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="49"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="49"/>
+      <c r="BP24" s="49"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="49"/>
+      <c r="BW24" s="49"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="5"/>
+      <c r="BZ24" s="5"/>
+      <c r="CA24" s="5"/>
+      <c r="CB24" s="5"/>
+      <c r="CC24" s="49"/>
+      <c r="CD24" s="49"/>
+      <c r="CE24" s="5"/>
+      <c r="CF24" s="5"/>
+      <c r="CG24" s="5"/>
+      <c r="CH24" s="5"/>
+      <c r="CI24" s="5"/>
+      <c r="CJ24" s="49"/>
+      <c r="CK24" s="49"/>
+      <c r="CL24" s="5"/>
+      <c r="CM24" s="5"/>
+      <c r="CN24" s="5"/>
+      <c r="CO24" s="5"/>
+      <c r="CP24" s="5"/>
+      <c r="CQ24" s="49"/>
+      <c r="CR24" s="49"/>
+      <c r="CS24" s="5"/>
+      <c r="CT24" s="5"/>
+      <c r="CU24" s="5"/>
+      <c r="CV24" s="5"/>
+      <c r="CW24" s="5"/>
+      <c r="CX24" s="49"/>
+      <c r="CY24" s="49"/>
     </row>
     <row r="25" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="60"/>
+      <c r="B25" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="69"/>
       <c r="D25" s="20">
         <f>AI5</f>
         <v>45363</v>
@@ -4905,111 +4910,111 @@
         <f>AS5</f>
         <v>45373</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="46"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="46"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
       <c r="AS25" s="8"/>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="50"/>
-      <c r="BB25" s="50"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="50"/>
-      <c r="BI25" s="50"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="42"/>
-      <c r="BL25" s="42"/>
-      <c r="BM25" s="42"/>
-      <c r="BN25" s="42"/>
-      <c r="BO25" s="50"/>
-      <c r="BP25" s="50"/>
-      <c r="BQ25" s="42"/>
-      <c r="BR25" s="42"/>
-      <c r="BS25" s="42"/>
-      <c r="BT25" s="42"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="50"/>
-      <c r="BW25" s="50"/>
-      <c r="BX25" s="42"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="42"/>
-      <c r="CA25" s="42"/>
-      <c r="CB25" s="42"/>
-      <c r="CC25" s="50"/>
-      <c r="CD25" s="50"/>
-      <c r="CE25" s="42"/>
-      <c r="CF25" s="42"/>
-      <c r="CG25" s="42"/>
-      <c r="CH25" s="42"/>
-      <c r="CI25" s="42"/>
-      <c r="CJ25" s="50"/>
-      <c r="CK25" s="50"/>
-      <c r="CL25" s="42"/>
-      <c r="CM25" s="42"/>
-      <c r="CN25" s="42"/>
-      <c r="CO25" s="42"/>
-      <c r="CP25" s="42"/>
-      <c r="CQ25" s="50"/>
-      <c r="CR25" s="50"/>
-      <c r="CS25" s="42"/>
-      <c r="CT25" s="42"/>
-      <c r="CU25" s="42"/>
-      <c r="CV25" s="42"/>
-      <c r="CW25" s="42"/>
-      <c r="CX25" s="50"/>
-      <c r="CY25" s="50"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="49"/>
+      <c r="BP25" s="49"/>
+      <c r="BQ25" s="5"/>
+      <c r="BR25" s="5"/>
+      <c r="BS25" s="5"/>
+      <c r="BT25" s="5"/>
+      <c r="BU25" s="5"/>
+      <c r="BV25" s="49"/>
+      <c r="BW25" s="49"/>
+      <c r="BX25" s="5"/>
+      <c r="BY25" s="5"/>
+      <c r="BZ25" s="5"/>
+      <c r="CA25" s="5"/>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="49"/>
+      <c r="CD25" s="49"/>
+      <c r="CE25" s="5"/>
+      <c r="CF25" s="5"/>
+      <c r="CG25" s="5"/>
+      <c r="CH25" s="5"/>
+      <c r="CI25" s="5"/>
+      <c r="CJ25" s="49"/>
+      <c r="CK25" s="49"/>
+      <c r="CL25" s="5"/>
+      <c r="CM25" s="5"/>
+      <c r="CN25" s="5"/>
+      <c r="CO25" s="5"/>
+      <c r="CP25" s="5"/>
+      <c r="CQ25" s="49"/>
+      <c r="CR25" s="49"/>
+      <c r="CS25" s="5"/>
+      <c r="CT25" s="5"/>
+      <c r="CU25" s="5"/>
+      <c r="CV25" s="5"/>
+      <c r="CW25" s="5"/>
+      <c r="CX25" s="49"/>
+      <c r="CY25" s="49"/>
     </row>
     <row r="26" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="60"/>
+      <c r="B26" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="69"/>
       <c r="D26" s="20">
         <f>D25</f>
         <v>45363</v>
@@ -5018,111 +5023,111 @@
         <f>AZ5</f>
         <v>45380</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="46"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="50"/>
-      <c r="AU26" s="50"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
       <c r="AV26" s="8"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
       <c r="AZ26" s="8"/>
-      <c r="BA26" s="50"/>
-      <c r="BB26" s="50"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="42"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="42"/>
-      <c r="BH26" s="50"/>
-      <c r="BI26" s="50"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="42"/>
-      <c r="BL26" s="42"/>
-      <c r="BM26" s="42"/>
-      <c r="BN26" s="42"/>
-      <c r="BO26" s="50"/>
-      <c r="BP26" s="50"/>
-      <c r="BQ26" s="42"/>
-      <c r="BR26" s="42"/>
-      <c r="BS26" s="42"/>
-      <c r="BT26" s="42"/>
-      <c r="BU26" s="42"/>
-      <c r="BV26" s="50"/>
-      <c r="BW26" s="50"/>
-      <c r="BX26" s="42"/>
-      <c r="BY26" s="42"/>
-      <c r="BZ26" s="42"/>
-      <c r="CA26" s="42"/>
-      <c r="CB26" s="42"/>
-      <c r="CC26" s="50"/>
-      <c r="CD26" s="50"/>
-      <c r="CE26" s="42"/>
-      <c r="CF26" s="42"/>
-      <c r="CG26" s="42"/>
-      <c r="CH26" s="42"/>
-      <c r="CI26" s="42"/>
-      <c r="CJ26" s="50"/>
-      <c r="CK26" s="50"/>
-      <c r="CL26" s="42"/>
-      <c r="CM26" s="42"/>
-      <c r="CN26" s="42"/>
-      <c r="CO26" s="42"/>
-      <c r="CP26" s="42"/>
-      <c r="CQ26" s="50"/>
-      <c r="CR26" s="50"/>
-      <c r="CS26" s="42"/>
-      <c r="CT26" s="42"/>
-      <c r="CU26" s="42"/>
-      <c r="CV26" s="42"/>
-      <c r="CW26" s="42"/>
-      <c r="CX26" s="50"/>
-      <c r="CY26" s="50"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="49"/>
+      <c r="BP26" s="49"/>
+      <c r="BQ26" s="5"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5"/>
+      <c r="BU26" s="5"/>
+      <c r="BV26" s="49"/>
+      <c r="BW26" s="49"/>
+      <c r="BX26" s="5"/>
+      <c r="BY26" s="5"/>
+      <c r="BZ26" s="5"/>
+      <c r="CA26" s="5"/>
+      <c r="CB26" s="5"/>
+      <c r="CC26" s="49"/>
+      <c r="CD26" s="49"/>
+      <c r="CE26" s="5"/>
+      <c r="CF26" s="5"/>
+      <c r="CG26" s="5"/>
+      <c r="CH26" s="5"/>
+      <c r="CI26" s="5"/>
+      <c r="CJ26" s="49"/>
+      <c r="CK26" s="49"/>
+      <c r="CL26" s="5"/>
+      <c r="CM26" s="5"/>
+      <c r="CN26" s="5"/>
+      <c r="CO26" s="5"/>
+      <c r="CP26" s="5"/>
+      <c r="CQ26" s="49"/>
+      <c r="CR26" s="49"/>
+      <c r="CS26" s="5"/>
+      <c r="CT26" s="5"/>
+      <c r="CU26" s="5"/>
+      <c r="CV26" s="5"/>
+      <c r="CW26" s="5"/>
+      <c r="CX26" s="49"/>
+      <c r="CY26" s="49"/>
     </row>
     <row r="27" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="61"/>
+      <c r="B27" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="20">
         <f>D26</f>
         <v>45363</v>
@@ -5131,750 +5136,748 @@
         <f>BC5</f>
         <v>45383</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="48"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="55"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="8"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="48"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="55"/>
       <c r="AO27" s="8"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="50"/>
-      <c r="AU27" s="50"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
       <c r="AV27" s="8"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="42"/>
-      <c r="BA27" s="50"/>
-      <c r="BB27" s="50"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
       <c r="BC27" s="8"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="42"/>
-      <c r="BG27" s="42"/>
-      <c r="BH27" s="50"/>
-      <c r="BI27" s="50"/>
-      <c r="BJ27" s="42"/>
-      <c r="BK27" s="42"/>
-      <c r="BL27" s="42"/>
-      <c r="BM27" s="42"/>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="50"/>
-      <c r="BP27" s="50"/>
-      <c r="BQ27" s="42"/>
-      <c r="BR27" s="42"/>
-      <c r="BS27" s="42"/>
-      <c r="BT27" s="42"/>
-      <c r="BU27" s="42"/>
-      <c r="BV27" s="50"/>
-      <c r="BW27" s="50"/>
-      <c r="BX27" s="42"/>
-      <c r="BY27" s="42"/>
-      <c r="BZ27" s="42"/>
-      <c r="CA27" s="42"/>
-      <c r="CB27" s="42"/>
-      <c r="CC27" s="50"/>
-      <c r="CD27" s="50"/>
-      <c r="CE27" s="42"/>
-      <c r="CF27" s="42"/>
-      <c r="CG27" s="42"/>
-      <c r="CH27" s="42"/>
-      <c r="CI27" s="42"/>
-      <c r="CJ27" s="50"/>
-      <c r="CK27" s="50"/>
-      <c r="CL27" s="42"/>
-      <c r="CM27" s="42"/>
-      <c r="CN27" s="42"/>
-      <c r="CO27" s="42"/>
-      <c r="CP27" s="42"/>
-      <c r="CQ27" s="50"/>
-      <c r="CR27" s="50"/>
-      <c r="CS27" s="42"/>
-      <c r="CT27" s="42"/>
-      <c r="CU27" s="42"/>
-      <c r="CV27" s="42"/>
-      <c r="CW27" s="42"/>
-      <c r="CX27" s="50"/>
-      <c r="CY27" s="50"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="49"/>
+      <c r="BP27" s="49"/>
+      <c r="BQ27" s="5"/>
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5"/>
+      <c r="BU27" s="5"/>
+      <c r="BV27" s="49"/>
+      <c r="BW27" s="49"/>
+      <c r="BX27" s="5"/>
+      <c r="BY27" s="5"/>
+      <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="49"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="5"/>
+      <c r="CF27" s="5"/>
+      <c r="CG27" s="5"/>
+      <c r="CH27" s="5"/>
+      <c r="CI27" s="5"/>
+      <c r="CJ27" s="49"/>
+      <c r="CK27" s="49"/>
+      <c r="CL27" s="5"/>
+      <c r="CM27" s="5"/>
+      <c r="CN27" s="5"/>
+      <c r="CO27" s="5"/>
+      <c r="CP27" s="5"/>
+      <c r="CQ27" s="49"/>
+      <c r="CR27" s="49"/>
+      <c r="CS27" s="5"/>
+      <c r="CT27" s="5"/>
+      <c r="CU27" s="5"/>
+      <c r="CV27" s="5"/>
+      <c r="CW27" s="5"/>
+      <c r="CX27" s="49"/>
+      <c r="CY27" s="49"/>
     </row>
     <row r="28" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
-      <c r="BM28" s="76"/>
-      <c r="BN28" s="76"/>
-      <c r="BO28" s="76"/>
-      <c r="BP28" s="76"/>
-      <c r="BQ28" s="76"/>
-      <c r="BR28" s="76"/>
-      <c r="BS28" s="76"/>
-      <c r="BT28" s="76"/>
-      <c r="BU28" s="76"/>
-      <c r="BV28" s="76"/>
-      <c r="BW28" s="76"/>
-      <c r="BX28" s="76"/>
-      <c r="BY28" s="76"/>
-      <c r="BZ28" s="76"/>
-      <c r="CA28" s="76"/>
-      <c r="CB28" s="76"/>
-      <c r="CC28" s="76"/>
-      <c r="CD28" s="76"/>
-      <c r="CE28" s="76"/>
-      <c r="CF28" s="76"/>
-      <c r="CG28" s="76"/>
-      <c r="CH28" s="76"/>
-      <c r="CI28" s="76"/>
-      <c r="CJ28" s="76"/>
-      <c r="CK28" s="76"/>
-      <c r="CL28" s="76"/>
-      <c r="CM28" s="76"/>
-      <c r="CN28" s="76"/>
-      <c r="CO28" s="76"/>
-      <c r="CP28" s="76"/>
-      <c r="CQ28" s="76"/>
-      <c r="CR28" s="76"/>
-      <c r="CS28" s="76"/>
-      <c r="CT28" s="76"/>
-      <c r="CU28" s="76"/>
-      <c r="CV28" s="76"/>
+      <c r="B28" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
+      <c r="BP28" s="56"/>
+      <c r="BQ28" s="56"/>
+      <c r="BR28" s="56"/>
+      <c r="BS28" s="56"/>
+      <c r="BT28" s="56"/>
+      <c r="BU28" s="56"/>
+      <c r="BV28" s="56"/>
+      <c r="BW28" s="56"/>
+      <c r="BX28" s="56"/>
+      <c r="BY28" s="56"/>
+      <c r="BZ28" s="56"/>
+      <c r="CA28" s="56"/>
+      <c r="CB28" s="56"/>
+      <c r="CC28" s="56"/>
+      <c r="CD28" s="56"/>
+      <c r="CE28" s="56"/>
+      <c r="CF28" s="56"/>
+      <c r="CG28" s="56"/>
+      <c r="CH28" s="56"/>
+      <c r="CI28" s="56"/>
+      <c r="CJ28" s="56"/>
+      <c r="CK28" s="56"/>
+      <c r="CL28" s="56"/>
+      <c r="CM28" s="56"/>
+      <c r="CN28" s="56"/>
+      <c r="CO28" s="56"/>
+      <c r="CP28" s="56"/>
+      <c r="CQ28" s="56"/>
+      <c r="CR28" s="56"/>
+      <c r="CS28" s="56"/>
+      <c r="CT28" s="56"/>
+      <c r="CU28" s="56"/>
+      <c r="CV28" s="56"/>
       <c r="CW28" s="5"/>
-      <c r="CX28" s="50"/>
-      <c r="CY28" s="50"/>
+      <c r="CX28" s="49"/>
+      <c r="CY28" s="49"/>
     </row>
     <row r="29" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="53"/>
+      <c r="B29" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="74"/>
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="44"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="51"/>
       <c r="T29" s="5"/>
       <c r="U29" s="8"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="8"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="50"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="60"/>
+      <c r="AR29" s="60"/>
+      <c r="AS29" s="60"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
       <c r="AV29" s="5"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
+      <c r="AW29" s="60"/>
+      <c r="AX29" s="60"/>
+      <c r="AY29" s="60"/>
       <c r="AZ29" s="5"/>
-      <c r="BA29" s="50"/>
-      <c r="BB29" s="50"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="5"/>
       <c r="BG29" s="8"/>
-      <c r="BH29" s="50"/>
-      <c r="BI29" s="50"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="49"/>
-      <c r="BL29" s="49"/>
-      <c r="BM29" s="49"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="50"/>
-      <c r="BP29" s="50"/>
-      <c r="BQ29" s="49"/>
-      <c r="BR29" s="49"/>
-      <c r="BS29" s="49"/>
-      <c r="BT29" s="49"/>
-      <c r="BU29" s="49"/>
-      <c r="BV29" s="50"/>
-      <c r="BW29" s="50"/>
-      <c r="BX29" s="49"/>
-      <c r="BY29" s="49"/>
-      <c r="BZ29" s="49"/>
-      <c r="CA29" s="49"/>
-      <c r="CB29" s="49"/>
-      <c r="CC29" s="50"/>
-      <c r="CD29" s="50"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="60"/>
+      <c r="BK29" s="60"/>
+      <c r="BL29" s="60"/>
+      <c r="BM29" s="60"/>
+      <c r="BN29" s="60"/>
+      <c r="BO29" s="49"/>
+      <c r="BP29" s="49"/>
+      <c r="BQ29" s="60"/>
+      <c r="BR29" s="60"/>
+      <c r="BS29" s="60"/>
+      <c r="BT29" s="60"/>
+      <c r="BU29" s="60"/>
+      <c r="BV29" s="49"/>
+      <c r="BW29" s="49"/>
+      <c r="BX29" s="60"/>
+      <c r="BY29" s="60"/>
+      <c r="BZ29" s="60"/>
+      <c r="CA29" s="60"/>
+      <c r="CB29" s="60"/>
+      <c r="CC29" s="49"/>
+      <c r="CD29" s="49"/>
       <c r="CE29" s="5"/>
       <c r="CF29" s="8"/>
       <c r="CG29" s="5"/>
-      <c r="CH29" s="8"/>
-      <c r="CI29" s="5"/>
-      <c r="CJ29" s="50"/>
-      <c r="CK29" s="50"/>
+      <c r="CH29" s="82"/>
+      <c r="CI29" s="83"/>
+      <c r="CJ29" s="49"/>
+      <c r="CK29" s="49"/>
       <c r="CL29" s="5"/>
-      <c r="CM29" s="5"/>
+      <c r="CM29" s="8"/>
       <c r="CN29" s="5"/>
       <c r="CO29" s="5"/>
       <c r="CP29" s="5"/>
-      <c r="CQ29" s="50"/>
-      <c r="CR29" s="50"/>
+      <c r="CQ29" s="49"/>
+      <c r="CR29" s="49"/>
       <c r="CS29" s="5"/>
       <c r="CT29" s="5"/>
       <c r="CU29" s="5"/>
       <c r="CV29" s="5"/>
       <c r="CW29" s="5"/>
-      <c r="CX29" s="50"/>
-      <c r="CY29" s="50"/>
+      <c r="CX29" s="49"/>
+      <c r="CY29" s="49"/>
     </row>
     <row r="30" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="69"/>
+      <c r="B30" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="72"/>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="46"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="50"/>
-      <c r="BB30" s="50"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="50"/>
-      <c r="BI30" s="50"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="42"/>
-      <c r="BM30" s="42"/>
-      <c r="BN30" s="42"/>
-      <c r="BO30" s="50"/>
-      <c r="BP30" s="50"/>
-      <c r="BQ30" s="42"/>
-      <c r="BR30" s="42"/>
-      <c r="BS30" s="42"/>
-      <c r="BT30" s="42"/>
-      <c r="BU30" s="42"/>
-      <c r="BV30" s="50"/>
-      <c r="BW30" s="50"/>
-      <c r="BX30" s="42"/>
-      <c r="BY30" s="42"/>
-      <c r="BZ30" s="49"/>
-      <c r="CA30" s="49"/>
-      <c r="CB30" s="49"/>
-      <c r="CC30" s="50"/>
-      <c r="CD30" s="50"/>
-      <c r="CE30" s="81"/>
-      <c r="CF30" s="82"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="49"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="5"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="49"/>
+      <c r="BJ30" s="5"/>
+      <c r="BK30" s="5"/>
+      <c r="BL30" s="5"/>
+      <c r="BM30" s="5"/>
+      <c r="BN30" s="5"/>
+      <c r="BO30" s="49"/>
+      <c r="BP30" s="49"/>
+      <c r="BQ30" s="5"/>
+      <c r="BR30" s="5"/>
+      <c r="BS30" s="5"/>
+      <c r="BT30" s="5"/>
+      <c r="BU30" s="5"/>
+      <c r="BV30" s="49"/>
+      <c r="BW30" s="49"/>
+      <c r="BX30" s="5"/>
+      <c r="BY30" s="5"/>
+      <c r="BZ30" s="60"/>
+      <c r="CA30" s="60"/>
+      <c r="CB30" s="60"/>
+      <c r="CC30" s="49"/>
+      <c r="CD30" s="49"/>
+      <c r="CE30" s="47"/>
+      <c r="CF30" s="48"/>
       <c r="CG30" s="7"/>
-      <c r="CH30" s="8"/>
-      <c r="CI30" s="5"/>
-      <c r="CJ30" s="50"/>
-      <c r="CK30" s="50"/>
+      <c r="CH30" s="82"/>
+      <c r="CI30" s="83"/>
+      <c r="CJ30" s="49"/>
+      <c r="CK30" s="49"/>
       <c r="CL30" s="5"/>
-      <c r="CM30" s="7"/>
+      <c r="CM30" s="42"/>
       <c r="CN30" s="5"/>
       <c r="CO30" s="5"/>
       <c r="CP30" s="5"/>
-      <c r="CQ30" s="50"/>
-      <c r="CR30" s="50"/>
+      <c r="CQ30" s="49"/>
+      <c r="CR30" s="49"/>
       <c r="CS30" s="5"/>
       <c r="CT30" s="5"/>
       <c r="CU30" s="7"/>
       <c r="CV30" s="7"/>
       <c r="CW30" s="5"/>
-      <c r="CX30" s="50"/>
-      <c r="CY30" s="50"/>
+      <c r="CX30" s="49"/>
+      <c r="CY30" s="49"/>
     </row>
     <row r="31" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="46"/>
+      <c r="B31" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="53"/>
       <c r="T31" s="5"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
       <c r="AA31" s="8"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="5"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="46"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="8"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="50"/>
-      <c r="BI31" s="50"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="42"/>
-      <c r="BL31" s="42"/>
-      <c r="BM31" s="42"/>
-      <c r="BN31" s="42"/>
-      <c r="BO31" s="50"/>
-      <c r="BP31" s="50"/>
-      <c r="BQ31" s="49"/>
-      <c r="BR31" s="49"/>
-      <c r="BS31" s="49"/>
-      <c r="BT31" s="49"/>
-      <c r="BU31" s="49"/>
-      <c r="BV31" s="50"/>
-      <c r="BW31" s="50"/>
-      <c r="BX31" s="42"/>
-      <c r="BY31" s="42"/>
-      <c r="BZ31" s="42"/>
-      <c r="CA31" s="42"/>
-      <c r="CB31" s="42"/>
-      <c r="CC31" s="50"/>
-      <c r="CD31" s="50"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="5"/>
+      <c r="BK31" s="5"/>
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
+      <c r="BN31" s="5"/>
+      <c r="BO31" s="49"/>
+      <c r="BP31" s="49"/>
+      <c r="BQ31" s="60"/>
+      <c r="BR31" s="60"/>
+      <c r="BS31" s="60"/>
+      <c r="BT31" s="60"/>
+      <c r="BU31" s="60"/>
+      <c r="BV31" s="49"/>
+      <c r="BW31" s="49"/>
+      <c r="BX31" s="5"/>
+      <c r="BY31" s="5"/>
+      <c r="BZ31" s="5"/>
+      <c r="CA31" s="5"/>
+      <c r="CB31" s="5"/>
+      <c r="CC31" s="49"/>
+      <c r="CD31" s="49"/>
       <c r="CE31" s="5"/>
       <c r="CF31" s="5"/>
       <c r="CG31" s="5"/>
       <c r="CH31" s="5"/>
       <c r="CI31" s="5"/>
-      <c r="CJ31" s="50"/>
-      <c r="CK31" s="50"/>
+      <c r="CJ31" s="49"/>
+      <c r="CK31" s="49"/>
       <c r="CL31" s="5"/>
       <c r="CM31" s="5"/>
       <c r="CN31" s="5"/>
       <c r="CO31" s="5"/>
       <c r="CP31" s="5"/>
-      <c r="CQ31" s="50"/>
-      <c r="CR31" s="50"/>
+      <c r="CQ31" s="49"/>
+      <c r="CR31" s="49"/>
       <c r="CS31" s="5"/>
       <c r="CT31" s="5"/>
       <c r="CU31" s="5"/>
       <c r="CV31" s="5"/>
       <c r="CW31" s="5"/>
-      <c r="CX31" s="50"/>
-      <c r="CY31" s="50"/>
+      <c r="CX31" s="49"/>
+      <c r="CY31" s="49"/>
     </row>
     <row r="32" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="46"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="53"/>
       <c r="T32" s="8"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
       <c r="AE32" s="41"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="8"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="46"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="53"/>
       <c r="AO32" s="8"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
       <c r="AS32" s="8"/>
-      <c r="AT32" s="50"/>
-      <c r="AU32" s="50"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
       <c r="AX32" s="8"/>
       <c r="AY32" s="5"/>
       <c r="AZ32" s="8"/>
-      <c r="BA32" s="50"/>
-      <c r="BB32" s="50"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="50"/>
-      <c r="BI32" s="50"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
       <c r="BJ32" s="8"/>
-      <c r="BK32" s="42"/>
-      <c r="BL32" s="42"/>
-      <c r="BM32" s="42"/>
-      <c r="BN32" s="42"/>
-      <c r="BO32" s="50"/>
-      <c r="BP32" s="50"/>
-      <c r="BQ32" s="49"/>
-      <c r="BR32" s="49"/>
-      <c r="BS32" s="49"/>
-      <c r="BT32" s="49"/>
-      <c r="BU32" s="49"/>
-      <c r="BV32" s="50"/>
-      <c r="BW32" s="50"/>
-      <c r="BX32" s="49"/>
-      <c r="BY32" s="49"/>
-      <c r="BZ32" s="42"/>
-      <c r="CA32" s="42"/>
-      <c r="CB32" s="42"/>
-      <c r="CC32" s="50"/>
-      <c r="CD32" s="50"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
+      <c r="BN32" s="5"/>
+      <c r="BO32" s="49"/>
+      <c r="BP32" s="49"/>
+      <c r="BQ32" s="60"/>
+      <c r="BR32" s="60"/>
+      <c r="BS32" s="60"/>
+      <c r="BT32" s="60"/>
+      <c r="BU32" s="60"/>
+      <c r="BV32" s="49"/>
+      <c r="BW32" s="49"/>
+      <c r="BX32" s="60"/>
+      <c r="BY32" s="60"/>
+      <c r="BZ32" s="5"/>
+      <c r="CA32" s="5"/>
+      <c r="CB32" s="5"/>
+      <c r="CC32" s="49"/>
+      <c r="CD32" s="49"/>
       <c r="CE32" s="5"/>
       <c r="CF32" s="5"/>
       <c r="CG32" s="5"/>
       <c r="CH32" s="5"/>
-      <c r="CI32" s="5"/>
-      <c r="CJ32" s="50"/>
-      <c r="CK32" s="50"/>
+      <c r="CI32" s="8"/>
+      <c r="CJ32" s="49"/>
+      <c r="CK32" s="49"/>
       <c r="CL32" s="5"/>
       <c r="CM32" s="5"/>
       <c r="CN32" s="5"/>
       <c r="CO32" s="5"/>
       <c r="CP32" s="5"/>
-      <c r="CQ32" s="50"/>
-      <c r="CR32" s="50"/>
+      <c r="CQ32" s="49"/>
+      <c r="CR32" s="49"/>
       <c r="CS32" s="5"/>
       <c r="CT32" s="5"/>
       <c r="CU32" s="5"/>
       <c r="CV32" s="5"/>
       <c r="CW32" s="5"/>
-      <c r="CX32" s="50"/>
-      <c r="CY32" s="50"/>
+      <c r="CX32" s="49"/>
+      <c r="CY32" s="49"/>
     </row>
     <row r="33" spans="1:104" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="55"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="48"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="55"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
       <c r="AQ33" s="8"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="50"/>
-      <c r="AU33" s="50"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="60"/>
+      <c r="AW33" s="60"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
       <c r="AZ33" s="8"/>
-      <c r="BA33" s="50"/>
-      <c r="BB33" s="50"/>
-      <c r="BC33" s="42"/>
-      <c r="BD33" s="42"/>
-      <c r="BE33" s="42"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="50"/>
-      <c r="BI33" s="50"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="60"/>
+      <c r="BG33" s="60"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
       <c r="BJ33" s="8"/>
-      <c r="BK33" s="42"/>
-      <c r="BL33" s="42"/>
-      <c r="BM33" s="42"/>
-      <c r="BN33" s="42"/>
-      <c r="BO33" s="50"/>
-      <c r="BP33" s="50"/>
-      <c r="BQ33" s="49"/>
-      <c r="BR33" s="49"/>
-      <c r="BS33" s="49"/>
-      <c r="BT33" s="49"/>
-      <c r="BU33" s="49"/>
-      <c r="BV33" s="50"/>
-      <c r="BW33" s="50"/>
-      <c r="BX33" s="49"/>
-      <c r="BY33" s="49"/>
-      <c r="BZ33" s="42"/>
-      <c r="CA33" s="42"/>
-      <c r="CB33" s="42"/>
-      <c r="CC33" s="50"/>
-      <c r="CD33" s="50"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="60"/>
+      <c r="BR33" s="60"/>
+      <c r="BS33" s="60"/>
+      <c r="BT33" s="60"/>
+      <c r="BU33" s="60"/>
+      <c r="BV33" s="49"/>
+      <c r="BW33" s="49"/>
+      <c r="BX33" s="60"/>
+      <c r="BY33" s="60"/>
+      <c r="BZ33" s="5"/>
+      <c r="CA33" s="5"/>
+      <c r="CB33" s="5"/>
+      <c r="CC33" s="49"/>
+      <c r="CD33" s="49"/>
       <c r="CE33" s="5"/>
       <c r="CF33" s="5"/>
       <c r="CG33" s="5"/>
       <c r="CH33" s="5"/>
       <c r="CI33" s="5"/>
-      <c r="CJ33" s="50"/>
-      <c r="CK33" s="50"/>
+      <c r="CJ33" s="49"/>
+      <c r="CK33" s="49"/>
       <c r="CL33" s="5"/>
       <c r="CM33" s="5"/>
       <c r="CN33" s="5"/>
       <c r="CO33" s="5"/>
       <c r="CP33" s="5"/>
-      <c r="CQ33" s="50"/>
-      <c r="CR33" s="50"/>
+      <c r="CQ33" s="49"/>
+      <c r="CR33" s="49"/>
       <c r="CS33" s="5"/>
       <c r="CT33" s="5"/>
       <c r="CU33" s="5"/>
       <c r="CV33" s="5"/>
       <c r="CW33" s="5"/>
-      <c r="CX33" s="50"/>
-      <c r="CY33" s="50"/>
+      <c r="CX33" s="49"/>
+      <c r="CY33" s="49"/>
       <c r="CZ33" s="40"/>
     </row>
     <row r="34" spans="1:104" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,7 +5990,98 @@
       <c r="E35" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="430">
+  <mergeCells count="113">
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="CH29:CI29"/>
+    <mergeCell ref="CH30:CI30"/>
+    <mergeCell ref="AC15:BD15"/>
+    <mergeCell ref="AM16:AN22"/>
+    <mergeCell ref="AT16:AU22"/>
+    <mergeCell ref="BA24:BB27"/>
+    <mergeCell ref="AT24:AU27"/>
+    <mergeCell ref="AI23:BC23"/>
+    <mergeCell ref="BZ30:CB30"/>
+    <mergeCell ref="BX29:CB29"/>
+    <mergeCell ref="BQ29:BU29"/>
+    <mergeCell ref="BJ29:BN29"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AO17:AP17"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="BX32:BY32"/>
+    <mergeCell ref="BX33:BY33"/>
+    <mergeCell ref="AW29:AY29"/>
+    <mergeCell ref="AQ29:AS29"/>
+    <mergeCell ref="BH8:BI27"/>
+    <mergeCell ref="BO8:BP27"/>
+    <mergeCell ref="BV8:BW27"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="BQ31:BU31"/>
+    <mergeCell ref="BQ32:BU32"/>
+    <mergeCell ref="BQ33:BU33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="CS4:CY4"/>
+    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="BQ4:BW4"/>
+    <mergeCell ref="BX4:CD4"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CL4:CR4"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="AV4:BB4"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="Y8:Z27"/>
+    <mergeCell ref="AF8:AG14"/>
+    <mergeCell ref="AM8:AN14"/>
+    <mergeCell ref="AT8:AU14"/>
+    <mergeCell ref="BA8:BB14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AO4:AU4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="BA16:BB22"/>
     <mergeCell ref="CC8:CD27"/>
     <mergeCell ref="CJ8:CK27"/>
     <mergeCell ref="CQ8:CR27"/>
@@ -6010,414 +6104,6 @@
     <mergeCell ref="AM24:AN27"/>
     <mergeCell ref="K29:L33"/>
     <mergeCell ref="R29:S33"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="Y8:Z27"/>
-    <mergeCell ref="AF8:AG14"/>
-    <mergeCell ref="AM8:AN14"/>
-    <mergeCell ref="AT8:AU14"/>
-    <mergeCell ref="BA8:BB14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AO4:AU4"/>
-    <mergeCell ref="AO31:AS31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="AV31:AZ31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AY33"/>
-    <mergeCell ref="BC31:BG31"/>
-    <mergeCell ref="BC32:BG32"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="CS4:CY4"/>
-    <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BQ4:BW4"/>
-    <mergeCell ref="BX4:CD4"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CL4:CR4"/>
-    <mergeCell ref="BH7:BI7"/>
-    <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="AO33:AP33"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="BA16:BB22"/>
-    <mergeCell ref="BH8:BI27"/>
-    <mergeCell ref="BO8:BP27"/>
-    <mergeCell ref="BV8:BW27"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="BJ31:BN31"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="BQ31:BU31"/>
-    <mergeCell ref="BQ32:BU32"/>
-    <mergeCell ref="BQ33:BU33"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AI33:AL33"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="BX32:BY32"/>
-    <mergeCell ref="BX33:BY33"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AO14:AS14"/>
-    <mergeCell ref="AO12:AS12"/>
-    <mergeCell ref="AO11:AS11"/>
-    <mergeCell ref="AO10:AS10"/>
-    <mergeCell ref="AO9:AS9"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="AH12:AL12"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="AO26:AS26"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AQ24:AS24"/>
-    <mergeCell ref="AH24:AL24"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="AV30:AZ30"/>
-    <mergeCell ref="AO30:AS30"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AP27:AS27"/>
-    <mergeCell ref="AW29:AY29"/>
-    <mergeCell ref="AQ29:AS29"/>
-    <mergeCell ref="AV24:AZ24"/>
-    <mergeCell ref="AV25:AZ25"/>
-    <mergeCell ref="AW26:AY26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AH30:AL30"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AV18:AZ18"/>
-    <mergeCell ref="AV19:AZ19"/>
-    <mergeCell ref="AV20:AZ20"/>
-    <mergeCell ref="AO20:AS20"/>
-    <mergeCell ref="AO19:AS19"/>
-    <mergeCell ref="AO18:AS18"/>
-    <mergeCell ref="AO16:AS16"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AO17:AP17"/>
-    <mergeCell ref="AI18:AL18"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AH16:AL16"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AO21:AQ21"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AI19:AL19"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="BJ16:BN16"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="BJ8:BN8"/>
-    <mergeCell ref="BJ11:BN11"/>
-    <mergeCell ref="BJ10:BN10"/>
-    <mergeCell ref="BC11:BG11"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BC8:BG8"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BJ9:BN9"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AA10:AE10"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AO13:AS13"/>
-    <mergeCell ref="AH13:AL13"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BC16:BG16"/>
-    <mergeCell ref="BE15:BG15"/>
-    <mergeCell ref="BC14:BG14"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="BC21:BG21"/>
-    <mergeCell ref="BC20:BG20"/>
-    <mergeCell ref="BC19:BG19"/>
-    <mergeCell ref="BC18:BG18"/>
-    <mergeCell ref="BC17:BG17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="AV12:AZ12"/>
-    <mergeCell ref="AV11:AZ11"/>
-    <mergeCell ref="BC26:BG26"/>
-    <mergeCell ref="BC25:BG25"/>
-    <mergeCell ref="BC24:BG24"/>
-    <mergeCell ref="BC22:BG22"/>
-    <mergeCell ref="BJ27:BN27"/>
-    <mergeCell ref="BJ30:BN30"/>
-    <mergeCell ref="BC30:BG30"/>
-    <mergeCell ref="BC29:BD29"/>
-    <mergeCell ref="BD27:BG27"/>
-    <mergeCell ref="BJ22:BN22"/>
-    <mergeCell ref="BJ23:BN23"/>
-    <mergeCell ref="BJ24:BN24"/>
-    <mergeCell ref="BJ25:BN25"/>
-    <mergeCell ref="BJ26:BN26"/>
-    <mergeCell ref="BJ17:BN17"/>
-    <mergeCell ref="BZ30:CB30"/>
-    <mergeCell ref="BX29:CB29"/>
-    <mergeCell ref="BQ29:BU29"/>
-    <mergeCell ref="BJ29:BN29"/>
-    <mergeCell ref="BX30:BY30"/>
-    <mergeCell ref="BQ30:BU30"/>
-    <mergeCell ref="BX18:CB18"/>
-    <mergeCell ref="BQ18:BU18"/>
-    <mergeCell ref="BQ19:BU19"/>
-    <mergeCell ref="BX19:CB19"/>
-    <mergeCell ref="BX20:CB20"/>
-    <mergeCell ref="BQ20:BU20"/>
-    <mergeCell ref="BQ21:BU21"/>
-    <mergeCell ref="BX21:CB21"/>
-    <mergeCell ref="BX22:CB22"/>
-    <mergeCell ref="BJ18:BN18"/>
-    <mergeCell ref="BJ19:BN19"/>
-    <mergeCell ref="BJ20:BN20"/>
-    <mergeCell ref="BJ21:BN21"/>
-    <mergeCell ref="BJ12:BN12"/>
-    <mergeCell ref="BJ13:BN13"/>
-    <mergeCell ref="BJ14:BN14"/>
-    <mergeCell ref="BJ15:BN15"/>
-    <mergeCell ref="BX15:CB15"/>
-    <mergeCell ref="BQ25:BU25"/>
-    <mergeCell ref="BX25:CB25"/>
-    <mergeCell ref="BX26:CB26"/>
-    <mergeCell ref="BQ26:BU26"/>
-    <mergeCell ref="BQ27:BU27"/>
-    <mergeCell ref="BX27:CB27"/>
-    <mergeCell ref="BQ22:BU22"/>
-    <mergeCell ref="BQ23:BU23"/>
-    <mergeCell ref="BX23:CB23"/>
-    <mergeCell ref="BX24:CB24"/>
-    <mergeCell ref="BQ24:BU24"/>
-    <mergeCell ref="BX31:CB31"/>
-    <mergeCell ref="AC15:BD15"/>
-    <mergeCell ref="AM16:AN22"/>
-    <mergeCell ref="AT16:AU22"/>
-    <mergeCell ref="BA24:BB27"/>
-    <mergeCell ref="AT24:AU27"/>
-    <mergeCell ref="AI23:BC23"/>
-    <mergeCell ref="BD23:BG23"/>
-    <mergeCell ref="BX16:CB16"/>
-    <mergeCell ref="BQ16:BU16"/>
-    <mergeCell ref="BQ17:BU17"/>
-    <mergeCell ref="BX17:CB17"/>
-    <mergeCell ref="BZ32:CB32"/>
-    <mergeCell ref="BZ33:CB33"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BX8:CB8"/>
-    <mergeCell ref="BX9:CB9"/>
-    <mergeCell ref="BQ9:BU9"/>
-    <mergeCell ref="BQ10:BU10"/>
-    <mergeCell ref="CE22:CI22"/>
-    <mergeCell ref="CE21:CI21"/>
-    <mergeCell ref="CE20:CI20"/>
-    <mergeCell ref="CE19:CI19"/>
-    <mergeCell ref="CE18:CI18"/>
-    <mergeCell ref="CE27:CI27"/>
-    <mergeCell ref="CE26:CI26"/>
-    <mergeCell ref="CE25:CI25"/>
-    <mergeCell ref="CE24:CI24"/>
-    <mergeCell ref="CE23:CI23"/>
-    <mergeCell ref="CS19:CW19"/>
-    <mergeCell ref="CS18:CW18"/>
-    <mergeCell ref="CS17:CW17"/>
-    <mergeCell ref="CS16:CW16"/>
-    <mergeCell ref="CS15:CW15"/>
-    <mergeCell ref="CE12:CI12"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE9:CI9"/>
-    <mergeCell ref="CE17:CI17"/>
-    <mergeCell ref="CE16:CI16"/>
-    <mergeCell ref="CE15:CI15"/>
-    <mergeCell ref="CE14:CI14"/>
-    <mergeCell ref="CE13:CI13"/>
-    <mergeCell ref="CL18:CP18"/>
-    <mergeCell ref="CL19:CP19"/>
-    <mergeCell ref="CL13:CP13"/>
-    <mergeCell ref="CL14:CP14"/>
-    <mergeCell ref="CL15:CP15"/>
-    <mergeCell ref="CL16:CP16"/>
-    <mergeCell ref="CL17:CP17"/>
-    <mergeCell ref="CL9:CP9"/>
-    <mergeCell ref="CL10:CP10"/>
-    <mergeCell ref="CL11:CP11"/>
-    <mergeCell ref="CL12:CP12"/>
-    <mergeCell ref="CL25:CP25"/>
-    <mergeCell ref="CS27:CW27"/>
-    <mergeCell ref="CS26:CW26"/>
-    <mergeCell ref="CS25:CW25"/>
-    <mergeCell ref="CS24:CW24"/>
-    <mergeCell ref="CS23:CW23"/>
-    <mergeCell ref="CS22:CW22"/>
-    <mergeCell ref="CS21:CW21"/>
-    <mergeCell ref="CS20:CW20"/>
-    <mergeCell ref="CL23:CP23"/>
-    <mergeCell ref="CL24:CP24"/>
-    <mergeCell ref="CL26:CP26"/>
-    <mergeCell ref="CL27:CP27"/>
-    <mergeCell ref="CL20:CP20"/>
-    <mergeCell ref="CL21:CP21"/>
-    <mergeCell ref="CL22:CP22"/>
-    <mergeCell ref="CS9:CW9"/>
-    <mergeCell ref="CS8:CW8"/>
-    <mergeCell ref="BK33:BN33"/>
-    <mergeCell ref="BK32:BN32"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="CS14:CW14"/>
-    <mergeCell ref="CS13:CW13"/>
-    <mergeCell ref="CS12:CW12"/>
-    <mergeCell ref="CS11:CW11"/>
-    <mergeCell ref="CS10:CW10"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="CL8:CP8"/>
-    <mergeCell ref="BX12:CB12"/>
-    <mergeCell ref="BX10:CB10"/>
-    <mergeCell ref="BX11:CB11"/>
-    <mergeCell ref="BQ11:BU11"/>
-    <mergeCell ref="BQ12:BU12"/>
-    <mergeCell ref="BQ13:BU13"/>
-    <mergeCell ref="BX13:CB13"/>
-    <mergeCell ref="BX14:CB14"/>
-    <mergeCell ref="BQ14:BU14"/>
-    <mergeCell ref="BQ15:BU15"/>
   </mergeCells>
   <conditionalFormatting sqref="C7">
     <cfRule type="dataBar" priority="20">
@@ -6462,7 +6148,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.35433070866141736" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -6497,23 +6183,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6805,29 +6480,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6854,9 +6529,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Final.xlsx
+++ b/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Final.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687F3A3-C828-48BF-B527-38B2BFBB8A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D218BA-AFB8-4BFE-8FCC-6026E61DB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1068,7 @@
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1196,9 +1202,96 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,92 +1313,11 @@
     <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1873,8 +1885,8 @@
   </sheetPr>
   <dimension ref="A1:CZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="92" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BD20" sqref="BD20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="92" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1891,12 +1903,12 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
@@ -1920,11 +1932,11 @@
         <v>23</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="58">
+      <c r="D3" s="75">
         <f>DATE(2024,2,12)</f>
         <v>45334</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:103" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1937,146 +1949,146 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="70">
         <f>F5</f>
         <v>45334</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70">
         <f>M5</f>
         <v>45341</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59">
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70">
         <f>T5</f>
         <v>45348</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59">
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70">
         <f>AA5</f>
         <v>45355</v>
       </c>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59">
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70">
         <f>AH5</f>
         <v>45362</v>
       </c>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59">
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70">
         <f>AO5</f>
         <v>45369</v>
       </c>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59">
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70">
         <f>AV5</f>
         <v>45376</v>
       </c>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59">
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="70">
         <f>BC5</f>
         <v>45383</v>
       </c>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59">
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="70"/>
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="70">
         <f>BJ5</f>
         <v>45390</v>
       </c>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59">
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="70"/>
+      <c r="BN4" s="70"/>
+      <c r="BO4" s="70"/>
+      <c r="BP4" s="70"/>
+      <c r="BQ4" s="70">
         <f>BQ5</f>
         <v>45397</v>
       </c>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="61"/>
-      <c r="BX4" s="61">
+      <c r="BR4" s="70"/>
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="70"/>
+      <c r="BU4" s="70"/>
+      <c r="BV4" s="70"/>
+      <c r="BW4" s="71"/>
+      <c r="BX4" s="71">
         <f>BX5</f>
         <v>45404</v>
       </c>
-      <c r="BY4" s="61"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="59">
+      <c r="BY4" s="71"/>
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="70"/>
+      <c r="CB4" s="70"/>
+      <c r="CC4" s="70"/>
+      <c r="CD4" s="70"/>
+      <c r="CE4" s="70">
         <f>CE5</f>
         <v>45411</v>
       </c>
-      <c r="CF4" s="59"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="59"/>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="59"/>
-      <c r="CK4" s="59"/>
-      <c r="CL4" s="59">
+      <c r="CF4" s="70"/>
+      <c r="CG4" s="70"/>
+      <c r="CH4" s="70"/>
+      <c r="CI4" s="70"/>
+      <c r="CJ4" s="70"/>
+      <c r="CK4" s="70"/>
+      <c r="CL4" s="70">
         <f>CL5</f>
         <v>45418</v>
       </c>
-      <c r="CM4" s="59"/>
-      <c r="CN4" s="59"/>
-      <c r="CO4" s="59"/>
-      <c r="CP4" s="59"/>
-      <c r="CQ4" s="59"/>
-      <c r="CR4" s="59"/>
-      <c r="CS4" s="59">
+      <c r="CM4" s="70"/>
+      <c r="CN4" s="70"/>
+      <c r="CO4" s="70"/>
+      <c r="CP4" s="70"/>
+      <c r="CQ4" s="70"/>
+      <c r="CR4" s="70"/>
+      <c r="CS4" s="70">
         <f>CS5</f>
         <v>45425</v>
       </c>
-      <c r="CT4" s="59"/>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="59"/>
-      <c r="CW4" s="59"/>
-      <c r="CX4" s="59"/>
-      <c r="CY4" s="59"/>
+      <c r="CT4" s="70"/>
+      <c r="CU4" s="70"/>
+      <c r="CV4" s="70"/>
+      <c r="CW4" s="70"/>
+      <c r="CX4" s="70"/>
+      <c r="CY4" s="70"/>
     </row>
     <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
@@ -2944,8 +2956,8 @@
       <c r="BE7" s="25"/>
       <c r="BF7" s="25"/>
       <c r="BG7" s="25"/>
-      <c r="BH7" s="62"/>
-      <c r="BI7" s="63"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="73"/>
       <c r="BJ7" s="25"/>
       <c r="BK7" s="25"/>
       <c r="BL7" s="25"/>
@@ -2991,117 +3003,117 @@
     </row>
     <row r="8" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="51"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
+      <c r="BA8" s="55"/>
+      <c r="BB8" s="55"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="5"/>
       <c r="BE8" s="5"/>
       <c r="BF8" s="5"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
+      <c r="BH8" s="55"/>
+      <c r="BI8" s="55"/>
       <c r="BJ8" s="5"/>
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
       <c r="BN8" s="5"/>
-      <c r="BO8" s="49"/>
-      <c r="BP8" s="49"/>
+      <c r="BO8" s="55"/>
+      <c r="BP8" s="55"/>
       <c r="BQ8" s="5"/>
       <c r="BR8" s="5"/>
       <c r="BS8" s="5"/>
       <c r="BT8" s="5"/>
       <c r="BU8" s="5"/>
-      <c r="BV8" s="49"/>
-      <c r="BW8" s="49"/>
+      <c r="BV8" s="55"/>
+      <c r="BW8" s="55"/>
       <c r="BX8" s="5"/>
       <c r="BY8" s="5"/>
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
       <c r="CB8" s="5"/>
-      <c r="CC8" s="49"/>
-      <c r="CD8" s="49"/>
+      <c r="CC8" s="55"/>
+      <c r="CD8" s="55"/>
       <c r="CE8" s="5"/>
       <c r="CF8" s="5"/>
-      <c r="CG8" s="5"/>
+      <c r="CG8" s="86"/>
       <c r="CH8" s="5"/>
       <c r="CI8" s="5"/>
-      <c r="CJ8" s="49"/>
-      <c r="CK8" s="49"/>
+      <c r="CJ8" s="55"/>
+      <c r="CK8" s="55"/>
       <c r="CL8" s="5"/>
       <c r="CM8" s="5"/>
       <c r="CN8" s="5"/>
-      <c r="CO8" s="5"/>
+      <c r="CO8" s="86"/>
       <c r="CP8" s="5"/>
-      <c r="CQ8" s="49"/>
-      <c r="CR8" s="49"/>
+      <c r="CQ8" s="55"/>
+      <c r="CR8" s="55"/>
       <c r="CS8" s="5"/>
       <c r="CT8" s="5"/>
       <c r="CU8" s="5"/>
       <c r="CV8" s="5"/>
       <c r="CW8" s="5"/>
-      <c r="CX8" s="49"/>
-      <c r="CY8" s="49"/>
+      <c r="CX8" s="55"/>
+      <c r="CY8" s="55"/>
     </row>
     <row r="9" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="18">
         <f>J5</f>
         <v>45338</v>
@@ -3115,106 +3127,106 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="53"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="82"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
-      <c r="BA9" s="49"/>
-      <c r="BB9" s="49"/>
+      <c r="BA9" s="55"/>
+      <c r="BB9" s="55"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
       <c r="BF9" s="5"/>
       <c r="BG9" s="5"/>
-      <c r="BH9" s="49"/>
-      <c r="BI9" s="49"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="55"/>
       <c r="BJ9" s="5"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="5"/>
-      <c r="BO9" s="49"/>
-      <c r="BP9" s="49"/>
+      <c r="BO9" s="55"/>
+      <c r="BP9" s="55"/>
       <c r="BQ9" s="5"/>
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
-      <c r="BV9" s="49"/>
-      <c r="BW9" s="49"/>
+      <c r="BV9" s="55"/>
+      <c r="BW9" s="55"/>
       <c r="BX9" s="5"/>
       <c r="BY9" s="5"/>
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
       <c r="CB9" s="5"/>
-      <c r="CC9" s="49"/>
-      <c r="CD9" s="49"/>
+      <c r="CC9" s="55"/>
+      <c r="CD9" s="55"/>
       <c r="CE9" s="5"/>
       <c r="CF9" s="5"/>
-      <c r="CG9" s="5"/>
+      <c r="CG9" s="86"/>
       <c r="CH9" s="5"/>
       <c r="CI9" s="5"/>
-      <c r="CJ9" s="49"/>
-      <c r="CK9" s="49"/>
+      <c r="CJ9" s="55"/>
+      <c r="CK9" s="55"/>
       <c r="CL9" s="5"/>
       <c r="CM9" s="5"/>
       <c r="CN9" s="5"/>
-      <c r="CO9" s="5"/>
+      <c r="CO9" s="86"/>
       <c r="CP9" s="5"/>
-      <c r="CQ9" s="49"/>
-      <c r="CR9" s="49"/>
+      <c r="CQ9" s="55"/>
+      <c r="CR9" s="55"/>
       <c r="CS9" s="5"/>
       <c r="CT9" s="5"/>
       <c r="CU9" s="5"/>
       <c r="CV9" s="5"/>
       <c r="CW9" s="5"/>
-      <c r="CX9" s="49"/>
-      <c r="CY9" s="49"/>
+      <c r="CX9" s="55"/>
+      <c r="CY9" s="55"/>
     </row>
     <row r="10" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="18">
         <f>D9</f>
         <v>45338</v>
@@ -3228,106 +3240,106 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="8"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="82"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
       <c r="AV10" s="5"/>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
+      <c r="BA10" s="55"/>
+      <c r="BB10" s="55"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
       <c r="BF10" s="5"/>
       <c r="BG10" s="5"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="49"/>
+      <c r="BH10" s="55"/>
+      <c r="BI10" s="55"/>
       <c r="BJ10" s="5"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
       <c r="BN10" s="5"/>
-      <c r="BO10" s="49"/>
-      <c r="BP10" s="49"/>
+      <c r="BO10" s="55"/>
+      <c r="BP10" s="55"/>
       <c r="BQ10" s="5"/>
       <c r="BR10" s="5"/>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
-      <c r="BV10" s="49"/>
-      <c r="BW10" s="49"/>
+      <c r="BV10" s="55"/>
+      <c r="BW10" s="55"/>
       <c r="BX10" s="5"/>
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
       <c r="CB10" s="5"/>
-      <c r="CC10" s="49"/>
-      <c r="CD10" s="49"/>
+      <c r="CC10" s="55"/>
+      <c r="CD10" s="55"/>
       <c r="CE10" s="5"/>
       <c r="CF10" s="5"/>
-      <c r="CG10" s="5"/>
+      <c r="CG10" s="86"/>
       <c r="CH10" s="5"/>
       <c r="CI10" s="5"/>
-      <c r="CJ10" s="49"/>
-      <c r="CK10" s="49"/>
+      <c r="CJ10" s="55"/>
+      <c r="CK10" s="55"/>
       <c r="CL10" s="5"/>
       <c r="CM10" s="5"/>
       <c r="CN10" s="5"/>
-      <c r="CO10" s="5"/>
+      <c r="CO10" s="86"/>
       <c r="CP10" s="5"/>
-      <c r="CQ10" s="49"/>
-      <c r="CR10" s="49"/>
+      <c r="CQ10" s="55"/>
+      <c r="CR10" s="55"/>
       <c r="CS10" s="5"/>
       <c r="CT10" s="5"/>
       <c r="CU10" s="5"/>
       <c r="CV10" s="5"/>
       <c r="CW10" s="5"/>
-      <c r="CX10" s="49"/>
-      <c r="CY10" s="49"/>
+      <c r="CX10" s="55"/>
+      <c r="CY10" s="55"/>
     </row>
     <row r="11" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="18">
         <f>O5</f>
         <v>45343</v>
@@ -3341,106 +3353,106 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="8"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="53"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="82"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
-      <c r="AT11" s="49"/>
-      <c r="AU11" s="49"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
-      <c r="BA11" s="49"/>
-      <c r="BB11" s="49"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="55"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
       <c r="BE11" s="5"/>
       <c r="BF11" s="5"/>
       <c r="BG11" s="5"/>
-      <c r="BH11" s="49"/>
-      <c r="BI11" s="49"/>
+      <c r="BH11" s="55"/>
+      <c r="BI11" s="55"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="49"/>
-      <c r="BP11" s="49"/>
+      <c r="BO11" s="55"/>
+      <c r="BP11" s="55"/>
       <c r="BQ11" s="5"/>
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
       <c r="BT11" s="5"/>
       <c r="BU11" s="5"/>
-      <c r="BV11" s="49"/>
-      <c r="BW11" s="49"/>
+      <c r="BV11" s="55"/>
+      <c r="BW11" s="55"/>
       <c r="BX11" s="5"/>
       <c r="BY11" s="5"/>
       <c r="BZ11" s="5"/>
       <c r="CA11" s="5"/>
       <c r="CB11" s="5"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="49"/>
+      <c r="CC11" s="55"/>
+      <c r="CD11" s="55"/>
       <c r="CE11" s="5"/>
       <c r="CF11" s="5"/>
-      <c r="CG11" s="5"/>
+      <c r="CG11" s="86"/>
       <c r="CH11" s="5"/>
       <c r="CI11" s="5"/>
-      <c r="CJ11" s="49"/>
-      <c r="CK11" s="49"/>
+      <c r="CJ11" s="55"/>
+      <c r="CK11" s="55"/>
       <c r="CL11" s="5"/>
       <c r="CM11" s="5"/>
       <c r="CN11" s="5"/>
-      <c r="CO11" s="5"/>
+      <c r="CO11" s="86"/>
       <c r="CP11" s="5"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="49"/>
+      <c r="CQ11" s="55"/>
+      <c r="CR11" s="55"/>
       <c r="CS11" s="5"/>
       <c r="CT11" s="5"/>
       <c r="CU11" s="5"/>
       <c r="CV11" s="5"/>
       <c r="CW11" s="5"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CX11" s="55"/>
+      <c r="CY11" s="55"/>
     </row>
     <row r="12" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="18">
         <f>N5</f>
         <v>45342</v>
@@ -3454,106 +3466,106 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="5"/>
       <c r="N12" s="8"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="53"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="82"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
-      <c r="BA12" s="49"/>
-      <c r="BB12" s="49"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="55"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="5"/>
       <c r="BE12" s="5"/>
       <c r="BF12" s="5"/>
       <c r="BG12" s="5"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="49"/>
+      <c r="BH12" s="55"/>
+      <c r="BI12" s="55"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="5"/>
-      <c r="BO12" s="49"/>
-      <c r="BP12" s="49"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
       <c r="BQ12" s="5"/>
       <c r="BR12" s="5"/>
       <c r="BS12" s="5"/>
       <c r="BT12" s="5"/>
       <c r="BU12" s="5"/>
-      <c r="BV12" s="49"/>
-      <c r="BW12" s="49"/>
+      <c r="BV12" s="55"/>
+      <c r="BW12" s="55"/>
       <c r="BX12" s="5"/>
       <c r="BY12" s="5"/>
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
       <c r="CB12" s="5"/>
-      <c r="CC12" s="49"/>
-      <c r="CD12" s="49"/>
+      <c r="CC12" s="55"/>
+      <c r="CD12" s="55"/>
       <c r="CE12" s="5"/>
       <c r="CF12" s="5"/>
-      <c r="CG12" s="5"/>
+      <c r="CG12" s="86"/>
       <c r="CH12" s="5"/>
       <c r="CI12" s="5"/>
-      <c r="CJ12" s="49"/>
-      <c r="CK12" s="49"/>
+      <c r="CJ12" s="55"/>
+      <c r="CK12" s="55"/>
       <c r="CL12" s="5"/>
       <c r="CM12" s="5"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="5"/>
+      <c r="CO12" s="86"/>
       <c r="CP12" s="5"/>
-      <c r="CQ12" s="49"/>
-      <c r="CR12" s="49"/>
+      <c r="CQ12" s="55"/>
+      <c r="CR12" s="55"/>
       <c r="CS12" s="5"/>
       <c r="CT12" s="5"/>
       <c r="CU12" s="5"/>
       <c r="CV12" s="5"/>
       <c r="CW12" s="5"/>
-      <c r="CX12" s="49"/>
-      <c r="CY12" s="49"/>
+      <c r="CX12" s="55"/>
+      <c r="CY12" s="55"/>
     </row>
     <row r="13" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="18">
         <f>O5</f>
         <v>45343</v>
@@ -3567,106 +3579,106 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="82"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
+      <c r="BA13" s="55"/>
+      <c r="BB13" s="55"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
       <c r="BF13" s="5"/>
       <c r="BG13" s="5"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="49"/>
+      <c r="BH13" s="55"/>
+      <c r="BI13" s="55"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="5"/>
-      <c r="BO13" s="49"/>
-      <c r="BP13" s="49"/>
+      <c r="BO13" s="55"/>
+      <c r="BP13" s="55"/>
       <c r="BQ13" s="5"/>
       <c r="BR13" s="5"/>
       <c r="BS13" s="5"/>
       <c r="BT13" s="5"/>
       <c r="BU13" s="5"/>
-      <c r="BV13" s="49"/>
-      <c r="BW13" s="49"/>
+      <c r="BV13" s="55"/>
+      <c r="BW13" s="55"/>
       <c r="BX13" s="5"/>
       <c r="BY13" s="5"/>
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
       <c r="CB13" s="5"/>
-      <c r="CC13" s="49"/>
-      <c r="CD13" s="49"/>
+      <c r="CC13" s="55"/>
+      <c r="CD13" s="55"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5"/>
-      <c r="CG13" s="5"/>
+      <c r="CG13" s="86"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
-      <c r="CJ13" s="49"/>
-      <c r="CK13" s="49"/>
+      <c r="CJ13" s="55"/>
+      <c r="CK13" s="55"/>
       <c r="CL13" s="5"/>
       <c r="CM13" s="5"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="5"/>
+      <c r="CO13" s="86"/>
       <c r="CP13" s="5"/>
-      <c r="CQ13" s="49"/>
-      <c r="CR13" s="49"/>
+      <c r="CQ13" s="55"/>
+      <c r="CR13" s="55"/>
       <c r="CS13" s="5"/>
       <c r="CT13" s="5"/>
       <c r="CU13" s="5"/>
       <c r="CV13" s="5"/>
       <c r="CW13" s="5"/>
-      <c r="CX13" s="49"/>
-      <c r="CY13" s="49"/>
+      <c r="CX13" s="55"/>
+      <c r="CY13" s="55"/>
     </row>
     <row r="14" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="18">
         <f>E13+1</f>
         <v>45345</v>
@@ -3680,99 +3692,99 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="53"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="82"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5"/>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="49"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="5"/>
       <c r="BF14" s="5"/>
       <c r="BG14" s="5"/>
-      <c r="BH14" s="49"/>
-      <c r="BI14" s="49"/>
+      <c r="BH14" s="55"/>
+      <c r="BI14" s="55"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
       <c r="BN14" s="5"/>
-      <c r="BO14" s="49"/>
-      <c r="BP14" s="49"/>
+      <c r="BO14" s="55"/>
+      <c r="BP14" s="55"/>
       <c r="BQ14" s="5"/>
       <c r="BR14" s="5"/>
       <c r="BS14" s="5"/>
       <c r="BT14" s="5"/>
       <c r="BU14" s="5"/>
-      <c r="BV14" s="49"/>
-      <c r="BW14" s="49"/>
+      <c r="BV14" s="55"/>
+      <c r="BW14" s="55"/>
       <c r="BX14" s="5"/>
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
       <c r="CB14" s="5"/>
-      <c r="CC14" s="49"/>
-      <c r="CD14" s="49"/>
+      <c r="CC14" s="55"/>
+      <c r="CD14" s="55"/>
       <c r="CE14" s="5"/>
       <c r="CF14" s="5"/>
-      <c r="CG14" s="5"/>
+      <c r="CG14" s="86"/>
       <c r="CH14" s="5"/>
       <c r="CI14" s="5"/>
-      <c r="CJ14" s="49"/>
-      <c r="CK14" s="49"/>
+      <c r="CJ14" s="55"/>
+      <c r="CK14" s="55"/>
       <c r="CL14" s="5"/>
       <c r="CM14" s="5"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="5"/>
+      <c r="CO14" s="86"/>
       <c r="CP14" s="5"/>
-      <c r="CQ14" s="49"/>
-      <c r="CR14" s="49"/>
+      <c r="CQ14" s="55"/>
+      <c r="CR14" s="55"/>
       <c r="CS14" s="5"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
       <c r="CV14" s="5"/>
       <c r="CW14" s="5"/>
-      <c r="CX14" s="49"/>
-      <c r="CY14" s="49"/>
+      <c r="CX14" s="55"/>
+      <c r="CY14" s="55"/>
     </row>
     <row r="15" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -3789,106 +3801,106 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="80"/>
-      <c r="AJ15" s="80"/>
-      <c r="AK15" s="80"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="80"/>
-      <c r="AN15" s="80"/>
-      <c r="AO15" s="80"/>
-      <c r="AP15" s="80"/>
-      <c r="AQ15" s="80"/>
-      <c r="AR15" s="80"/>
-      <c r="AS15" s="80"/>
-      <c r="AT15" s="80"/>
-      <c r="AU15" s="80"/>
-      <c r="AV15" s="80"/>
-      <c r="AW15" s="80"/>
-      <c r="AX15" s="80"/>
-      <c r="AY15" s="80"/>
-      <c r="AZ15" s="80"/>
-      <c r="BA15" s="80"/>
-      <c r="BB15" s="80"/>
-      <c r="BC15" s="80"/>
-      <c r="BD15" s="80"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="54"/>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="54"/>
+      <c r="BD15" s="54"/>
       <c r="BE15" s="5"/>
       <c r="BF15" s="5"/>
       <c r="BG15" s="5"/>
-      <c r="BH15" s="49"/>
-      <c r="BI15" s="49"/>
+      <c r="BH15" s="55"/>
+      <c r="BI15" s="55"/>
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="5"/>
-      <c r="BO15" s="49"/>
-      <c r="BP15" s="49"/>
+      <c r="BO15" s="55"/>
+      <c r="BP15" s="55"/>
       <c r="BQ15" s="5"/>
       <c r="BR15" s="5"/>
       <c r="BS15" s="5"/>
       <c r="BT15" s="5"/>
       <c r="BU15" s="5"/>
-      <c r="BV15" s="49"/>
-      <c r="BW15" s="49"/>
+      <c r="BV15" s="55"/>
+      <c r="BW15" s="55"/>
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
       <c r="CB15" s="5"/>
-      <c r="CC15" s="49"/>
-      <c r="CD15" s="49"/>
+      <c r="CC15" s="55"/>
+      <c r="CD15" s="55"/>
       <c r="CE15" s="5"/>
       <c r="CF15" s="5"/>
-      <c r="CG15" s="5"/>
+      <c r="CG15" s="86"/>
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
-      <c r="CJ15" s="49"/>
-      <c r="CK15" s="49"/>
+      <c r="CJ15" s="55"/>
+      <c r="CK15" s="55"/>
       <c r="CL15" s="5"/>
       <c r="CM15" s="5"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="5"/>
+      <c r="CO15" s="86"/>
       <c r="CP15" s="5"/>
-      <c r="CQ15" s="49"/>
-      <c r="CR15" s="49"/>
+      <c r="CQ15" s="55"/>
+      <c r="CR15" s="55"/>
       <c r="CS15" s="5"/>
       <c r="CT15" s="5"/>
       <c r="CU15" s="5"/>
       <c r="CV15" s="5"/>
       <c r="CW15" s="5"/>
-      <c r="CX15" s="49"/>
-      <c r="CY15" s="49"/>
+      <c r="CX15" s="55"/>
+      <c r="CY15" s="55"/>
     </row>
     <row r="16" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="19">
         <f>T5</f>
         <v>45348</v>
@@ -3902,106 +3914,106 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="51"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="80"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="55"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
       <c r="AZ16" s="5"/>
-      <c r="BA16" s="49"/>
-      <c r="BB16" s="49"/>
+      <c r="BA16" s="55"/>
+      <c r="BB16" s="55"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="5"/>
       <c r="BF16" s="5"/>
       <c r="BG16" s="5"/>
-      <c r="BH16" s="49"/>
-      <c r="BI16" s="49"/>
+      <c r="BH16" s="55"/>
+      <c r="BI16" s="55"/>
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="5"/>
-      <c r="BO16" s="49"/>
-      <c r="BP16" s="49"/>
+      <c r="BO16" s="55"/>
+      <c r="BP16" s="55"/>
       <c r="BQ16" s="5"/>
       <c r="BR16" s="5"/>
       <c r="BS16" s="5"/>
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
-      <c r="BV16" s="49"/>
-      <c r="BW16" s="49"/>
+      <c r="BV16" s="55"/>
+      <c r="BW16" s="55"/>
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
       <c r="CB16" s="5"/>
-      <c r="CC16" s="49"/>
-      <c r="CD16" s="49"/>
+      <c r="CC16" s="55"/>
+      <c r="CD16" s="55"/>
       <c r="CE16" s="5"/>
       <c r="CF16" s="5"/>
-      <c r="CG16" s="5"/>
+      <c r="CG16" s="86"/>
       <c r="CH16" s="5"/>
       <c r="CI16" s="5"/>
-      <c r="CJ16" s="49"/>
-      <c r="CK16" s="49"/>
+      <c r="CJ16" s="55"/>
+      <c r="CK16" s="55"/>
       <c r="CL16" s="5"/>
       <c r="CM16" s="5"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="5"/>
+      <c r="CO16" s="86"/>
       <c r="CP16" s="5"/>
-      <c r="CQ16" s="49"/>
-      <c r="CR16" s="49"/>
+      <c r="CQ16" s="55"/>
+      <c r="CR16" s="55"/>
       <c r="CS16" s="5"/>
       <c r="CT16" s="5"/>
       <c r="CU16" s="5"/>
       <c r="CV16" s="5"/>
       <c r="CW16" s="5"/>
-      <c r="CX16" s="49"/>
-      <c r="CY16" s="49"/>
+      <c r="CX16" s="55"/>
+      <c r="CY16" s="55"/>
     </row>
     <row r="17" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="19">
         <f>U5</f>
         <v>45349</v>
@@ -4015,106 +4027,106 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="82"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="60"/>
-      <c r="AP17" s="60"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="8"/>
       <c r="AY17" s="5"/>
       <c r="AZ17" s="8"/>
-      <c r="BA17" s="49"/>
-      <c r="BB17" s="49"/>
+      <c r="BA17" s="55"/>
+      <c r="BB17" s="55"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5"/>
       <c r="BG17" s="5"/>
-      <c r="BH17" s="49"/>
-      <c r="BI17" s="49"/>
+      <c r="BH17" s="55"/>
+      <c r="BI17" s="55"/>
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BN17" s="5"/>
-      <c r="BO17" s="49"/>
-      <c r="BP17" s="49"/>
+      <c r="BO17" s="55"/>
+      <c r="BP17" s="55"/>
       <c r="BQ17" s="5"/>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BT17" s="5"/>
       <c r="BU17" s="5"/>
-      <c r="BV17" s="49"/>
-      <c r="BW17" s="49"/>
+      <c r="BV17" s="55"/>
+      <c r="BW17" s="55"/>
       <c r="BX17" s="5"/>
       <c r="BY17" s="5"/>
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
       <c r="CB17" s="5"/>
-      <c r="CC17" s="49"/>
-      <c r="CD17" s="49"/>
+      <c r="CC17" s="55"/>
+      <c r="CD17" s="55"/>
       <c r="CE17" s="5"/>
       <c r="CF17" s="5"/>
-      <c r="CG17" s="5"/>
+      <c r="CG17" s="86"/>
       <c r="CH17" s="5"/>
       <c r="CI17" s="5"/>
-      <c r="CJ17" s="49"/>
-      <c r="CK17" s="49"/>
+      <c r="CJ17" s="55"/>
+      <c r="CK17" s="55"/>
       <c r="CL17" s="5"/>
       <c r="CM17" s="5"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="5"/>
+      <c r="CO17" s="86"/>
       <c r="CP17" s="5"/>
-      <c r="CQ17" s="49"/>
-      <c r="CR17" s="49"/>
+      <c r="CQ17" s="55"/>
+      <c r="CR17" s="55"/>
       <c r="CS17" s="5"/>
       <c r="CT17" s="5"/>
       <c r="CU17" s="5"/>
       <c r="CV17" s="5"/>
       <c r="CW17" s="5"/>
-      <c r="CX17" s="49"/>
-      <c r="CY17" s="49"/>
+      <c r="CX17" s="55"/>
+      <c r="CY17" s="55"/>
     </row>
     <row r="18" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="19">
         <f>AC5</f>
         <v>45357</v>
@@ -4128,106 +4140,106 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="82"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="82"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
       <c r="AV18" s="5"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
       <c r="AZ18" s="5"/>
-      <c r="BA18" s="49"/>
-      <c r="BB18" s="49"/>
+      <c r="BA18" s="55"/>
+      <c r="BB18" s="55"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="5"/>
       <c r="BF18" s="5"/>
       <c r="BG18" s="5"/>
-      <c r="BH18" s="49"/>
-      <c r="BI18" s="49"/>
+      <c r="BH18" s="55"/>
+      <c r="BI18" s="55"/>
       <c r="BJ18" s="5"/>
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
       <c r="BN18" s="5"/>
-      <c r="BO18" s="49"/>
-      <c r="BP18" s="49"/>
+      <c r="BO18" s="55"/>
+      <c r="BP18" s="55"/>
       <c r="BQ18" s="5"/>
       <c r="BR18" s="5"/>
       <c r="BS18" s="5"/>
       <c r="BT18" s="5"/>
       <c r="BU18" s="5"/>
-      <c r="BV18" s="49"/>
-      <c r="BW18" s="49"/>
+      <c r="BV18" s="55"/>
+      <c r="BW18" s="55"/>
       <c r="BX18" s="5"/>
       <c r="BY18" s="5"/>
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
       <c r="CB18" s="5"/>
-      <c r="CC18" s="49"/>
-      <c r="CD18" s="49"/>
+      <c r="CC18" s="55"/>
+      <c r="CD18" s="55"/>
       <c r="CE18" s="5"/>
       <c r="CF18" s="5"/>
-      <c r="CG18" s="5"/>
+      <c r="CG18" s="86"/>
       <c r="CH18" s="5"/>
       <c r="CI18" s="5"/>
-      <c r="CJ18" s="49"/>
-      <c r="CK18" s="49"/>
+      <c r="CJ18" s="55"/>
+      <c r="CK18" s="55"/>
       <c r="CL18" s="5"/>
       <c r="CM18" s="5"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="5"/>
+      <c r="CO18" s="86"/>
       <c r="CP18" s="5"/>
-      <c r="CQ18" s="49"/>
-      <c r="CR18" s="49"/>
+      <c r="CQ18" s="55"/>
+      <c r="CR18" s="55"/>
       <c r="CS18" s="5"/>
       <c r="CT18" s="5"/>
       <c r="CU18" s="5"/>
       <c r="CV18" s="5"/>
       <c r="CW18" s="5"/>
-      <c r="CX18" s="49"/>
-      <c r="CY18" s="49"/>
+      <c r="CX18" s="55"/>
+      <c r="CY18" s="55"/>
     </row>
     <row r="19" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="19">
         <f>AC5</f>
         <v>45357</v>
@@ -4241,106 +4253,106 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="82"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="82"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
       <c r="AV19" s="5"/>
       <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
       <c r="AY19" s="5"/>
       <c r="AZ19" s="5"/>
-      <c r="BA19" s="49"/>
-      <c r="BB19" s="49"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="5"/>
       <c r="BF19" s="5"/>
       <c r="BG19" s="5"/>
-      <c r="BH19" s="49"/>
-      <c r="BI19" s="49"/>
+      <c r="BH19" s="55"/>
+      <c r="BI19" s="55"/>
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
       <c r="BN19" s="5"/>
-      <c r="BO19" s="49"/>
-      <c r="BP19" s="49"/>
+      <c r="BO19" s="55"/>
+      <c r="BP19" s="55"/>
       <c r="BQ19" s="5"/>
       <c r="BR19" s="5"/>
       <c r="BS19" s="5"/>
       <c r="BT19" s="5"/>
       <c r="BU19" s="5"/>
-      <c r="BV19" s="49"/>
-      <c r="BW19" s="49"/>
+      <c r="BV19" s="55"/>
+      <c r="BW19" s="55"/>
       <c r="BX19" s="5"/>
       <c r="BY19" s="5"/>
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
       <c r="CB19" s="5"/>
-      <c r="CC19" s="49"/>
-      <c r="CD19" s="49"/>
+      <c r="CC19" s="55"/>
+      <c r="CD19" s="55"/>
       <c r="CE19" s="5"/>
       <c r="CF19" s="5"/>
-      <c r="CG19" s="5"/>
+      <c r="CG19" s="86"/>
       <c r="CH19" s="5"/>
       <c r="CI19" s="5"/>
-      <c r="CJ19" s="49"/>
-      <c r="CK19" s="49"/>
+      <c r="CJ19" s="55"/>
+      <c r="CK19" s="55"/>
       <c r="CL19" s="5"/>
       <c r="CM19" s="5"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="5"/>
+      <c r="CO19" s="86"/>
       <c r="CP19" s="5"/>
-      <c r="CQ19" s="49"/>
-      <c r="CR19" s="49"/>
+      <c r="CQ19" s="55"/>
+      <c r="CR19" s="55"/>
       <c r="CS19" s="5"/>
       <c r="CT19" s="5"/>
       <c r="CU19" s="5"/>
       <c r="CV19" s="5"/>
       <c r="CW19" s="5"/>
-      <c r="CX19" s="49"/>
-      <c r="CY19" s="49"/>
+      <c r="CX19" s="55"/>
+      <c r="CY19" s="55"/>
     </row>
     <row r="20" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4354,106 +4366,106 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="53"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="82"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="82"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="55"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
       <c r="AX20" s="5"/>
       <c r="AY20" s="5"/>
       <c r="AZ20" s="5"/>
-      <c r="BA20" s="49"/>
-      <c r="BB20" s="49"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="55"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="5"/>
       <c r="BF20" s="5"/>
       <c r="BG20" s="5"/>
-      <c r="BH20" s="49"/>
-      <c r="BI20" s="49"/>
+      <c r="BH20" s="55"/>
+      <c r="BI20" s="55"/>
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
       <c r="BN20" s="5"/>
-      <c r="BO20" s="49"/>
-      <c r="BP20" s="49"/>
+      <c r="BO20" s="55"/>
+      <c r="BP20" s="55"/>
       <c r="BQ20" s="5"/>
       <c r="BR20" s="5"/>
       <c r="BS20" s="5"/>
       <c r="BT20" s="5"/>
       <c r="BU20" s="5"/>
-      <c r="BV20" s="49"/>
-      <c r="BW20" s="49"/>
+      <c r="BV20" s="55"/>
+      <c r="BW20" s="55"/>
       <c r="BX20" s="5"/>
       <c r="BY20" s="5"/>
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
       <c r="CB20" s="5"/>
-      <c r="CC20" s="49"/>
-      <c r="CD20" s="49"/>
+      <c r="CC20" s="55"/>
+      <c r="CD20" s="55"/>
       <c r="CE20" s="5"/>
       <c r="CF20" s="5"/>
-      <c r="CG20" s="5"/>
+      <c r="CG20" s="86"/>
       <c r="CH20" s="5"/>
       <c r="CI20" s="5"/>
-      <c r="CJ20" s="49"/>
-      <c r="CK20" s="49"/>
+      <c r="CJ20" s="55"/>
+      <c r="CK20" s="55"/>
       <c r="CL20" s="5"/>
       <c r="CM20" s="5"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="5"/>
+      <c r="CO20" s="86"/>
       <c r="CP20" s="5"/>
-      <c r="CQ20" s="49"/>
-      <c r="CR20" s="49"/>
+      <c r="CQ20" s="55"/>
+      <c r="CR20" s="55"/>
       <c r="CS20" s="5"/>
       <c r="CT20" s="5"/>
       <c r="CU20" s="5"/>
       <c r="CV20" s="5"/>
       <c r="CW20" s="5"/>
-      <c r="CX20" s="49"/>
-      <c r="CY20" s="49"/>
+      <c r="CX20" s="55"/>
+      <c r="CY20" s="55"/>
     </row>
     <row r="21" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4467,106 +4479,106 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="53"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="82"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="82"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="8"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="5"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
       <c r="AV21" s="5"/>
       <c r="AW21" s="5"/>
       <c r="AX21" s="8"/>
       <c r="AY21" s="5"/>
       <c r="AZ21" s="8"/>
-      <c r="BA21" s="49"/>
-      <c r="BB21" s="49"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="5"/>
       <c r="BF21" s="5"/>
       <c r="BG21" s="5"/>
-      <c r="BH21" s="49"/>
-      <c r="BI21" s="49"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="55"/>
       <c r="BJ21" s="5"/>
       <c r="BK21" s="5"/>
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="5"/>
-      <c r="BO21" s="49"/>
-      <c r="BP21" s="49"/>
+      <c r="BO21" s="55"/>
+      <c r="BP21" s="55"/>
       <c r="BQ21" s="5"/>
       <c r="BR21" s="5"/>
       <c r="BS21" s="5"/>
       <c r="BT21" s="5"/>
       <c r="BU21" s="5"/>
-      <c r="BV21" s="49"/>
-      <c r="BW21" s="49"/>
+      <c r="BV21" s="55"/>
+      <c r="BW21" s="55"/>
       <c r="BX21" s="5"/>
       <c r="BY21" s="5"/>
       <c r="BZ21" s="5"/>
       <c r="CA21" s="5"/>
       <c r="CB21" s="5"/>
-      <c r="CC21" s="49"/>
-      <c r="CD21" s="49"/>
+      <c r="CC21" s="55"/>
+      <c r="CD21" s="55"/>
       <c r="CE21" s="5"/>
       <c r="CF21" s="5"/>
-      <c r="CG21" s="5"/>
+      <c r="CG21" s="86"/>
       <c r="CH21" s="5"/>
       <c r="CI21" s="5"/>
-      <c r="CJ21" s="49"/>
-      <c r="CK21" s="49"/>
+      <c r="CJ21" s="55"/>
+      <c r="CK21" s="55"/>
       <c r="CL21" s="5"/>
       <c r="CM21" s="5"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="5"/>
+      <c r="CO21" s="86"/>
       <c r="CP21" s="5"/>
-      <c r="CQ21" s="49"/>
-      <c r="CR21" s="49"/>
+      <c r="CQ21" s="55"/>
+      <c r="CR21" s="55"/>
       <c r="CS21" s="5"/>
       <c r="CT21" s="5"/>
       <c r="CU21" s="5"/>
       <c r="CV21" s="5"/>
       <c r="CW21" s="5"/>
-      <c r="CX21" s="49"/>
-      <c r="CY21" s="49"/>
+      <c r="CX21" s="55"/>
+      <c r="CY21" s="55"/>
     </row>
     <row r="22" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4580,99 +4592,99 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="53"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="82"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="82"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="49"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
       <c r="AV22" s="5"/>
       <c r="AW22" s="5"/>
       <c r="AX22" s="8"/>
       <c r="AY22" s="5"/>
       <c r="AZ22" s="8"/>
-      <c r="BA22" s="49"/>
-      <c r="BB22" s="49"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="5"/>
       <c r="BE22" s="5"/>
       <c r="BF22" s="5"/>
       <c r="BG22" s="5"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="49"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="55"/>
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="5"/>
-      <c r="BO22" s="49"/>
-      <c r="BP22" s="49"/>
+      <c r="BO22" s="55"/>
+      <c r="BP22" s="55"/>
       <c r="BQ22" s="5"/>
       <c r="BR22" s="5"/>
       <c r="BS22" s="5"/>
       <c r="BT22" s="5"/>
       <c r="BU22" s="5"/>
-      <c r="BV22" s="49"/>
-      <c r="BW22" s="49"/>
+      <c r="BV22" s="55"/>
+      <c r="BW22" s="55"/>
       <c r="BX22" s="5"/>
       <c r="BY22" s="5"/>
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
       <c r="CB22" s="5"/>
-      <c r="CC22" s="49"/>
-      <c r="CD22" s="49"/>
+      <c r="CC22" s="55"/>
+      <c r="CD22" s="55"/>
       <c r="CE22" s="5"/>
       <c r="CF22" s="5"/>
-      <c r="CG22" s="5"/>
+      <c r="CG22" s="86"/>
       <c r="CH22" s="5"/>
       <c r="CI22" s="5"/>
-      <c r="CJ22" s="49"/>
-      <c r="CK22" s="49"/>
+      <c r="CJ22" s="55"/>
+      <c r="CK22" s="55"/>
       <c r="CL22" s="5"/>
       <c r="CM22" s="5"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="5"/>
+      <c r="CO22" s="86"/>
       <c r="CP22" s="5"/>
-      <c r="CQ22" s="49"/>
-      <c r="CR22" s="49"/>
+      <c r="CQ22" s="55"/>
+      <c r="CR22" s="55"/>
       <c r="CS22" s="5"/>
       <c r="CT22" s="5"/>
       <c r="CU22" s="5"/>
       <c r="CV22" s="5"/>
       <c r="CW22" s="5"/>
-      <c r="CX22" s="49"/>
-      <c r="CY22" s="49"/>
+      <c r="CX22" s="55"/>
+      <c r="CY22" s="55"/>
     </row>
     <row r="23" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -4689,106 +4701,106 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="53"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="82"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="82"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="81"/>
-      <c r="AR23" s="81"/>
-      <c r="AS23" s="81"/>
-      <c r="AT23" s="81"/>
-      <c r="AU23" s="81"/>
-      <c r="AV23" s="81"/>
-      <c r="AW23" s="81"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="56"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="5"/>
       <c r="BF23" s="5"/>
       <c r="BG23" s="5"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
+      <c r="BH23" s="55"/>
+      <c r="BI23" s="55"/>
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
       <c r="BN23" s="5"/>
-      <c r="BO23" s="49"/>
-      <c r="BP23" s="49"/>
+      <c r="BO23" s="55"/>
+      <c r="BP23" s="55"/>
       <c r="BQ23" s="5"/>
       <c r="BR23" s="5"/>
       <c r="BS23" s="5"/>
       <c r="BT23" s="5"/>
       <c r="BU23" s="5"/>
-      <c r="BV23" s="49"/>
-      <c r="BW23" s="49"/>
+      <c r="BV23" s="55"/>
+      <c r="BW23" s="55"/>
       <c r="BX23" s="5"/>
       <c r="BY23" s="5"/>
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
       <c r="CB23" s="5"/>
-      <c r="CC23" s="49"/>
-      <c r="CD23" s="49"/>
+      <c r="CC23" s="55"/>
+      <c r="CD23" s="55"/>
       <c r="CE23" s="5"/>
       <c r="CF23" s="5"/>
-      <c r="CG23" s="5"/>
+      <c r="CG23" s="86"/>
       <c r="CH23" s="5"/>
       <c r="CI23" s="5"/>
-      <c r="CJ23" s="49"/>
-      <c r="CK23" s="49"/>
+      <c r="CJ23" s="55"/>
+      <c r="CK23" s="55"/>
       <c r="CL23" s="5"/>
       <c r="CM23" s="5"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="5"/>
+      <c r="CO23" s="86"/>
       <c r="CP23" s="5"/>
-      <c r="CQ23" s="49"/>
-      <c r="CR23" s="49"/>
+      <c r="CQ23" s="55"/>
+      <c r="CR23" s="55"/>
       <c r="CS23" s="5"/>
       <c r="CT23" s="5"/>
       <c r="CU23" s="5"/>
       <c r="CV23" s="5"/>
       <c r="CW23" s="5"/>
-      <c r="CX23" s="49"/>
-      <c r="CY23" s="49"/>
+      <c r="CX23" s="55"/>
+      <c r="CY23" s="55"/>
     </row>
     <row r="24" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="20">
         <f>AO5</f>
         <v>45369</v>
@@ -4802,106 +4814,106 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="53"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="82"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="82"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="60"/>
-      <c r="AP24" s="60"/>
+      <c r="AM24" s="79"/>
+      <c r="AN24" s="80"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
       <c r="AV24" s="5"/>
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
       <c r="AZ24" s="5"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="49"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="5"/>
       <c r="BF24" s="5"/>
       <c r="BG24" s="5"/>
-      <c r="BH24" s="49"/>
-      <c r="BI24" s="49"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="55"/>
       <c r="BJ24" s="5"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
       <c r="BN24" s="5"/>
-      <c r="BO24" s="49"/>
-      <c r="BP24" s="49"/>
+      <c r="BO24" s="55"/>
+      <c r="BP24" s="55"/>
       <c r="BQ24" s="5"/>
       <c r="BR24" s="5"/>
       <c r="BS24" s="5"/>
       <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>
-      <c r="BV24" s="49"/>
-      <c r="BW24" s="49"/>
+      <c r="BV24" s="55"/>
+      <c r="BW24" s="55"/>
       <c r="BX24" s="5"/>
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
       <c r="CB24" s="5"/>
-      <c r="CC24" s="49"/>
-      <c r="CD24" s="49"/>
+      <c r="CC24" s="55"/>
+      <c r="CD24" s="55"/>
       <c r="CE24" s="5"/>
       <c r="CF24" s="5"/>
-      <c r="CG24" s="5"/>
+      <c r="CG24" s="86"/>
       <c r="CH24" s="5"/>
       <c r="CI24" s="5"/>
-      <c r="CJ24" s="49"/>
-      <c r="CK24" s="49"/>
+      <c r="CJ24" s="55"/>
+      <c r="CK24" s="55"/>
       <c r="CL24" s="5"/>
       <c r="CM24" s="5"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="5"/>
+      <c r="CO24" s="86"/>
       <c r="CP24" s="5"/>
-      <c r="CQ24" s="49"/>
-      <c r="CR24" s="49"/>
+      <c r="CQ24" s="55"/>
+      <c r="CR24" s="55"/>
       <c r="CS24" s="5"/>
       <c r="CT24" s="5"/>
       <c r="CU24" s="5"/>
       <c r="CV24" s="5"/>
       <c r="CW24" s="5"/>
-      <c r="CX24" s="49"/>
-      <c r="CY24" s="49"/>
+      <c r="CX24" s="55"/>
+      <c r="CY24" s="55"/>
     </row>
     <row r="25" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="20">
         <f>AI5</f>
         <v>45363</v>
@@ -4915,106 +4927,106 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="53"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="82"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="82"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="53"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="82"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="8"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
       <c r="AZ25" s="5"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="5"/>
       <c r="BF25" s="5"/>
       <c r="BG25" s="5"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="55"/>
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
       <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
       <c r="BN25" s="5"/>
-      <c r="BO25" s="49"/>
-      <c r="BP25" s="49"/>
+      <c r="BO25" s="55"/>
+      <c r="BP25" s="55"/>
       <c r="BQ25" s="5"/>
       <c r="BR25" s="5"/>
       <c r="BS25" s="5"/>
       <c r="BT25" s="5"/>
       <c r="BU25" s="5"/>
-      <c r="BV25" s="49"/>
-      <c r="BW25" s="49"/>
+      <c r="BV25" s="55"/>
+      <c r="BW25" s="55"/>
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
       <c r="CB25" s="5"/>
-      <c r="CC25" s="49"/>
-      <c r="CD25" s="49"/>
+      <c r="CC25" s="55"/>
+      <c r="CD25" s="55"/>
       <c r="CE25" s="5"/>
       <c r="CF25" s="5"/>
-      <c r="CG25" s="5"/>
+      <c r="CG25" s="86"/>
       <c r="CH25" s="5"/>
       <c r="CI25" s="5"/>
-      <c r="CJ25" s="49"/>
-      <c r="CK25" s="49"/>
+      <c r="CJ25" s="55"/>
+      <c r="CK25" s="55"/>
       <c r="CL25" s="5"/>
       <c r="CM25" s="5"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="5"/>
+      <c r="CO25" s="86"/>
       <c r="CP25" s="5"/>
-      <c r="CQ25" s="49"/>
-      <c r="CR25" s="49"/>
+      <c r="CQ25" s="55"/>
+      <c r="CR25" s="55"/>
       <c r="CS25" s="5"/>
       <c r="CT25" s="5"/>
       <c r="CU25" s="5"/>
       <c r="CV25" s="5"/>
       <c r="CW25" s="5"/>
-      <c r="CX25" s="49"/>
-      <c r="CY25" s="49"/>
+      <c r="CX25" s="55"/>
+      <c r="CY25" s="55"/>
     </row>
     <row r="26" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="20">
         <f>D25</f>
         <v>45363</v>
@@ -5028,106 +5040,106 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="53"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="82"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="82"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="53"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="82"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
       <c r="AV26" s="8"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
       <c r="AZ26" s="8"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="55"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="5"/>
       <c r="BF26" s="5"/>
       <c r="BG26" s="5"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
+      <c r="BH26" s="55"/>
+      <c r="BI26" s="55"/>
       <c r="BJ26" s="5"/>
       <c r="BK26" s="5"/>
       <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
       <c r="BN26" s="5"/>
-      <c r="BO26" s="49"/>
-      <c r="BP26" s="49"/>
+      <c r="BO26" s="55"/>
+      <c r="BP26" s="55"/>
       <c r="BQ26" s="5"/>
       <c r="BR26" s="5"/>
       <c r="BS26" s="5"/>
       <c r="BT26" s="5"/>
       <c r="BU26" s="5"/>
-      <c r="BV26" s="49"/>
-      <c r="BW26" s="49"/>
+      <c r="BV26" s="55"/>
+      <c r="BW26" s="55"/>
       <c r="BX26" s="5"/>
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
       <c r="CB26" s="5"/>
-      <c r="CC26" s="49"/>
-      <c r="CD26" s="49"/>
+      <c r="CC26" s="55"/>
+      <c r="CD26" s="55"/>
       <c r="CE26" s="5"/>
       <c r="CF26" s="5"/>
-      <c r="CG26" s="5"/>
+      <c r="CG26" s="86"/>
       <c r="CH26" s="5"/>
       <c r="CI26" s="5"/>
-      <c r="CJ26" s="49"/>
-      <c r="CK26" s="49"/>
+      <c r="CJ26" s="55"/>
+      <c r="CK26" s="55"/>
       <c r="CL26" s="5"/>
       <c r="CM26" s="5"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="5"/>
+      <c r="CO26" s="86"/>
       <c r="CP26" s="5"/>
-      <c r="CQ26" s="49"/>
-      <c r="CR26" s="49"/>
+      <c r="CQ26" s="55"/>
+      <c r="CR26" s="55"/>
       <c r="CS26" s="5"/>
       <c r="CT26" s="5"/>
       <c r="CU26" s="5"/>
       <c r="CV26" s="5"/>
       <c r="CW26" s="5"/>
-      <c r="CX26" s="49"/>
-      <c r="CY26" s="49"/>
+      <c r="CX26" s="55"/>
+      <c r="CY26" s="55"/>
     </row>
     <row r="27" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="20">
         <f>D26</f>
         <v>45363</v>
@@ -5141,99 +5153,99 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="55"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="55"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="84"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="55"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="84"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
       <c r="AS27" s="5"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
+      <c r="AT27" s="55"/>
+      <c r="AU27" s="55"/>
       <c r="AV27" s="8"/>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="5"/>
       <c r="AZ27" s="5"/>
-      <c r="BA27" s="49"/>
-      <c r="BB27" s="49"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="55"/>
       <c r="BC27" s="8"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="5"/>
       <c r="BF27" s="5"/>
       <c r="BG27" s="5"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
+      <c r="BH27" s="55"/>
+      <c r="BI27" s="55"/>
       <c r="BJ27" s="5"/>
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
       <c r="BN27" s="5"/>
-      <c r="BO27" s="49"/>
-      <c r="BP27" s="49"/>
+      <c r="BO27" s="55"/>
+      <c r="BP27" s="55"/>
       <c r="BQ27" s="5"/>
       <c r="BR27" s="5"/>
       <c r="BS27" s="5"/>
       <c r="BT27" s="5"/>
       <c r="BU27" s="5"/>
-      <c r="BV27" s="49"/>
-      <c r="BW27" s="49"/>
+      <c r="BV27" s="55"/>
+      <c r="BW27" s="55"/>
       <c r="BX27" s="5"/>
       <c r="BY27" s="5"/>
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
       <c r="CB27" s="5"/>
-      <c r="CC27" s="49"/>
-      <c r="CD27" s="49"/>
+      <c r="CC27" s="55"/>
+      <c r="CD27" s="55"/>
       <c r="CE27" s="5"/>
       <c r="CF27" s="5"/>
-      <c r="CG27" s="5"/>
+      <c r="CG27" s="86"/>
       <c r="CH27" s="5"/>
       <c r="CI27" s="5"/>
-      <c r="CJ27" s="49"/>
-      <c r="CK27" s="49"/>
+      <c r="CJ27" s="55"/>
+      <c r="CK27" s="55"/>
       <c r="CL27" s="5"/>
       <c r="CM27" s="5"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="5"/>
+      <c r="CO27" s="86"/>
       <c r="CP27" s="5"/>
-      <c r="CQ27" s="49"/>
-      <c r="CR27" s="49"/>
+      <c r="CQ27" s="55"/>
+      <c r="CR27" s="55"/>
       <c r="CS27" s="5"/>
       <c r="CT27" s="5"/>
       <c r="CU27" s="5"/>
       <c r="CV27" s="5"/>
       <c r="CW27" s="5"/>
-      <c r="CX27" s="49"/>
-      <c r="CY27" s="49"/>
+      <c r="CX27" s="55"/>
+      <c r="CY27" s="55"/>
     </row>
     <row r="28" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -5245,111 +5257,111 @@
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="56"/>
-      <c r="BP28" s="56"/>
-      <c r="BQ28" s="56"/>
-      <c r="BR28" s="56"/>
-      <c r="BS28" s="56"/>
-      <c r="BT28" s="56"/>
-      <c r="BU28" s="56"/>
-      <c r="BV28" s="56"/>
-      <c r="BW28" s="56"/>
-      <c r="BX28" s="56"/>
-      <c r="BY28" s="56"/>
-      <c r="BZ28" s="56"/>
-      <c r="CA28" s="56"/>
-      <c r="CB28" s="56"/>
-      <c r="CC28" s="56"/>
-      <c r="CD28" s="56"/>
-      <c r="CE28" s="56"/>
-      <c r="CF28" s="56"/>
-      <c r="CG28" s="56"/>
-      <c r="CH28" s="56"/>
-      <c r="CI28" s="56"/>
-      <c r="CJ28" s="56"/>
-      <c r="CK28" s="56"/>
-      <c r="CL28" s="56"/>
-      <c r="CM28" s="56"/>
-      <c r="CN28" s="56"/>
-      <c r="CO28" s="56"/>
-      <c r="CP28" s="56"/>
-      <c r="CQ28" s="56"/>
-      <c r="CR28" s="56"/>
-      <c r="CS28" s="56"/>
-      <c r="CT28" s="56"/>
-      <c r="CU28" s="56"/>
-      <c r="CV28" s="56"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="85"/>
+      <c r="AJ28" s="85"/>
+      <c r="AK28" s="85"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="85"/>
+      <c r="AN28" s="85"/>
+      <c r="AO28" s="85"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="85"/>
+      <c r="AR28" s="85"/>
+      <c r="AS28" s="85"/>
+      <c r="AT28" s="85"/>
+      <c r="AU28" s="85"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="85"/>
+      <c r="AX28" s="85"/>
+      <c r="AY28" s="85"/>
+      <c r="AZ28" s="85"/>
+      <c r="BA28" s="85"/>
+      <c r="BB28" s="85"/>
+      <c r="BC28" s="85"/>
+      <c r="BD28" s="85"/>
+      <c r="BE28" s="85"/>
+      <c r="BF28" s="85"/>
+      <c r="BG28" s="85"/>
+      <c r="BH28" s="85"/>
+      <c r="BI28" s="85"/>
+      <c r="BJ28" s="85"/>
+      <c r="BK28" s="85"/>
+      <c r="BL28" s="85"/>
+      <c r="BM28" s="85"/>
+      <c r="BN28" s="85"/>
+      <c r="BO28" s="85"/>
+      <c r="BP28" s="85"/>
+      <c r="BQ28" s="85"/>
+      <c r="BR28" s="85"/>
+      <c r="BS28" s="85"/>
+      <c r="BT28" s="85"/>
+      <c r="BU28" s="85"/>
+      <c r="BV28" s="85"/>
+      <c r="BW28" s="85"/>
+      <c r="BX28" s="85"/>
+      <c r="BY28" s="85"/>
+      <c r="BZ28" s="85"/>
+      <c r="CA28" s="85"/>
+      <c r="CB28" s="85"/>
+      <c r="CC28" s="85"/>
+      <c r="CD28" s="85"/>
+      <c r="CE28" s="85"/>
+      <c r="CF28" s="85"/>
+      <c r="CG28" s="85"/>
+      <c r="CH28" s="85"/>
+      <c r="CI28" s="85"/>
+      <c r="CJ28" s="85"/>
+      <c r="CK28" s="85"/>
+      <c r="CL28" s="85"/>
+      <c r="CM28" s="85"/>
+      <c r="CN28" s="85"/>
+      <c r="CO28" s="85"/>
+      <c r="CP28" s="85"/>
+      <c r="CQ28" s="85"/>
+      <c r="CR28" s="85"/>
+      <c r="CS28" s="85"/>
+      <c r="CT28" s="85"/>
+      <c r="CU28" s="85"/>
+      <c r="CV28" s="85"/>
       <c r="CW28" s="5"/>
-      <c r="CX28" s="49"/>
-      <c r="CY28" s="49"/>
+      <c r="CX28" s="55"/>
+      <c r="CY28" s="55"/>
     </row>
     <row r="29" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="5"/>
@@ -5357,106 +5369,106 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="80"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="51"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="80"/>
       <c r="T29" s="5"/>
       <c r="U29" s="8"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="51"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="80"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="51"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="80"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="60"/>
-      <c r="AS29" s="60"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
       <c r="AV29" s="5"/>
-      <c r="AW29" s="60"/>
-      <c r="AX29" s="60"/>
-      <c r="AY29" s="60"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="51"/>
       <c r="AZ29" s="5"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
+      <c r="BA29" s="55"/>
+      <c r="BB29" s="55"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="5"/>
       <c r="BG29" s="8"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="60"/>
-      <c r="BK29" s="60"/>
-      <c r="BL29" s="60"/>
-      <c r="BM29" s="60"/>
-      <c r="BN29" s="60"/>
-      <c r="BO29" s="49"/>
-      <c r="BP29" s="49"/>
-      <c r="BQ29" s="60"/>
-      <c r="BR29" s="60"/>
-      <c r="BS29" s="60"/>
-      <c r="BT29" s="60"/>
-      <c r="BU29" s="60"/>
-      <c r="BV29" s="49"/>
-      <c r="BW29" s="49"/>
-      <c r="BX29" s="60"/>
-      <c r="BY29" s="60"/>
-      <c r="BZ29" s="60"/>
-      <c r="CA29" s="60"/>
-      <c r="CB29" s="60"/>
-      <c r="CC29" s="49"/>
-      <c r="CD29" s="49"/>
+      <c r="BH29" s="55"/>
+      <c r="BI29" s="55"/>
+      <c r="BJ29" s="51"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+      <c r="BM29" s="51"/>
+      <c r="BN29" s="51"/>
+      <c r="BO29" s="55"/>
+      <c r="BP29" s="55"/>
+      <c r="BQ29" s="51"/>
+      <c r="BR29" s="51"/>
+      <c r="BS29" s="51"/>
+      <c r="BT29" s="51"/>
+      <c r="BU29" s="51"/>
+      <c r="BV29" s="55"/>
+      <c r="BW29" s="55"/>
+      <c r="BX29" s="51"/>
+      <c r="BY29" s="51"/>
+      <c r="BZ29" s="51"/>
+      <c r="CA29" s="51"/>
+      <c r="CB29" s="51"/>
+      <c r="CC29" s="55"/>
+      <c r="CD29" s="55"/>
       <c r="CE29" s="5"/>
       <c r="CF29" s="8"/>
-      <c r="CG29" s="5"/>
-      <c r="CH29" s="82"/>
-      <c r="CI29" s="83"/>
-      <c r="CJ29" s="49"/>
-      <c r="CK29" s="49"/>
+      <c r="CG29" s="86"/>
+      <c r="CH29" s="52"/>
+      <c r="CI29" s="53"/>
+      <c r="CJ29" s="55"/>
+      <c r="CK29" s="55"/>
       <c r="CL29" s="5"/>
-      <c r="CM29" s="8"/>
-      <c r="CN29" s="5"/>
-      <c r="CO29" s="5"/>
-      <c r="CP29" s="5"/>
-      <c r="CQ29" s="49"/>
-      <c r="CR29" s="49"/>
+      <c r="CM29" s="52"/>
+      <c r="CN29" s="53"/>
+      <c r="CO29" s="86"/>
+      <c r="CP29" s="8"/>
+      <c r="CQ29" s="55"/>
+      <c r="CR29" s="55"/>
       <c r="CS29" s="5"/>
       <c r="CT29" s="5"/>
       <c r="CU29" s="5"/>
       <c r="CV29" s="5"/>
       <c r="CW29" s="5"/>
-      <c r="CX29" s="49"/>
-      <c r="CY29" s="49"/>
+      <c r="CX29" s="55"/>
+      <c r="CY29" s="55"/>
     </row>
     <row r="30" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
       <c r="F30" s="5"/>
@@ -5464,206 +5476,206 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="53"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="82"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="82"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="53"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="82"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
       <c r="AZ30" s="5"/>
-      <c r="BA30" s="49"/>
-      <c r="BB30" s="49"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="55"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
       <c r="BF30" s="5"/>
       <c r="BG30" s="5"/>
-      <c r="BH30" s="49"/>
-      <c r="BI30" s="49"/>
+      <c r="BH30" s="55"/>
+      <c r="BI30" s="55"/>
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
       <c r="BL30" s="5"/>
       <c r="BM30" s="5"/>
       <c r="BN30" s="5"/>
-      <c r="BO30" s="49"/>
-      <c r="BP30" s="49"/>
+      <c r="BO30" s="55"/>
+      <c r="BP30" s="55"/>
       <c r="BQ30" s="5"/>
       <c r="BR30" s="5"/>
       <c r="BS30" s="5"/>
       <c r="BT30" s="5"/>
       <c r="BU30" s="5"/>
-      <c r="BV30" s="49"/>
-      <c r="BW30" s="49"/>
+      <c r="BV30" s="55"/>
+      <c r="BW30" s="55"/>
       <c r="BX30" s="5"/>
       <c r="BY30" s="5"/>
-      <c r="BZ30" s="60"/>
-      <c r="CA30" s="60"/>
-      <c r="CB30" s="60"/>
-      <c r="CC30" s="49"/>
-      <c r="CD30" s="49"/>
+      <c r="BZ30" s="51"/>
+      <c r="CA30" s="51"/>
+      <c r="CB30" s="51"/>
+      <c r="CC30" s="55"/>
+      <c r="CD30" s="55"/>
       <c r="CE30" s="47"/>
       <c r="CF30" s="48"/>
-      <c r="CG30" s="7"/>
-      <c r="CH30" s="82"/>
-      <c r="CI30" s="83"/>
-      <c r="CJ30" s="49"/>
-      <c r="CK30" s="49"/>
+      <c r="CG30" s="87"/>
+      <c r="CH30" s="52"/>
+      <c r="CI30" s="53"/>
+      <c r="CJ30" s="55"/>
+      <c r="CK30" s="55"/>
       <c r="CL30" s="5"/>
       <c r="CM30" s="42"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="5"/>
-      <c r="CP30" s="5"/>
-      <c r="CQ30" s="49"/>
-      <c r="CR30" s="49"/>
+      <c r="CO30" s="86"/>
+      <c r="CP30" s="8"/>
+      <c r="CQ30" s="55"/>
+      <c r="CR30" s="55"/>
       <c r="CS30" s="5"/>
       <c r="CT30" s="5"/>
       <c r="CU30" s="7"/>
       <c r="CV30" s="7"/>
       <c r="CW30" s="5"/>
-      <c r="CX30" s="49"/>
-      <c r="CY30" s="49"/>
+      <c r="CX30" s="55"/>
+      <c r="CY30" s="55"/>
     </row>
     <row r="31" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="53"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="82"/>
       <c r="T31" s="5"/>
       <c r="U31" s="8"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="5"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="82"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="53"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="82"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
       <c r="AY31" s="5"/>
       <c r="AZ31" s="5"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
+      <c r="BA31" s="55"/>
+      <c r="BB31" s="55"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
       <c r="BF31" s="5"/>
       <c r="BG31" s="5"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
+      <c r="BH31" s="55"/>
+      <c r="BI31" s="55"/>
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
       <c r="BL31" s="5"/>
       <c r="BM31" s="5"/>
       <c r="BN31" s="5"/>
-      <c r="BO31" s="49"/>
-      <c r="BP31" s="49"/>
-      <c r="BQ31" s="60"/>
-      <c r="BR31" s="60"/>
-      <c r="BS31" s="60"/>
-      <c r="BT31" s="60"/>
-      <c r="BU31" s="60"/>
-      <c r="BV31" s="49"/>
-      <c r="BW31" s="49"/>
+      <c r="BO31" s="55"/>
+      <c r="BP31" s="55"/>
+      <c r="BQ31" s="51"/>
+      <c r="BR31" s="51"/>
+      <c r="BS31" s="51"/>
+      <c r="BT31" s="51"/>
+      <c r="BU31" s="51"/>
+      <c r="BV31" s="55"/>
+      <c r="BW31" s="55"/>
       <c r="BX31" s="5"/>
       <c r="BY31" s="5"/>
       <c r="BZ31" s="5"/>
       <c r="CA31" s="5"/>
       <c r="CB31" s="5"/>
-      <c r="CC31" s="49"/>
-      <c r="CD31" s="49"/>
+      <c r="CC31" s="55"/>
+      <c r="CD31" s="55"/>
       <c r="CE31" s="5"/>
       <c r="CF31" s="5"/>
-      <c r="CG31" s="5"/>
+      <c r="CG31" s="86"/>
       <c r="CH31" s="5"/>
       <c r="CI31" s="5"/>
-      <c r="CJ31" s="49"/>
-      <c r="CK31" s="49"/>
+      <c r="CJ31" s="55"/>
+      <c r="CK31" s="55"/>
       <c r="CL31" s="5"/>
       <c r="CM31" s="5"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="5"/>
+      <c r="CO31" s="86"/>
       <c r="CP31" s="5"/>
-      <c r="CQ31" s="49"/>
-      <c r="CR31" s="49"/>
+      <c r="CQ31" s="55"/>
+      <c r="CR31" s="55"/>
       <c r="CS31" s="5"/>
       <c r="CT31" s="5"/>
       <c r="CU31" s="5"/>
       <c r="CV31" s="5"/>
       <c r="CW31" s="5"/>
-      <c r="CX31" s="49"/>
-      <c r="CY31" s="49"/>
+      <c r="CX31" s="55"/>
+      <c r="CY31" s="55"/>
     </row>
     <row r="32" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
@@ -5673,111 +5685,111 @@
       <c r="C32" s="44"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="53"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="82"/>
       <c r="T32" s="8"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="41"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="8"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="53"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="82"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="8"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="55"/>
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
       <c r="AX32" s="8"/>
       <c r="AY32" s="5"/>
       <c r="AZ32" s="8"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
+      <c r="BA32" s="55"/>
+      <c r="BB32" s="55"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="5"/>
       <c r="BF32" s="5"/>
       <c r="BG32" s="5"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
+      <c r="BH32" s="55"/>
+      <c r="BI32" s="55"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="5"/>
       <c r="BL32" s="5"/>
       <c r="BM32" s="5"/>
       <c r="BN32" s="5"/>
-      <c r="BO32" s="49"/>
-      <c r="BP32" s="49"/>
-      <c r="BQ32" s="60"/>
-      <c r="BR32" s="60"/>
-      <c r="BS32" s="60"/>
-      <c r="BT32" s="60"/>
-      <c r="BU32" s="60"/>
-      <c r="BV32" s="49"/>
-      <c r="BW32" s="49"/>
-      <c r="BX32" s="60"/>
-      <c r="BY32" s="60"/>
+      <c r="BO32" s="55"/>
+      <c r="BP32" s="55"/>
+      <c r="BQ32" s="51"/>
+      <c r="BR32" s="51"/>
+      <c r="BS32" s="51"/>
+      <c r="BT32" s="51"/>
+      <c r="BU32" s="51"/>
+      <c r="BV32" s="55"/>
+      <c r="BW32" s="55"/>
+      <c r="BX32" s="51"/>
+      <c r="BY32" s="51"/>
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
       <c r="CB32" s="5"/>
-      <c r="CC32" s="49"/>
-      <c r="CD32" s="49"/>
+      <c r="CC32" s="55"/>
+      <c r="CD32" s="55"/>
       <c r="CE32" s="5"/>
       <c r="CF32" s="5"/>
-      <c r="CG32" s="5"/>
+      <c r="CG32" s="86"/>
       <c r="CH32" s="5"/>
       <c r="CI32" s="8"/>
-      <c r="CJ32" s="49"/>
-      <c r="CK32" s="49"/>
+      <c r="CJ32" s="55"/>
+      <c r="CK32" s="55"/>
       <c r="CL32" s="5"/>
       <c r="CM32" s="5"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="5"/>
+      <c r="CO32" s="86"/>
       <c r="CP32" s="5"/>
-      <c r="CQ32" s="49"/>
-      <c r="CR32" s="49"/>
+      <c r="CQ32" s="55"/>
+      <c r="CR32" s="55"/>
       <c r="CS32" s="5"/>
       <c r="CT32" s="5"/>
       <c r="CU32" s="5"/>
       <c r="CV32" s="5"/>
       <c r="CW32" s="5"/>
-      <c r="CX32" s="49"/>
-      <c r="CY32" s="49"/>
+      <c r="CX32" s="55"/>
+      <c r="CY32" s="55"/>
     </row>
     <row r="33" spans="1:104" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="5"/>
@@ -5785,99 +5797,99 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="55"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="84"/>
       <c r="M33" s="8"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="55"/>
+      <c r="AF33" s="83"/>
+      <c r="AG33" s="84"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="54"/>
-      <c r="AN33" s="55"/>
+      <c r="AM33" s="83"/>
+      <c r="AN33" s="84"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="60"/>
-      <c r="AW33" s="60"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
       <c r="AZ33" s="8"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
+      <c r="BA33" s="55"/>
+      <c r="BB33" s="55"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="5"/>
-      <c r="BF33" s="60"/>
-      <c r="BG33" s="60"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
+      <c r="BF33" s="51"/>
+      <c r="BG33" s="51"/>
+      <c r="BH33" s="55"/>
+      <c r="BI33" s="55"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="5"/>
       <c r="BL33" s="5"/>
       <c r="BM33" s="5"/>
       <c r="BN33" s="5"/>
-      <c r="BO33" s="49"/>
-      <c r="BP33" s="49"/>
-      <c r="BQ33" s="60"/>
-      <c r="BR33" s="60"/>
-      <c r="BS33" s="60"/>
-      <c r="BT33" s="60"/>
-      <c r="BU33" s="60"/>
-      <c r="BV33" s="49"/>
-      <c r="BW33" s="49"/>
-      <c r="BX33" s="60"/>
-      <c r="BY33" s="60"/>
+      <c r="BO33" s="55"/>
+      <c r="BP33" s="55"/>
+      <c r="BQ33" s="51"/>
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="51"/>
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="51"/>
+      <c r="BV33" s="55"/>
+      <c r="BW33" s="55"/>
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="51"/>
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
       <c r="CB33" s="5"/>
-      <c r="CC33" s="49"/>
-      <c r="CD33" s="49"/>
+      <c r="CC33" s="55"/>
+      <c r="CD33" s="55"/>
       <c r="CE33" s="5"/>
       <c r="CF33" s="5"/>
-      <c r="CG33" s="5"/>
+      <c r="CG33" s="86"/>
       <c r="CH33" s="5"/>
       <c r="CI33" s="5"/>
-      <c r="CJ33" s="49"/>
-      <c r="CK33" s="49"/>
+      <c r="CJ33" s="55"/>
+      <c r="CK33" s="55"/>
       <c r="CL33" s="5"/>
       <c r="CM33" s="5"/>
       <c r="CN33" s="5"/>
-      <c r="CO33" s="5"/>
-      <c r="CP33" s="5"/>
-      <c r="CQ33" s="49"/>
-      <c r="CR33" s="49"/>
+      <c r="CO33" s="86"/>
+      <c r="CP33" s="8"/>
+      <c r="CQ33" s="55"/>
+      <c r="CR33" s="55"/>
       <c r="CS33" s="5"/>
       <c r="CT33" s="5"/>
       <c r="CU33" s="5"/>
       <c r="CV33" s="5"/>
       <c r="CW33" s="5"/>
-      <c r="CX33" s="49"/>
-      <c r="CY33" s="49"/>
+      <c r="CX33" s="55"/>
+      <c r="CY33" s="55"/>
       <c r="CZ33" s="40"/>
     </row>
     <row r="34" spans="1:104" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5990,44 +6002,60 @@
       <c r="E35" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="CH29:CI29"/>
-    <mergeCell ref="CH30:CI30"/>
-    <mergeCell ref="AC15:BD15"/>
-    <mergeCell ref="AM16:AN22"/>
-    <mergeCell ref="AT16:AU22"/>
-    <mergeCell ref="BA24:BB27"/>
-    <mergeCell ref="AT24:AU27"/>
-    <mergeCell ref="AI23:BC23"/>
-    <mergeCell ref="BZ30:CB30"/>
-    <mergeCell ref="BX29:CB29"/>
-    <mergeCell ref="BQ29:BU29"/>
-    <mergeCell ref="BJ29:BN29"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AO17:AP17"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="BX32:BY32"/>
-    <mergeCell ref="BX33:BY33"/>
-    <mergeCell ref="AW29:AY29"/>
-    <mergeCell ref="AQ29:AS29"/>
-    <mergeCell ref="BH8:BI27"/>
-    <mergeCell ref="BO8:BP27"/>
-    <mergeCell ref="BV8:BW27"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="BQ31:BU31"/>
-    <mergeCell ref="BQ32:BU32"/>
-    <mergeCell ref="BQ33:BU33"/>
+  <mergeCells count="114">
+    <mergeCell ref="CJ8:CK27"/>
+    <mergeCell ref="CQ8:CR27"/>
+    <mergeCell ref="CX8:CY33"/>
+    <mergeCell ref="Y29:Z33"/>
+    <mergeCell ref="AF29:AG33"/>
+    <mergeCell ref="AM29:AN33"/>
+    <mergeCell ref="AT29:AU33"/>
+    <mergeCell ref="BA29:BB33"/>
+    <mergeCell ref="BH29:BI33"/>
+    <mergeCell ref="BO29:BP33"/>
+    <mergeCell ref="BV29:BW33"/>
+    <mergeCell ref="CC29:CD33"/>
+    <mergeCell ref="CJ29:CK33"/>
+    <mergeCell ref="CQ29:CR33"/>
+    <mergeCell ref="F28:CV28"/>
+    <mergeCell ref="K9:L27"/>
+    <mergeCell ref="R8:S27"/>
+    <mergeCell ref="AF16:AG27"/>
+    <mergeCell ref="AM24:AN27"/>
+    <mergeCell ref="K29:L33"/>
+    <mergeCell ref="R29:S33"/>
+    <mergeCell ref="CM29:CN29"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="Y8:Z27"/>
+    <mergeCell ref="AF8:AG14"/>
+    <mergeCell ref="AM8:AN14"/>
+    <mergeCell ref="AT8:AU14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AO4:AU4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="CS4:CY4"/>
+    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="BQ4:BW4"/>
+    <mergeCell ref="BX4:CD4"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CL4:CR4"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="AV4:BB4"/>
+    <mergeCell ref="BC4:BI4"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B31:C31"/>
@@ -6049,61 +6077,46 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="CS4:CY4"/>
-    <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BQ4:BW4"/>
-    <mergeCell ref="BX4:CD4"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CL4:CR4"/>
-    <mergeCell ref="BH7:BI7"/>
-    <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="Y8:Z27"/>
-    <mergeCell ref="AF8:AG14"/>
-    <mergeCell ref="AM8:AN14"/>
-    <mergeCell ref="AT8:AU14"/>
+    <mergeCell ref="BX32:BY32"/>
+    <mergeCell ref="BX33:BY33"/>
+    <mergeCell ref="AW29:AY29"/>
+    <mergeCell ref="AQ29:AS29"/>
+    <mergeCell ref="BH8:BI27"/>
+    <mergeCell ref="BO8:BP27"/>
+    <mergeCell ref="BV8:BW27"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="BQ31:BU31"/>
+    <mergeCell ref="BQ32:BU32"/>
+    <mergeCell ref="BQ33:BU33"/>
     <mergeCell ref="BA8:BB14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AO4:AU4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="T15:V15"/>
     <mergeCell ref="BA16:BB22"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AO17:AP17"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="CH29:CI29"/>
+    <mergeCell ref="CH30:CI30"/>
+    <mergeCell ref="AC15:BD15"/>
+    <mergeCell ref="AM16:AN22"/>
+    <mergeCell ref="AT16:AU22"/>
+    <mergeCell ref="BA24:BB27"/>
+    <mergeCell ref="AT24:AU27"/>
+    <mergeCell ref="AI23:BC23"/>
+    <mergeCell ref="BZ30:CB30"/>
+    <mergeCell ref="BX29:CB29"/>
+    <mergeCell ref="BQ29:BU29"/>
+    <mergeCell ref="BJ29:BN29"/>
     <mergeCell ref="CC8:CD27"/>
-    <mergeCell ref="CJ8:CK27"/>
-    <mergeCell ref="CQ8:CR27"/>
-    <mergeCell ref="CX8:CY33"/>
-    <mergeCell ref="Y29:Z33"/>
-    <mergeCell ref="AF29:AG33"/>
-    <mergeCell ref="AM29:AN33"/>
-    <mergeCell ref="AT29:AU33"/>
-    <mergeCell ref="BA29:BB33"/>
-    <mergeCell ref="BH29:BI33"/>
-    <mergeCell ref="BO29:BP33"/>
-    <mergeCell ref="BV29:BW33"/>
-    <mergeCell ref="CC29:CD33"/>
-    <mergeCell ref="CJ29:CK33"/>
-    <mergeCell ref="CQ29:CR33"/>
-    <mergeCell ref="F28:CV28"/>
-    <mergeCell ref="K9:L27"/>
-    <mergeCell ref="R8:S27"/>
-    <mergeCell ref="AF16:AG27"/>
-    <mergeCell ref="AM24:AN27"/>
-    <mergeCell ref="K29:L33"/>
-    <mergeCell ref="R29:S33"/>
   </mergeCells>
   <conditionalFormatting sqref="C7">
     <cfRule type="dataBar" priority="20">
@@ -6183,12 +6196,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6480,29 +6504,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6529,20 +6553,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Final.xlsx
+++ b/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Final.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D218BA-AFB8-4BFE-8FCC-6026E61DB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E3CBE1-218F-4F2F-BC6C-58DE3D251F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -372,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,8 +660,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -996,6 +1002,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1068,7 +1109,7 @@
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1193,9 +1234,6 @@
     <xf numFmtId="167" fontId="5" fillId="49" borderId="10" xfId="10" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1208,115 +1246,148 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="11" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="12" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="9">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="49" borderId="10" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1594,8 +1665,9 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF808080"/>
+      <color rgb="FF8DB4E2"/>
       <color rgb="FF538DD5"/>
-      <color rgb="FF8DB4E2"/>
       <color rgb="FFCCC0DA"/>
       <color rgb="FFC4D79B"/>
       <color rgb="FFA2C662"/>
@@ -1603,7 +1675,6 @@
       <color rgb="FF969696"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
-      <color rgb="FFC0C0C0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1885,8 +1956,8 @@
   </sheetPr>
   <dimension ref="A1:CZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="92" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="92" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BX21" sqref="BX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1903,12 +1974,12 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
@@ -1932,11 +2003,11 @@
         <v>23</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="75">
+      <c r="D3" s="62">
         <f>DATE(2024,2,12)</f>
         <v>45334</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:103" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1949,146 +2020,146 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="63">
         <f>F5</f>
         <v>45334</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70">
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63">
         <f>M5</f>
         <v>45341</v>
       </c>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63">
         <f>T5</f>
         <v>45348</v>
       </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70">
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63">
         <f>AA5</f>
         <v>45355</v>
       </c>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70">
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63">
         <f>AH5</f>
         <v>45362</v>
       </c>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70">
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63">
         <f>AO5</f>
         <v>45369</v>
       </c>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70">
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63">
         <f>AV5</f>
         <v>45376</v>
       </c>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70">
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63">
         <f>BC5</f>
         <v>45383</v>
       </c>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70">
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="63">
         <f>BJ5</f>
         <v>45390</v>
       </c>
-      <c r="BK4" s="70"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="70"/>
-      <c r="BO4" s="70"/>
-      <c r="BP4" s="70"/>
-      <c r="BQ4" s="70">
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63">
         <f>BQ5</f>
         <v>45397</v>
       </c>
-      <c r="BR4" s="70"/>
-      <c r="BS4" s="70"/>
-      <c r="BT4" s="70"/>
-      <c r="BU4" s="70"/>
-      <c r="BV4" s="70"/>
-      <c r="BW4" s="71"/>
-      <c r="BX4" s="71">
+      <c r="BR4" s="63"/>
+      <c r="BS4" s="63"/>
+      <c r="BT4" s="63"/>
+      <c r="BU4" s="63"/>
+      <c r="BV4" s="63"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="68">
         <f>BX5</f>
         <v>45404</v>
       </c>
-      <c r="BY4" s="71"/>
-      <c r="BZ4" s="70"/>
-      <c r="CA4" s="70"/>
-      <c r="CB4" s="70"/>
-      <c r="CC4" s="70"/>
-      <c r="CD4" s="70"/>
-      <c r="CE4" s="70">
+      <c r="BY4" s="68"/>
+      <c r="BZ4" s="63"/>
+      <c r="CA4" s="63"/>
+      <c r="CB4" s="63"/>
+      <c r="CC4" s="63"/>
+      <c r="CD4" s="63"/>
+      <c r="CE4" s="63">
         <f>CE5</f>
         <v>45411</v>
       </c>
-      <c r="CF4" s="70"/>
-      <c r="CG4" s="70"/>
-      <c r="CH4" s="70"/>
-      <c r="CI4" s="70"/>
-      <c r="CJ4" s="70"/>
-      <c r="CK4" s="70"/>
-      <c r="CL4" s="70">
+      <c r="CF4" s="63"/>
+      <c r="CG4" s="63"/>
+      <c r="CH4" s="63"/>
+      <c r="CI4" s="63"/>
+      <c r="CJ4" s="63"/>
+      <c r="CK4" s="63"/>
+      <c r="CL4" s="63">
         <f>CL5</f>
         <v>45418</v>
       </c>
-      <c r="CM4" s="70"/>
-      <c r="CN4" s="70"/>
-      <c r="CO4" s="70"/>
-      <c r="CP4" s="70"/>
-      <c r="CQ4" s="70"/>
-      <c r="CR4" s="70"/>
-      <c r="CS4" s="70">
+      <c r="CM4" s="63"/>
+      <c r="CN4" s="63"/>
+      <c r="CO4" s="63"/>
+      <c r="CP4" s="63"/>
+      <c r="CQ4" s="63"/>
+      <c r="CR4" s="63"/>
+      <c r="CS4" s="63">
         <f>CS5</f>
         <v>45425</v>
       </c>
-      <c r="CT4" s="70"/>
-      <c r="CU4" s="70"/>
-      <c r="CV4" s="70"/>
-      <c r="CW4" s="70"/>
-      <c r="CX4" s="70"/>
-      <c r="CY4" s="70"/>
+      <c r="CT4" s="63"/>
+      <c r="CU4" s="63"/>
+      <c r="CV4" s="63"/>
+      <c r="CW4" s="63"/>
+      <c r="CX4" s="63"/>
+      <c r="CY4" s="63"/>
     </row>
     <row r="5" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
@@ -2956,8 +3027,8 @@
       <c r="BE7" s="25"/>
       <c r="BF7" s="25"/>
       <c r="BG7" s="25"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="73"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="70"/>
       <c r="BJ7" s="25"/>
       <c r="BK7" s="25"/>
       <c r="BL7" s="25"/>
@@ -3003,117 +3074,117 @@
     </row>
     <row r="8" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="80"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="52"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
-      <c r="BA8" s="55"/>
-      <c r="BB8" s="55"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="5"/>
       <c r="BE8" s="5"/>
       <c r="BF8" s="5"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="55"/>
-      <c r="BI8" s="55"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
       <c r="BJ8" s="5"/>
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
       <c r="BN8" s="5"/>
-      <c r="BO8" s="55"/>
-      <c r="BP8" s="55"/>
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
       <c r="BQ8" s="5"/>
       <c r="BR8" s="5"/>
       <c r="BS8" s="5"/>
       <c r="BT8" s="5"/>
       <c r="BU8" s="5"/>
-      <c r="BV8" s="55"/>
-      <c r="BW8" s="55"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="50"/>
       <c r="BX8" s="5"/>
       <c r="BY8" s="5"/>
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
       <c r="CB8" s="5"/>
-      <c r="CC8" s="55"/>
-      <c r="CD8" s="55"/>
+      <c r="CC8" s="50"/>
+      <c r="CD8" s="50"/>
       <c r="CE8" s="5"/>
       <c r="CF8" s="5"/>
-      <c r="CG8" s="86"/>
+      <c r="CG8" s="95"/>
       <c r="CH8" s="5"/>
       <c r="CI8" s="5"/>
-      <c r="CJ8" s="55"/>
-      <c r="CK8" s="55"/>
+      <c r="CJ8" s="50"/>
+      <c r="CK8" s="50"/>
       <c r="CL8" s="5"/>
       <c r="CM8" s="5"/>
       <c r="CN8" s="5"/>
-      <c r="CO8" s="86"/>
+      <c r="CO8" s="92"/>
       <c r="CP8" s="5"/>
-      <c r="CQ8" s="55"/>
-      <c r="CR8" s="55"/>
+      <c r="CQ8" s="50"/>
+      <c r="CR8" s="50"/>
       <c r="CS8" s="5"/>
       <c r="CT8" s="5"/>
       <c r="CU8" s="5"/>
       <c r="CV8" s="5"/>
       <c r="CW8" s="5"/>
-      <c r="CX8" s="55"/>
-      <c r="CY8" s="55"/>
+      <c r="CX8" s="50"/>
+      <c r="CY8" s="50"/>
     </row>
     <row r="9" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="18">
         <f>J5</f>
         <v>45338</v>
@@ -3127,106 +3198,106 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="82"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
-      <c r="BA9" s="55"/>
-      <c r="BB9" s="55"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
       <c r="BF9" s="5"/>
       <c r="BG9" s="5"/>
-      <c r="BH9" s="55"/>
-      <c r="BI9" s="55"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
       <c r="BJ9" s="5"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="5"/>
-      <c r="BO9" s="55"/>
-      <c r="BP9" s="55"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
       <c r="BQ9" s="5"/>
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
-      <c r="BV9" s="55"/>
-      <c r="BW9" s="55"/>
+      <c r="BV9" s="50"/>
+      <c r="BW9" s="50"/>
       <c r="BX9" s="5"/>
       <c r="BY9" s="5"/>
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
       <c r="CB9" s="5"/>
-      <c r="CC9" s="55"/>
-      <c r="CD9" s="55"/>
+      <c r="CC9" s="50"/>
+      <c r="CD9" s="50"/>
       <c r="CE9" s="5"/>
       <c r="CF9" s="5"/>
-      <c r="CG9" s="86"/>
+      <c r="CG9" s="96"/>
       <c r="CH9" s="5"/>
       <c r="CI9" s="5"/>
-      <c r="CJ9" s="55"/>
-      <c r="CK9" s="55"/>
+      <c r="CJ9" s="50"/>
+      <c r="CK9" s="50"/>
       <c r="CL9" s="5"/>
       <c r="CM9" s="5"/>
       <c r="CN9" s="5"/>
-      <c r="CO9" s="86"/>
+      <c r="CO9" s="93"/>
       <c r="CP9" s="5"/>
-      <c r="CQ9" s="55"/>
-      <c r="CR9" s="55"/>
+      <c r="CQ9" s="50"/>
+      <c r="CR9" s="50"/>
       <c r="CS9" s="5"/>
       <c r="CT9" s="5"/>
       <c r="CU9" s="5"/>
       <c r="CV9" s="5"/>
       <c r="CW9" s="5"/>
-      <c r="CX9" s="55"/>
-      <c r="CY9" s="55"/>
+      <c r="CX9" s="50"/>
+      <c r="CY9" s="50"/>
     </row>
     <row r="10" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="18">
         <f>D9</f>
         <v>45338</v>
@@ -3240,106 +3311,106 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="8"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="82"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
       <c r="AV10" s="5"/>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5"/>
-      <c r="BA10" s="55"/>
-      <c r="BB10" s="55"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
       <c r="BF10" s="5"/>
       <c r="BG10" s="5"/>
-      <c r="BH10" s="55"/>
-      <c r="BI10" s="55"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
       <c r="BJ10" s="5"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
       <c r="BN10" s="5"/>
-      <c r="BO10" s="55"/>
-      <c r="BP10" s="55"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
       <c r="BQ10" s="5"/>
       <c r="BR10" s="5"/>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
-      <c r="BV10" s="55"/>
-      <c r="BW10" s="55"/>
+      <c r="BV10" s="50"/>
+      <c r="BW10" s="50"/>
       <c r="BX10" s="5"/>
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
       <c r="CB10" s="5"/>
-      <c r="CC10" s="55"/>
-      <c r="CD10" s="55"/>
+      <c r="CC10" s="50"/>
+      <c r="CD10" s="50"/>
       <c r="CE10" s="5"/>
       <c r="CF10" s="5"/>
-      <c r="CG10" s="86"/>
+      <c r="CG10" s="96"/>
       <c r="CH10" s="5"/>
       <c r="CI10" s="5"/>
-      <c r="CJ10" s="55"/>
-      <c r="CK10" s="55"/>
+      <c r="CJ10" s="50"/>
+      <c r="CK10" s="50"/>
       <c r="CL10" s="5"/>
       <c r="CM10" s="5"/>
       <c r="CN10" s="5"/>
-      <c r="CO10" s="86"/>
+      <c r="CO10" s="93"/>
       <c r="CP10" s="5"/>
-      <c r="CQ10" s="55"/>
-      <c r="CR10" s="55"/>
+      <c r="CQ10" s="50"/>
+      <c r="CR10" s="50"/>
       <c r="CS10" s="5"/>
       <c r="CT10" s="5"/>
       <c r="CU10" s="5"/>
       <c r="CV10" s="5"/>
       <c r="CW10" s="5"/>
-      <c r="CX10" s="55"/>
-      <c r="CY10" s="55"/>
+      <c r="CX10" s="50"/>
+      <c r="CY10" s="50"/>
     </row>
     <row r="11" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="18">
         <f>O5</f>
         <v>45343</v>
@@ -3353,106 +3424,106 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="8"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="82"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="55"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
-      <c r="AT11" s="55"/>
-      <c r="AU11" s="55"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
-      <c r="BA11" s="55"/>
-      <c r="BB11" s="55"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
       <c r="BE11" s="5"/>
       <c r="BF11" s="5"/>
       <c r="BG11" s="5"/>
-      <c r="BH11" s="55"/>
-      <c r="BI11" s="55"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="55"/>
-      <c r="BP11" s="55"/>
+      <c r="BO11" s="50"/>
+      <c r="BP11" s="50"/>
       <c r="BQ11" s="5"/>
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
       <c r="BT11" s="5"/>
       <c r="BU11" s="5"/>
-      <c r="BV11" s="55"/>
-      <c r="BW11" s="55"/>
+      <c r="BV11" s="50"/>
+      <c r="BW11" s="50"/>
       <c r="BX11" s="5"/>
       <c r="BY11" s="5"/>
       <c r="BZ11" s="5"/>
       <c r="CA11" s="5"/>
       <c r="CB11" s="5"/>
-      <c r="CC11" s="55"/>
-      <c r="CD11" s="55"/>
+      <c r="CC11" s="50"/>
+      <c r="CD11" s="50"/>
       <c r="CE11" s="5"/>
       <c r="CF11" s="5"/>
-      <c r="CG11" s="86"/>
+      <c r="CG11" s="96"/>
       <c r="CH11" s="5"/>
       <c r="CI11" s="5"/>
-      <c r="CJ11" s="55"/>
-      <c r="CK11" s="55"/>
+      <c r="CJ11" s="50"/>
+      <c r="CK11" s="50"/>
       <c r="CL11" s="5"/>
       <c r="CM11" s="5"/>
       <c r="CN11" s="5"/>
-      <c r="CO11" s="86"/>
+      <c r="CO11" s="93"/>
       <c r="CP11" s="5"/>
-      <c r="CQ11" s="55"/>
-      <c r="CR11" s="55"/>
+      <c r="CQ11" s="50"/>
+      <c r="CR11" s="50"/>
       <c r="CS11" s="5"/>
       <c r="CT11" s="5"/>
       <c r="CU11" s="5"/>
       <c r="CV11" s="5"/>
       <c r="CW11" s="5"/>
-      <c r="CX11" s="55"/>
-      <c r="CY11" s="55"/>
+      <c r="CX11" s="50"/>
+      <c r="CY11" s="50"/>
     </row>
     <row r="12" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="18">
         <f>N5</f>
         <v>45342</v>
@@ -3466,106 +3537,106 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="5"/>
       <c r="N12" s="8"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="82"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
-      <c r="BA12" s="55"/>
-      <c r="BB12" s="55"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="5"/>
       <c r="BE12" s="5"/>
       <c r="BF12" s="5"/>
       <c r="BG12" s="5"/>
-      <c r="BH12" s="55"/>
-      <c r="BI12" s="55"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="5"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
+      <c r="BO12" s="50"/>
+      <c r="BP12" s="50"/>
       <c r="BQ12" s="5"/>
       <c r="BR12" s="5"/>
       <c r="BS12" s="5"/>
       <c r="BT12" s="5"/>
       <c r="BU12" s="5"/>
-      <c r="BV12" s="55"/>
-      <c r="BW12" s="55"/>
+      <c r="BV12" s="50"/>
+      <c r="BW12" s="50"/>
       <c r="BX12" s="5"/>
       <c r="BY12" s="5"/>
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
       <c r="CB12" s="5"/>
-      <c r="CC12" s="55"/>
-      <c r="CD12" s="55"/>
+      <c r="CC12" s="50"/>
+      <c r="CD12" s="50"/>
       <c r="CE12" s="5"/>
       <c r="CF12" s="5"/>
-      <c r="CG12" s="86"/>
+      <c r="CG12" s="96"/>
       <c r="CH12" s="5"/>
       <c r="CI12" s="5"/>
-      <c r="CJ12" s="55"/>
-      <c r="CK12" s="55"/>
+      <c r="CJ12" s="50"/>
+      <c r="CK12" s="50"/>
       <c r="CL12" s="5"/>
       <c r="CM12" s="5"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="86"/>
+      <c r="CO12" s="93"/>
       <c r="CP12" s="5"/>
-      <c r="CQ12" s="55"/>
-      <c r="CR12" s="55"/>
+      <c r="CQ12" s="50"/>
+      <c r="CR12" s="50"/>
       <c r="CS12" s="5"/>
       <c r="CT12" s="5"/>
       <c r="CU12" s="5"/>
       <c r="CV12" s="5"/>
       <c r="CW12" s="5"/>
-      <c r="CX12" s="55"/>
-      <c r="CY12" s="55"/>
+      <c r="CX12" s="50"/>
+      <c r="CY12" s="50"/>
     </row>
     <row r="13" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="18">
         <f>O5</f>
         <v>45343</v>
@@ -3579,106 +3650,106 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="82"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="55"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
-      <c r="BA13" s="55"/>
-      <c r="BB13" s="55"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
       <c r="BF13" s="5"/>
       <c r="BG13" s="5"/>
-      <c r="BH13" s="55"/>
-      <c r="BI13" s="55"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="5"/>
-      <c r="BO13" s="55"/>
-      <c r="BP13" s="55"/>
+      <c r="BO13" s="50"/>
+      <c r="BP13" s="50"/>
       <c r="BQ13" s="5"/>
       <c r="BR13" s="5"/>
       <c r="BS13" s="5"/>
       <c r="BT13" s="5"/>
       <c r="BU13" s="5"/>
-      <c r="BV13" s="55"/>
-      <c r="BW13" s="55"/>
+      <c r="BV13" s="50"/>
+      <c r="BW13" s="50"/>
       <c r="BX13" s="5"/>
       <c r="BY13" s="5"/>
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
       <c r="CB13" s="5"/>
-      <c r="CC13" s="55"/>
-      <c r="CD13" s="55"/>
+      <c r="CC13" s="50"/>
+      <c r="CD13" s="50"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5"/>
-      <c r="CG13" s="86"/>
+      <c r="CG13" s="96"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
-      <c r="CJ13" s="55"/>
-      <c r="CK13" s="55"/>
+      <c r="CJ13" s="50"/>
+      <c r="CK13" s="50"/>
       <c r="CL13" s="5"/>
       <c r="CM13" s="5"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="86"/>
+      <c r="CO13" s="93"/>
       <c r="CP13" s="5"/>
-      <c r="CQ13" s="55"/>
-      <c r="CR13" s="55"/>
+      <c r="CQ13" s="50"/>
+      <c r="CR13" s="50"/>
       <c r="CS13" s="5"/>
       <c r="CT13" s="5"/>
       <c r="CU13" s="5"/>
       <c r="CV13" s="5"/>
       <c r="CW13" s="5"/>
-      <c r="CX13" s="55"/>
-      <c r="CY13" s="55"/>
+      <c r="CX13" s="50"/>
+      <c r="CY13" s="50"/>
     </row>
     <row r="14" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="18">
         <f>E13+1</f>
         <v>45345</v>
@@ -3692,215 +3763,215 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="82"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="5"/>
       <c r="BF14" s="5"/>
       <c r="BG14" s="5"/>
-      <c r="BH14" s="55"/>
-      <c r="BI14" s="55"/>
+      <c r="BH14" s="50"/>
+      <c r="BI14" s="50"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
       <c r="BN14" s="5"/>
-      <c r="BO14" s="55"/>
-      <c r="BP14" s="55"/>
+      <c r="BO14" s="50"/>
+      <c r="BP14" s="50"/>
       <c r="BQ14" s="5"/>
       <c r="BR14" s="5"/>
       <c r="BS14" s="5"/>
       <c r="BT14" s="5"/>
       <c r="BU14" s="5"/>
-      <c r="BV14" s="55"/>
-      <c r="BW14" s="55"/>
+      <c r="BV14" s="50"/>
+      <c r="BW14" s="50"/>
       <c r="BX14" s="5"/>
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
       <c r="CB14" s="5"/>
-      <c r="CC14" s="55"/>
-      <c r="CD14" s="55"/>
+      <c r="CC14" s="50"/>
+      <c r="CD14" s="50"/>
       <c r="CE14" s="5"/>
       <c r="CF14" s="5"/>
-      <c r="CG14" s="86"/>
+      <c r="CG14" s="96"/>
       <c r="CH14" s="5"/>
       <c r="CI14" s="5"/>
-      <c r="CJ14" s="55"/>
-      <c r="CK14" s="55"/>
+      <c r="CJ14" s="50"/>
+      <c r="CK14" s="50"/>
       <c r="CL14" s="5"/>
       <c r="CM14" s="5"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="86"/>
+      <c r="CO14" s="93"/>
       <c r="CP14" s="5"/>
-      <c r="CQ14" s="55"/>
-      <c r="CR14" s="55"/>
+      <c r="CQ14" s="50"/>
+      <c r="CR14" s="50"/>
       <c r="CS14" s="5"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
       <c r="CV14" s="5"/>
       <c r="CW14" s="5"/>
-      <c r="CX14" s="55"/>
-      <c r="CY14" s="55"/>
+      <c r="CX14" s="50"/>
+      <c r="CY14" s="50"/>
     </row>
     <row r="15" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="54"/>
-      <c r="BA15" s="54"/>
-      <c r="BB15" s="54"/>
-      <c r="BC15" s="54"/>
-      <c r="BD15" s="54"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="83"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="83"/>
+      <c r="BB15" s="83"/>
+      <c r="BC15" s="83"/>
+      <c r="BD15" s="83"/>
       <c r="BE15" s="5"/>
       <c r="BF15" s="5"/>
       <c r="BG15" s="5"/>
-      <c r="BH15" s="55"/>
-      <c r="BI15" s="55"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="5"/>
-      <c r="BO15" s="55"/>
-      <c r="BP15" s="55"/>
+      <c r="BO15" s="50"/>
+      <c r="BP15" s="50"/>
       <c r="BQ15" s="5"/>
       <c r="BR15" s="5"/>
       <c r="BS15" s="5"/>
       <c r="BT15" s="5"/>
       <c r="BU15" s="5"/>
-      <c r="BV15" s="55"/>
-      <c r="BW15" s="55"/>
+      <c r="BV15" s="50"/>
+      <c r="BW15" s="50"/>
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
       <c r="CB15" s="5"/>
-      <c r="CC15" s="55"/>
-      <c r="CD15" s="55"/>
+      <c r="CC15" s="50"/>
+      <c r="CD15" s="50"/>
       <c r="CE15" s="5"/>
       <c r="CF15" s="5"/>
-      <c r="CG15" s="86"/>
+      <c r="CG15" s="96"/>
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
-      <c r="CJ15" s="55"/>
-      <c r="CK15" s="55"/>
+      <c r="CJ15" s="50"/>
+      <c r="CK15" s="50"/>
       <c r="CL15" s="5"/>
       <c r="CM15" s="5"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="86"/>
+      <c r="CO15" s="93"/>
       <c r="CP15" s="5"/>
-      <c r="CQ15" s="55"/>
-      <c r="CR15" s="55"/>
+      <c r="CQ15" s="50"/>
+      <c r="CR15" s="50"/>
       <c r="CS15" s="5"/>
       <c r="CT15" s="5"/>
       <c r="CU15" s="5"/>
       <c r="CV15" s="5"/>
       <c r="CW15" s="5"/>
-      <c r="CX15" s="55"/>
-      <c r="CY15" s="55"/>
+      <c r="CX15" s="50"/>
+      <c r="CY15" s="50"/>
     </row>
     <row r="16" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="19">
         <f>T5</f>
         <v>45348</v>
@@ -3914,106 +3985,106 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="80"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="52"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="55"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
       <c r="AZ16" s="5"/>
-      <c r="BA16" s="55"/>
-      <c r="BB16" s="55"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="5"/>
       <c r="BF16" s="5"/>
       <c r="BG16" s="5"/>
-      <c r="BH16" s="55"/>
-      <c r="BI16" s="55"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="5"/>
-      <c r="BO16" s="55"/>
-      <c r="BP16" s="55"/>
+      <c r="BO16" s="50"/>
+      <c r="BP16" s="50"/>
       <c r="BQ16" s="5"/>
       <c r="BR16" s="5"/>
       <c r="BS16" s="5"/>
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
-      <c r="BV16" s="55"/>
-      <c r="BW16" s="55"/>
+      <c r="BV16" s="50"/>
+      <c r="BW16" s="50"/>
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
       <c r="CB16" s="5"/>
-      <c r="CC16" s="55"/>
-      <c r="CD16" s="55"/>
+      <c r="CC16" s="50"/>
+      <c r="CD16" s="50"/>
       <c r="CE16" s="5"/>
       <c r="CF16" s="5"/>
-      <c r="CG16" s="86"/>
+      <c r="CG16" s="96"/>
       <c r="CH16" s="5"/>
       <c r="CI16" s="5"/>
-      <c r="CJ16" s="55"/>
-      <c r="CK16" s="55"/>
+      <c r="CJ16" s="50"/>
+      <c r="CK16" s="50"/>
       <c r="CL16" s="5"/>
       <c r="CM16" s="5"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="86"/>
+      <c r="CO16" s="93"/>
       <c r="CP16" s="5"/>
-      <c r="CQ16" s="55"/>
-      <c r="CR16" s="55"/>
+      <c r="CQ16" s="50"/>
+      <c r="CR16" s="50"/>
       <c r="CS16" s="5"/>
       <c r="CT16" s="5"/>
       <c r="CU16" s="5"/>
       <c r="CV16" s="5"/>
       <c r="CW16" s="5"/>
-      <c r="CX16" s="55"/>
-      <c r="CY16" s="55"/>
+      <c r="CX16" s="50"/>
+      <c r="CY16" s="50"/>
     </row>
     <row r="17" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="19">
         <f>U5</f>
         <v>45349</v>
@@ -4027,106 +4098,106 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="82"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="54"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="82"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="54"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="55"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="8"/>
       <c r="AY17" s="5"/>
       <c r="AZ17" s="8"/>
-      <c r="BA17" s="55"/>
-      <c r="BB17" s="55"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5"/>
       <c r="BG17" s="5"/>
-      <c r="BH17" s="55"/>
-      <c r="BI17" s="55"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BN17" s="5"/>
-      <c r="BO17" s="55"/>
-      <c r="BP17" s="55"/>
+      <c r="BO17" s="50"/>
+      <c r="BP17" s="50"/>
       <c r="BQ17" s="5"/>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BT17" s="5"/>
       <c r="BU17" s="5"/>
-      <c r="BV17" s="55"/>
-      <c r="BW17" s="55"/>
+      <c r="BV17" s="50"/>
+      <c r="BW17" s="50"/>
       <c r="BX17" s="5"/>
       <c r="BY17" s="5"/>
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
       <c r="CB17" s="5"/>
-      <c r="CC17" s="55"/>
-      <c r="CD17" s="55"/>
+      <c r="CC17" s="50"/>
+      <c r="CD17" s="50"/>
       <c r="CE17" s="5"/>
       <c r="CF17" s="5"/>
-      <c r="CG17" s="86"/>
+      <c r="CG17" s="96"/>
       <c r="CH17" s="5"/>
       <c r="CI17" s="5"/>
-      <c r="CJ17" s="55"/>
-      <c r="CK17" s="55"/>
+      <c r="CJ17" s="50"/>
+      <c r="CK17" s="50"/>
       <c r="CL17" s="5"/>
       <c r="CM17" s="5"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="86"/>
+      <c r="CO17" s="93"/>
       <c r="CP17" s="5"/>
-      <c r="CQ17" s="55"/>
-      <c r="CR17" s="55"/>
+      <c r="CQ17" s="50"/>
+      <c r="CR17" s="50"/>
       <c r="CS17" s="5"/>
       <c r="CT17" s="5"/>
       <c r="CU17" s="5"/>
       <c r="CV17" s="5"/>
       <c r="CW17" s="5"/>
-      <c r="CX17" s="55"/>
-      <c r="CY17" s="55"/>
+      <c r="CX17" s="50"/>
+      <c r="CY17" s="50"/>
     </row>
     <row r="18" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="19">
         <f>AC5</f>
         <v>45357</v>
@@ -4140,106 +4211,106 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="82"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="54"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="82"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="54"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="55"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
       <c r="AV18" s="5"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
       <c r="AZ18" s="5"/>
-      <c r="BA18" s="55"/>
-      <c r="BB18" s="55"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="5"/>
       <c r="BF18" s="5"/>
       <c r="BG18" s="5"/>
-      <c r="BH18" s="55"/>
-      <c r="BI18" s="55"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
       <c r="BJ18" s="5"/>
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
       <c r="BN18" s="5"/>
-      <c r="BO18" s="55"/>
-      <c r="BP18" s="55"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
       <c r="BQ18" s="5"/>
       <c r="BR18" s="5"/>
       <c r="BS18" s="5"/>
       <c r="BT18" s="5"/>
       <c r="BU18" s="5"/>
-      <c r="BV18" s="55"/>
-      <c r="BW18" s="55"/>
+      <c r="BV18" s="50"/>
+      <c r="BW18" s="50"/>
       <c r="BX18" s="5"/>
       <c r="BY18" s="5"/>
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
       <c r="CB18" s="5"/>
-      <c r="CC18" s="55"/>
-      <c r="CD18" s="55"/>
+      <c r="CC18" s="50"/>
+      <c r="CD18" s="50"/>
       <c r="CE18" s="5"/>
       <c r="CF18" s="5"/>
-      <c r="CG18" s="86"/>
+      <c r="CG18" s="96"/>
       <c r="CH18" s="5"/>
       <c r="CI18" s="5"/>
-      <c r="CJ18" s="55"/>
-      <c r="CK18" s="55"/>
+      <c r="CJ18" s="50"/>
+      <c r="CK18" s="50"/>
       <c r="CL18" s="5"/>
       <c r="CM18" s="5"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="86"/>
+      <c r="CO18" s="93"/>
       <c r="CP18" s="5"/>
-      <c r="CQ18" s="55"/>
-      <c r="CR18" s="55"/>
+      <c r="CQ18" s="50"/>
+      <c r="CR18" s="50"/>
       <c r="CS18" s="5"/>
       <c r="CT18" s="5"/>
       <c r="CU18" s="5"/>
       <c r="CV18" s="5"/>
       <c r="CW18" s="5"/>
-      <c r="CX18" s="55"/>
-      <c r="CY18" s="55"/>
+      <c r="CX18" s="50"/>
+      <c r="CY18" s="50"/>
     </row>
     <row r="19" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="19">
         <f>AC5</f>
         <v>45357</v>
@@ -4253,106 +4324,106 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="82"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="82"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="54"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
-      <c r="AT19" s="55"/>
-      <c r="AU19" s="55"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
       <c r="AV19" s="5"/>
       <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
       <c r="AY19" s="5"/>
       <c r="AZ19" s="5"/>
-      <c r="BA19" s="55"/>
-      <c r="BB19" s="55"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="5"/>
       <c r="BF19" s="5"/>
       <c r="BG19" s="5"/>
-      <c r="BH19" s="55"/>
-      <c r="BI19" s="55"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
       <c r="BN19" s="5"/>
-      <c r="BO19" s="55"/>
-      <c r="BP19" s="55"/>
+      <c r="BO19" s="50"/>
+      <c r="BP19" s="50"/>
       <c r="BQ19" s="5"/>
       <c r="BR19" s="5"/>
       <c r="BS19" s="5"/>
       <c r="BT19" s="5"/>
       <c r="BU19" s="5"/>
-      <c r="BV19" s="55"/>
-      <c r="BW19" s="55"/>
+      <c r="BV19" s="50"/>
+      <c r="BW19" s="50"/>
       <c r="BX19" s="5"/>
       <c r="BY19" s="5"/>
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
       <c r="CB19" s="5"/>
-      <c r="CC19" s="55"/>
-      <c r="CD19" s="55"/>
+      <c r="CC19" s="50"/>
+      <c r="CD19" s="50"/>
       <c r="CE19" s="5"/>
       <c r="CF19" s="5"/>
-      <c r="CG19" s="86"/>
+      <c r="CG19" s="96"/>
       <c r="CH19" s="5"/>
       <c r="CI19" s="5"/>
-      <c r="CJ19" s="55"/>
-      <c r="CK19" s="55"/>
+      <c r="CJ19" s="50"/>
+      <c r="CK19" s="50"/>
       <c r="CL19" s="5"/>
       <c r="CM19" s="5"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="86"/>
+      <c r="CO19" s="93"/>
       <c r="CP19" s="5"/>
-      <c r="CQ19" s="55"/>
-      <c r="CR19" s="55"/>
+      <c r="CQ19" s="50"/>
+      <c r="CR19" s="50"/>
       <c r="CS19" s="5"/>
       <c r="CT19" s="5"/>
       <c r="CU19" s="5"/>
       <c r="CV19" s="5"/>
       <c r="CW19" s="5"/>
-      <c r="CX19" s="55"/>
-      <c r="CY19" s="55"/>
+      <c r="CX19" s="50"/>
+      <c r="CY19" s="50"/>
     </row>
     <row r="20" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4366,106 +4437,106 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="82"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="54"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="82"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="54"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
-      <c r="AT20" s="55"/>
-      <c r="AU20" s="55"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
       <c r="AX20" s="5"/>
       <c r="AY20" s="5"/>
       <c r="AZ20" s="5"/>
-      <c r="BA20" s="55"/>
-      <c r="BB20" s="55"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="5"/>
       <c r="BF20" s="5"/>
       <c r="BG20" s="5"/>
-      <c r="BH20" s="55"/>
-      <c r="BI20" s="55"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
       <c r="BN20" s="5"/>
-      <c r="BO20" s="55"/>
-      <c r="BP20" s="55"/>
+      <c r="BO20" s="50"/>
+      <c r="BP20" s="50"/>
       <c r="BQ20" s="5"/>
       <c r="BR20" s="5"/>
       <c r="BS20" s="5"/>
       <c r="BT20" s="5"/>
       <c r="BU20" s="5"/>
-      <c r="BV20" s="55"/>
-      <c r="BW20" s="55"/>
+      <c r="BV20" s="50"/>
+      <c r="BW20" s="50"/>
       <c r="BX20" s="5"/>
       <c r="BY20" s="5"/>
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
       <c r="CB20" s="5"/>
-      <c r="CC20" s="55"/>
-      <c r="CD20" s="55"/>
+      <c r="CC20" s="50"/>
+      <c r="CD20" s="50"/>
       <c r="CE20" s="5"/>
       <c r="CF20" s="5"/>
-      <c r="CG20" s="86"/>
+      <c r="CG20" s="96"/>
       <c r="CH20" s="5"/>
       <c r="CI20" s="5"/>
-      <c r="CJ20" s="55"/>
-      <c r="CK20" s="55"/>
+      <c r="CJ20" s="50"/>
+      <c r="CK20" s="50"/>
       <c r="CL20" s="5"/>
       <c r="CM20" s="5"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="86"/>
+      <c r="CO20" s="93"/>
       <c r="CP20" s="5"/>
-      <c r="CQ20" s="55"/>
-      <c r="CR20" s="55"/>
+      <c r="CQ20" s="50"/>
+      <c r="CR20" s="50"/>
       <c r="CS20" s="5"/>
       <c r="CT20" s="5"/>
       <c r="CU20" s="5"/>
       <c r="CV20" s="5"/>
       <c r="CW20" s="5"/>
-      <c r="CX20" s="55"/>
-      <c r="CY20" s="55"/>
+      <c r="CX20" s="50"/>
+      <c r="CY20" s="50"/>
     </row>
     <row r="21" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4479,106 +4550,106 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="82"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="82"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="54"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="82"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="54"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="8"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="5"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
       <c r="AV21" s="5"/>
       <c r="AW21" s="5"/>
       <c r="AX21" s="8"/>
       <c r="AY21" s="5"/>
       <c r="AZ21" s="8"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="55"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="5"/>
       <c r="BF21" s="5"/>
       <c r="BG21" s="5"/>
-      <c r="BH21" s="55"/>
-      <c r="BI21" s="55"/>
+      <c r="BH21" s="50"/>
+      <c r="BI21" s="50"/>
       <c r="BJ21" s="5"/>
       <c r="BK21" s="5"/>
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="5"/>
-      <c r="BO21" s="55"/>
-      <c r="BP21" s="55"/>
+      <c r="BO21" s="50"/>
+      <c r="BP21" s="50"/>
       <c r="BQ21" s="5"/>
       <c r="BR21" s="5"/>
       <c r="BS21" s="5"/>
       <c r="BT21" s="5"/>
       <c r="BU21" s="5"/>
-      <c r="BV21" s="55"/>
-      <c r="BW21" s="55"/>
+      <c r="BV21" s="50"/>
+      <c r="BW21" s="50"/>
       <c r="BX21" s="5"/>
       <c r="BY21" s="5"/>
       <c r="BZ21" s="5"/>
       <c r="CA21" s="5"/>
       <c r="CB21" s="5"/>
-      <c r="CC21" s="55"/>
-      <c r="CD21" s="55"/>
+      <c r="CC21" s="50"/>
+      <c r="CD21" s="50"/>
       <c r="CE21" s="5"/>
       <c r="CF21" s="5"/>
-      <c r="CG21" s="86"/>
+      <c r="CG21" s="96"/>
       <c r="CH21" s="5"/>
       <c r="CI21" s="5"/>
-      <c r="CJ21" s="55"/>
-      <c r="CK21" s="55"/>
+      <c r="CJ21" s="50"/>
+      <c r="CK21" s="50"/>
       <c r="CL21" s="5"/>
       <c r="CM21" s="5"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="86"/>
+      <c r="CO21" s="93"/>
       <c r="CP21" s="5"/>
-      <c r="CQ21" s="55"/>
-      <c r="CR21" s="55"/>
+      <c r="CQ21" s="50"/>
+      <c r="CR21" s="50"/>
       <c r="CS21" s="5"/>
       <c r="CT21" s="5"/>
       <c r="CU21" s="5"/>
       <c r="CV21" s="5"/>
       <c r="CW21" s="5"/>
-      <c r="CX21" s="55"/>
-      <c r="CY21" s="55"/>
+      <c r="CX21" s="50"/>
+      <c r="CY21" s="50"/>
     </row>
     <row r="22" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="19">
         <f>AD5</f>
         <v>45358</v>
@@ -4592,215 +4663,215 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="82"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="82"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="54"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="82"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="54"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="55"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
       <c r="AV22" s="5"/>
       <c r="AW22" s="5"/>
       <c r="AX22" s="8"/>
       <c r="AY22" s="5"/>
       <c r="AZ22" s="8"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="55"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="5"/>
       <c r="BE22" s="5"/>
       <c r="BF22" s="5"/>
       <c r="BG22" s="5"/>
-      <c r="BH22" s="55"/>
-      <c r="BI22" s="55"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="5"/>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="55"/>
+      <c r="BO22" s="50"/>
+      <c r="BP22" s="50"/>
       <c r="BQ22" s="5"/>
       <c r="BR22" s="5"/>
       <c r="BS22" s="5"/>
       <c r="BT22" s="5"/>
       <c r="BU22" s="5"/>
-      <c r="BV22" s="55"/>
-      <c r="BW22" s="55"/>
+      <c r="BV22" s="50"/>
+      <c r="BW22" s="50"/>
       <c r="BX22" s="5"/>
       <c r="BY22" s="5"/>
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
       <c r="CB22" s="5"/>
-      <c r="CC22" s="55"/>
-      <c r="CD22" s="55"/>
+      <c r="CC22" s="50"/>
+      <c r="CD22" s="50"/>
       <c r="CE22" s="5"/>
       <c r="CF22" s="5"/>
-      <c r="CG22" s="86"/>
+      <c r="CG22" s="96"/>
       <c r="CH22" s="5"/>
       <c r="CI22" s="5"/>
-      <c r="CJ22" s="55"/>
-      <c r="CK22" s="55"/>
+      <c r="CJ22" s="50"/>
+      <c r="CK22" s="50"/>
       <c r="CL22" s="5"/>
       <c r="CM22" s="5"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="86"/>
+      <c r="CO22" s="93"/>
       <c r="CP22" s="5"/>
-      <c r="CQ22" s="55"/>
-      <c r="CR22" s="55"/>
+      <c r="CQ22" s="50"/>
+      <c r="CR22" s="50"/>
       <c r="CS22" s="5"/>
       <c r="CT22" s="5"/>
       <c r="CU22" s="5"/>
       <c r="CV22" s="5"/>
       <c r="CW22" s="5"/>
-      <c r="CX22" s="55"/>
-      <c r="CY22" s="55"/>
+      <c r="CX22" s="50"/>
+      <c r="CY22" s="50"/>
     </row>
     <row r="23" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="82"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="82"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="56"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="56"/>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="56"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="84"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
+      <c r="BC23" s="84"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="5"/>
       <c r="BF23" s="5"/>
       <c r="BG23" s="5"/>
-      <c r="BH23" s="55"/>
-      <c r="BI23" s="55"/>
+      <c r="BH23" s="50"/>
+      <c r="BI23" s="50"/>
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
       <c r="BN23" s="5"/>
-      <c r="BO23" s="55"/>
-      <c r="BP23" s="55"/>
+      <c r="BO23" s="50"/>
+      <c r="BP23" s="50"/>
       <c r="BQ23" s="5"/>
       <c r="BR23" s="5"/>
       <c r="BS23" s="5"/>
       <c r="BT23" s="5"/>
       <c r="BU23" s="5"/>
-      <c r="BV23" s="55"/>
-      <c r="BW23" s="55"/>
+      <c r="BV23" s="50"/>
+      <c r="BW23" s="50"/>
       <c r="BX23" s="5"/>
       <c r="BY23" s="5"/>
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
       <c r="CB23" s="5"/>
-      <c r="CC23" s="55"/>
-      <c r="CD23" s="55"/>
+      <c r="CC23" s="50"/>
+      <c r="CD23" s="50"/>
       <c r="CE23" s="5"/>
       <c r="CF23" s="5"/>
-      <c r="CG23" s="86"/>
+      <c r="CG23" s="96"/>
       <c r="CH23" s="5"/>
       <c r="CI23" s="5"/>
-      <c r="CJ23" s="55"/>
-      <c r="CK23" s="55"/>
+      <c r="CJ23" s="50"/>
+      <c r="CK23" s="50"/>
       <c r="CL23" s="5"/>
       <c r="CM23" s="5"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="86"/>
+      <c r="CO23" s="93"/>
       <c r="CP23" s="5"/>
-      <c r="CQ23" s="55"/>
-      <c r="CR23" s="55"/>
+      <c r="CQ23" s="50"/>
+      <c r="CR23" s="50"/>
       <c r="CS23" s="5"/>
       <c r="CT23" s="5"/>
       <c r="CU23" s="5"/>
       <c r="CV23" s="5"/>
       <c r="CW23" s="5"/>
-      <c r="CX23" s="55"/>
-      <c r="CY23" s="55"/>
+      <c r="CX23" s="50"/>
+      <c r="CY23" s="50"/>
     </row>
     <row r="24" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="20">
         <f>AO5</f>
         <v>45369</v>
@@ -4814,106 +4885,106 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="82"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="82"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="54"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="82"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="54"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="79"/>
-      <c r="AN24" s="80"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="55"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
       <c r="AV24" s="5"/>
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
       <c r="AZ24" s="5"/>
-      <c r="BA24" s="55"/>
-      <c r="BB24" s="55"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="5"/>
       <c r="BF24" s="5"/>
       <c r="BG24" s="5"/>
-      <c r="BH24" s="55"/>
-      <c r="BI24" s="55"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
       <c r="BJ24" s="5"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
       <c r="BN24" s="5"/>
-      <c r="BO24" s="55"/>
-      <c r="BP24" s="55"/>
+      <c r="BO24" s="50"/>
+      <c r="BP24" s="50"/>
       <c r="BQ24" s="5"/>
       <c r="BR24" s="5"/>
       <c r="BS24" s="5"/>
       <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>
-      <c r="BV24" s="55"/>
-      <c r="BW24" s="55"/>
+      <c r="BV24" s="50"/>
+      <c r="BW24" s="50"/>
       <c r="BX24" s="5"/>
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
       <c r="CB24" s="5"/>
-      <c r="CC24" s="55"/>
-      <c r="CD24" s="55"/>
+      <c r="CC24" s="50"/>
+      <c r="CD24" s="50"/>
       <c r="CE24" s="5"/>
       <c r="CF24" s="5"/>
-      <c r="CG24" s="86"/>
+      <c r="CG24" s="96"/>
       <c r="CH24" s="5"/>
       <c r="CI24" s="5"/>
-      <c r="CJ24" s="55"/>
-      <c r="CK24" s="55"/>
+      <c r="CJ24" s="50"/>
+      <c r="CK24" s="50"/>
       <c r="CL24" s="5"/>
       <c r="CM24" s="5"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="86"/>
+      <c r="CO24" s="93"/>
       <c r="CP24" s="5"/>
-      <c r="CQ24" s="55"/>
-      <c r="CR24" s="55"/>
+      <c r="CQ24" s="50"/>
+      <c r="CR24" s="50"/>
       <c r="CS24" s="5"/>
       <c r="CT24" s="5"/>
       <c r="CU24" s="5"/>
       <c r="CV24" s="5"/>
       <c r="CW24" s="5"/>
-      <c r="CX24" s="55"/>
-      <c r="CY24" s="55"/>
+      <c r="CX24" s="50"/>
+      <c r="CY24" s="50"/>
     </row>
     <row r="25" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="20">
         <f>AI5</f>
         <v>45363</v>
@@ -4927,106 +4998,106 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="82"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="82"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="54"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="82"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="54"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="81"/>
-      <c r="AN25" s="82"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="54"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="8"/>
-      <c r="AT25" s="55"/>
-      <c r="AU25" s="55"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
       <c r="AZ25" s="5"/>
-      <c r="BA25" s="55"/>
-      <c r="BB25" s="55"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="5"/>
       <c r="BF25" s="5"/>
       <c r="BG25" s="5"/>
-      <c r="BH25" s="55"/>
-      <c r="BI25" s="55"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
       <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
       <c r="BN25" s="5"/>
-      <c r="BO25" s="55"/>
-      <c r="BP25" s="55"/>
+      <c r="BO25" s="50"/>
+      <c r="BP25" s="50"/>
       <c r="BQ25" s="5"/>
       <c r="BR25" s="5"/>
       <c r="BS25" s="5"/>
       <c r="BT25" s="5"/>
       <c r="BU25" s="5"/>
-      <c r="BV25" s="55"/>
-      <c r="BW25" s="55"/>
+      <c r="BV25" s="50"/>
+      <c r="BW25" s="50"/>
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
       <c r="CB25" s="5"/>
-      <c r="CC25" s="55"/>
-      <c r="CD25" s="55"/>
+      <c r="CC25" s="50"/>
+      <c r="CD25" s="50"/>
       <c r="CE25" s="5"/>
       <c r="CF25" s="5"/>
-      <c r="CG25" s="86"/>
+      <c r="CG25" s="96"/>
       <c r="CH25" s="5"/>
       <c r="CI25" s="5"/>
-      <c r="CJ25" s="55"/>
-      <c r="CK25" s="55"/>
+      <c r="CJ25" s="50"/>
+      <c r="CK25" s="50"/>
       <c r="CL25" s="5"/>
       <c r="CM25" s="5"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="86"/>
+      <c r="CO25" s="93"/>
       <c r="CP25" s="5"/>
-      <c r="CQ25" s="55"/>
-      <c r="CR25" s="55"/>
+      <c r="CQ25" s="50"/>
+      <c r="CR25" s="50"/>
       <c r="CS25" s="5"/>
       <c r="CT25" s="5"/>
       <c r="CU25" s="5"/>
       <c r="CV25" s="5"/>
       <c r="CW25" s="5"/>
-      <c r="CX25" s="55"/>
-      <c r="CY25" s="55"/>
+      <c r="CX25" s="50"/>
+      <c r="CY25" s="50"/>
     </row>
     <row r="26" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="20">
         <f>D25</f>
         <v>45363</v>
@@ -5040,106 +5111,106 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="82"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="82"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="54"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="82"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="54"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="82"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="54"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
-      <c r="AT26" s="55"/>
-      <c r="AU26" s="55"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
       <c r="AV26" s="8"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
       <c r="AZ26" s="8"/>
-      <c r="BA26" s="55"/>
-      <c r="BB26" s="55"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="5"/>
       <c r="BF26" s="5"/>
       <c r="BG26" s="5"/>
-      <c r="BH26" s="55"/>
-      <c r="BI26" s="55"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
       <c r="BJ26" s="5"/>
       <c r="BK26" s="5"/>
       <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
       <c r="BN26" s="5"/>
-      <c r="BO26" s="55"/>
-      <c r="BP26" s="55"/>
+      <c r="BO26" s="50"/>
+      <c r="BP26" s="50"/>
       <c r="BQ26" s="5"/>
       <c r="BR26" s="5"/>
       <c r="BS26" s="5"/>
       <c r="BT26" s="5"/>
       <c r="BU26" s="5"/>
-      <c r="BV26" s="55"/>
-      <c r="BW26" s="55"/>
+      <c r="BV26" s="50"/>
+      <c r="BW26" s="50"/>
       <c r="BX26" s="5"/>
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
       <c r="CB26" s="5"/>
-      <c r="CC26" s="55"/>
-      <c r="CD26" s="55"/>
+      <c r="CC26" s="50"/>
+      <c r="CD26" s="50"/>
       <c r="CE26" s="5"/>
       <c r="CF26" s="5"/>
-      <c r="CG26" s="86"/>
+      <c r="CG26" s="96"/>
       <c r="CH26" s="5"/>
       <c r="CI26" s="5"/>
-      <c r="CJ26" s="55"/>
-      <c r="CK26" s="55"/>
+      <c r="CJ26" s="50"/>
+      <c r="CK26" s="50"/>
       <c r="CL26" s="5"/>
       <c r="CM26" s="5"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="86"/>
+      <c r="CO26" s="93"/>
       <c r="CP26" s="5"/>
-      <c r="CQ26" s="55"/>
-      <c r="CR26" s="55"/>
+      <c r="CQ26" s="50"/>
+      <c r="CR26" s="50"/>
       <c r="CS26" s="5"/>
       <c r="CT26" s="5"/>
       <c r="CU26" s="5"/>
       <c r="CV26" s="5"/>
       <c r="CW26" s="5"/>
-      <c r="CX26" s="55"/>
-      <c r="CY26" s="55"/>
+      <c r="CX26" s="50"/>
+      <c r="CY26" s="50"/>
     </row>
     <row r="27" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="20">
         <f>D26</f>
         <v>45363</v>
@@ -5153,529 +5224,547 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="84"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="84"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="56"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="84"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="56"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="84"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="56"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
       <c r="AS27" s="5"/>
-      <c r="AT27" s="55"/>
-      <c r="AU27" s="55"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
       <c r="AV27" s="8"/>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="5"/>
       <c r="AZ27" s="5"/>
-      <c r="BA27" s="55"/>
-      <c r="BB27" s="55"/>
+      <c r="BA27" s="50"/>
+      <c r="BB27" s="50"/>
       <c r="BC27" s="8"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="5"/>
       <c r="BF27" s="5"/>
       <c r="BG27" s="5"/>
-      <c r="BH27" s="55"/>
-      <c r="BI27" s="55"/>
+      <c r="BH27" s="50"/>
+      <c r="BI27" s="50"/>
       <c r="BJ27" s="5"/>
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
       <c r="BN27" s="5"/>
-      <c r="BO27" s="55"/>
-      <c r="BP27" s="55"/>
+      <c r="BO27" s="50"/>
+      <c r="BP27" s="50"/>
       <c r="BQ27" s="5"/>
       <c r="BR27" s="5"/>
       <c r="BS27" s="5"/>
       <c r="BT27" s="5"/>
       <c r="BU27" s="5"/>
-      <c r="BV27" s="55"/>
-      <c r="BW27" s="55"/>
+      <c r="BV27" s="50"/>
+      <c r="BW27" s="50"/>
       <c r="BX27" s="5"/>
       <c r="BY27" s="5"/>
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
       <c r="CB27" s="5"/>
-      <c r="CC27" s="55"/>
-      <c r="CD27" s="55"/>
+      <c r="CC27" s="50"/>
+      <c r="CD27" s="50"/>
       <c r="CE27" s="5"/>
       <c r="CF27" s="5"/>
-      <c r="CG27" s="86"/>
+      <c r="CG27" s="97"/>
       <c r="CH27" s="5"/>
       <c r="CI27" s="5"/>
-      <c r="CJ27" s="55"/>
-      <c r="CK27" s="55"/>
+      <c r="CJ27" s="50"/>
+      <c r="CK27" s="50"/>
       <c r="CL27" s="5"/>
       <c r="CM27" s="5"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="86"/>
+      <c r="CO27" s="94"/>
       <c r="CP27" s="5"/>
-      <c r="CQ27" s="55"/>
-      <c r="CR27" s="55"/>
+      <c r="CQ27" s="50"/>
+      <c r="CR27" s="50"/>
       <c r="CS27" s="5"/>
       <c r="CT27" s="5"/>
       <c r="CU27" s="5"/>
       <c r="CV27" s="5"/>
       <c r="CW27" s="5"/>
-      <c r="CX27" s="55"/>
-      <c r="CY27" s="55"/>
+      <c r="CX27" s="50"/>
+      <c r="CY27" s="50"/>
     </row>
     <row r="28" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="85"/>
-      <c r="AN28" s="85"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="85"/>
-      <c r="AS28" s="85"/>
-      <c r="AT28" s="85"/>
-      <c r="AU28" s="85"/>
-      <c r="AV28" s="85"/>
-      <c r="AW28" s="85"/>
-      <c r="AX28" s="85"/>
-      <c r="AY28" s="85"/>
-      <c r="AZ28" s="85"/>
-      <c r="BA28" s="85"/>
-      <c r="BB28" s="85"/>
-      <c r="BC28" s="85"/>
-      <c r="BD28" s="85"/>
-      <c r="BE28" s="85"/>
-      <c r="BF28" s="85"/>
-      <c r="BG28" s="85"/>
-      <c r="BH28" s="85"/>
-      <c r="BI28" s="85"/>
-      <c r="BJ28" s="85"/>
-      <c r="BK28" s="85"/>
-      <c r="BL28" s="85"/>
-      <c r="BM28" s="85"/>
-      <c r="BN28" s="85"/>
-      <c r="BO28" s="85"/>
-      <c r="BP28" s="85"/>
-      <c r="BQ28" s="85"/>
-      <c r="BR28" s="85"/>
-      <c r="BS28" s="85"/>
-      <c r="BT28" s="85"/>
-      <c r="BU28" s="85"/>
-      <c r="BV28" s="85"/>
-      <c r="BW28" s="85"/>
-      <c r="BX28" s="85"/>
-      <c r="BY28" s="85"/>
-      <c r="BZ28" s="85"/>
-      <c r="CA28" s="85"/>
-      <c r="CB28" s="85"/>
-      <c r="CC28" s="85"/>
-      <c r="CD28" s="85"/>
-      <c r="CE28" s="85"/>
-      <c r="CF28" s="85"/>
-      <c r="CG28" s="85"/>
-      <c r="CH28" s="85"/>
-      <c r="CI28" s="85"/>
-      <c r="CJ28" s="85"/>
-      <c r="CK28" s="85"/>
-      <c r="CL28" s="85"/>
-      <c r="CM28" s="85"/>
-      <c r="CN28" s="85"/>
-      <c r="CO28" s="85"/>
-      <c r="CP28" s="85"/>
-      <c r="CQ28" s="85"/>
-      <c r="CR28" s="85"/>
-      <c r="CS28" s="85"/>
-      <c r="CT28" s="85"/>
-      <c r="CU28" s="85"/>
-      <c r="CV28" s="85"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
+      <c r="BP28" s="57"/>
+      <c r="BQ28" s="57"/>
+      <c r="BR28" s="57"/>
+      <c r="BS28" s="57"/>
+      <c r="BT28" s="57"/>
+      <c r="BU28" s="57"/>
+      <c r="BV28" s="57"/>
+      <c r="BW28" s="57"/>
+      <c r="BX28" s="57"/>
+      <c r="BY28" s="57"/>
+      <c r="BZ28" s="57"/>
+      <c r="CA28" s="57"/>
+      <c r="CB28" s="57"/>
+      <c r="CC28" s="57"/>
+      <c r="CD28" s="57"/>
+      <c r="CE28" s="57"/>
+      <c r="CF28" s="57"/>
+      <c r="CG28" s="57"/>
+      <c r="CH28" s="57"/>
+      <c r="CI28" s="57"/>
+      <c r="CJ28" s="57"/>
+      <c r="CK28" s="57"/>
+      <c r="CL28" s="57"/>
+      <c r="CM28" s="57"/>
+      <c r="CN28" s="57"/>
+      <c r="CO28" s="57"/>
+      <c r="CP28" s="57"/>
+      <c r="CQ28" s="57"/>
+      <c r="CR28" s="57"/>
+      <c r="CS28" s="57"/>
+      <c r="CT28" s="57"/>
+      <c r="CU28" s="57"/>
+      <c r="CV28" s="57"/>
       <c r="CW28" s="5"/>
-      <c r="CX28" s="55"/>
-      <c r="CY28" s="55"/>
+      <c r="CX28" s="50"/>
+      <c r="CY28" s="50"/>
     </row>
     <row r="29" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="21">
+        <f>U5</f>
+        <v>45349</v>
+      </c>
+      <c r="E29" s="22">
+        <f>CV5</f>
+        <v>45428</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="80"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="80"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="52"/>
       <c r="T29" s="5"/>
       <c r="U29" s="8"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="80"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="52"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="80"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="52"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="55"/>
-      <c r="AU29" s="55"/>
+      <c r="AQ29" s="60"/>
+      <c r="AR29" s="60"/>
+      <c r="AS29" s="60"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
       <c r="AV29" s="5"/>
-      <c r="AW29" s="51"/>
-      <c r="AX29" s="51"/>
-      <c r="AY29" s="51"/>
+      <c r="AW29" s="60"/>
+      <c r="AX29" s="60"/>
+      <c r="AY29" s="60"/>
       <c r="AZ29" s="5"/>
-      <c r="BA29" s="55"/>
-      <c r="BB29" s="55"/>
+      <c r="BA29" s="50"/>
+      <c r="BB29" s="50"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="5"/>
       <c r="BG29" s="8"/>
-      <c r="BH29" s="55"/>
-      <c r="BI29" s="55"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-      <c r="BM29" s="51"/>
-      <c r="BN29" s="51"/>
-      <c r="BO29" s="55"/>
-      <c r="BP29" s="55"/>
-      <c r="BQ29" s="51"/>
-      <c r="BR29" s="51"/>
-      <c r="BS29" s="51"/>
-      <c r="BT29" s="51"/>
-      <c r="BU29" s="51"/>
-      <c r="BV29" s="55"/>
-      <c r="BW29" s="55"/>
-      <c r="BX29" s="51"/>
-      <c r="BY29" s="51"/>
-      <c r="BZ29" s="51"/>
-      <c r="CA29" s="51"/>
-      <c r="CB29" s="51"/>
-      <c r="CC29" s="55"/>
-      <c r="CD29" s="55"/>
+      <c r="BH29" s="50"/>
+      <c r="BI29" s="50"/>
+      <c r="BJ29" s="60"/>
+      <c r="BK29" s="60"/>
+      <c r="BL29" s="60"/>
+      <c r="BM29" s="60"/>
+      <c r="BN29" s="60"/>
+      <c r="BO29" s="50"/>
+      <c r="BP29" s="50"/>
+      <c r="BQ29" s="60"/>
+      <c r="BR29" s="60"/>
+      <c r="BS29" s="60"/>
+      <c r="BT29" s="60"/>
+      <c r="BU29" s="60"/>
+      <c r="BV29" s="50"/>
+      <c r="BW29" s="50"/>
+      <c r="BX29" s="60"/>
+      <c r="BY29" s="60"/>
+      <c r="BZ29" s="60"/>
+      <c r="CA29" s="60"/>
+      <c r="CB29" s="60"/>
+      <c r="CC29" s="50"/>
+      <c r="CD29" s="50"/>
       <c r="CE29" s="5"/>
       <c r="CF29" s="8"/>
-      <c r="CG29" s="86"/>
-      <c r="CH29" s="52"/>
-      <c r="CI29" s="53"/>
-      <c r="CJ29" s="55"/>
-      <c r="CK29" s="55"/>
+      <c r="CG29" s="92"/>
+      <c r="CH29" s="58"/>
+      <c r="CI29" s="59"/>
+      <c r="CJ29" s="50"/>
+      <c r="CK29" s="50"/>
       <c r="CL29" s="5"/>
-      <c r="CM29" s="52"/>
-      <c r="CN29" s="53"/>
-      <c r="CO29" s="86"/>
+      <c r="CM29" s="58"/>
+      <c r="CN29" s="59"/>
+      <c r="CO29" s="92"/>
       <c r="CP29" s="8"/>
-      <c r="CQ29" s="55"/>
-      <c r="CR29" s="55"/>
-      <c r="CS29" s="5"/>
-      <c r="CT29" s="5"/>
-      <c r="CU29" s="5"/>
-      <c r="CV29" s="5"/>
+      <c r="CQ29" s="50"/>
+      <c r="CR29" s="50"/>
+      <c r="CS29" s="85"/>
+      <c r="CT29" s="86"/>
+      <c r="CU29" s="86"/>
+      <c r="CV29" s="87"/>
       <c r="CW29" s="5"/>
-      <c r="CX29" s="55"/>
-      <c r="CY29" s="55"/>
+      <c r="CX29" s="50"/>
+      <c r="CY29" s="50"/>
     </row>
     <row r="30" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="21">
+        <f>BZ5</f>
+        <v>45406</v>
+      </c>
+      <c r="E30" s="22">
+        <f>CT5</f>
+        <v>45426</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="82"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="54"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="82"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="54"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="82"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="54"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
-      <c r="AT30" s="55"/>
-      <c r="AU30" s="55"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
       <c r="AZ30" s="5"/>
-      <c r="BA30" s="55"/>
-      <c r="BB30" s="55"/>
+      <c r="BA30" s="50"/>
+      <c r="BB30" s="50"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
       <c r="BF30" s="5"/>
       <c r="BG30" s="5"/>
-      <c r="BH30" s="55"/>
-      <c r="BI30" s="55"/>
+      <c r="BH30" s="50"/>
+      <c r="BI30" s="50"/>
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
       <c r="BL30" s="5"/>
       <c r="BM30" s="5"/>
       <c r="BN30" s="5"/>
-      <c r="BO30" s="55"/>
-      <c r="BP30" s="55"/>
+      <c r="BO30" s="50"/>
+      <c r="BP30" s="50"/>
       <c r="BQ30" s="5"/>
       <c r="BR30" s="5"/>
       <c r="BS30" s="5"/>
       <c r="BT30" s="5"/>
       <c r="BU30" s="5"/>
-      <c r="BV30" s="55"/>
-      <c r="BW30" s="55"/>
+      <c r="BV30" s="50"/>
+      <c r="BW30" s="50"/>
       <c r="BX30" s="5"/>
       <c r="BY30" s="5"/>
-      <c r="BZ30" s="51"/>
-      <c r="CA30" s="51"/>
-      <c r="CB30" s="51"/>
-      <c r="CC30" s="55"/>
-      <c r="CD30" s="55"/>
-      <c r="CE30" s="47"/>
-      <c r="CF30" s="48"/>
-      <c r="CG30" s="87"/>
-      <c r="CH30" s="52"/>
-      <c r="CI30" s="53"/>
-      <c r="CJ30" s="55"/>
-      <c r="CK30" s="55"/>
+      <c r="BZ30" s="60"/>
+      <c r="CA30" s="60"/>
+      <c r="CB30" s="60"/>
+      <c r="CC30" s="50"/>
+      <c r="CD30" s="50"/>
+      <c r="CE30" s="46"/>
+      <c r="CF30" s="47"/>
+      <c r="CG30" s="93"/>
+      <c r="CH30" s="58"/>
+      <c r="CI30" s="59"/>
+      <c r="CJ30" s="50"/>
+      <c r="CK30" s="50"/>
       <c r="CL30" s="5"/>
       <c r="CM30" s="42"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="86"/>
+      <c r="CO30" s="93"/>
       <c r="CP30" s="8"/>
-      <c r="CQ30" s="55"/>
-      <c r="CR30" s="55"/>
-      <c r="CS30" s="5"/>
-      <c r="CT30" s="5"/>
+      <c r="CQ30" s="50"/>
+      <c r="CR30" s="50"/>
+      <c r="CS30" s="85"/>
+      <c r="CT30" s="87"/>
       <c r="CU30" s="7"/>
       <c r="CV30" s="7"/>
       <c r="CW30" s="5"/>
-      <c r="CX30" s="55"/>
-      <c r="CY30" s="55"/>
+      <c r="CX30" s="50"/>
+      <c r="CY30" s="50"/>
     </row>
     <row r="31" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="82"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="90">
+        <f>F5</f>
+        <v>45334</v>
+      </c>
+      <c r="E31" s="90">
+        <f>BU5</f>
+        <v>45401</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="82"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="54"/>
       <c r="T31" s="5"/>
       <c r="U31" s="8"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="5"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="82"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="54"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="82"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="54"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
-      <c r="AT31" s="55"/>
-      <c r="AU31" s="55"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
       <c r="AY31" s="5"/>
       <c r="AZ31" s="5"/>
-      <c r="BA31" s="55"/>
-      <c r="BB31" s="55"/>
+      <c r="BA31" s="50"/>
+      <c r="BB31" s="50"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
       <c r="BF31" s="5"/>
       <c r="BG31" s="5"/>
-      <c r="BH31" s="55"/>
-      <c r="BI31" s="55"/>
+      <c r="BH31" s="50"/>
+      <c r="BI31" s="50"/>
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
       <c r="BL31" s="5"/>
       <c r="BM31" s="5"/>
       <c r="BN31" s="5"/>
-      <c r="BO31" s="55"/>
-      <c r="BP31" s="55"/>
-      <c r="BQ31" s="51"/>
-      <c r="BR31" s="51"/>
-      <c r="BS31" s="51"/>
-      <c r="BT31" s="51"/>
-      <c r="BU31" s="51"/>
-      <c r="BV31" s="55"/>
-      <c r="BW31" s="55"/>
+      <c r="BO31" s="50"/>
+      <c r="BP31" s="50"/>
+      <c r="BQ31" s="60"/>
+      <c r="BR31" s="60"/>
+      <c r="BS31" s="60"/>
+      <c r="BT31" s="60"/>
+      <c r="BU31" s="60"/>
+      <c r="BV31" s="50"/>
+      <c r="BW31" s="50"/>
       <c r="BX31" s="5"/>
       <c r="BY31" s="5"/>
       <c r="BZ31" s="5"/>
       <c r="CA31" s="5"/>
       <c r="CB31" s="5"/>
-      <c r="CC31" s="55"/>
-      <c r="CD31" s="55"/>
+      <c r="CC31" s="50"/>
+      <c r="CD31" s="50"/>
       <c r="CE31" s="5"/>
       <c r="CF31" s="5"/>
-      <c r="CG31" s="86"/>
+      <c r="CG31" s="93"/>
       <c r="CH31" s="5"/>
       <c r="CI31" s="5"/>
-      <c r="CJ31" s="55"/>
-      <c r="CK31" s="55"/>
+      <c r="CJ31" s="50"/>
+      <c r="CK31" s="50"/>
       <c r="CL31" s="5"/>
       <c r="CM31" s="5"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="86"/>
+      <c r="CO31" s="93"/>
       <c r="CP31" s="5"/>
-      <c r="CQ31" s="55"/>
-      <c r="CR31" s="55"/>
+      <c r="CQ31" s="50"/>
+      <c r="CR31" s="50"/>
       <c r="CS31" s="5"/>
       <c r="CT31" s="5"/>
       <c r="CU31" s="5"/>
       <c r="CV31" s="5"/>
       <c r="CW31" s="5"/>
-      <c r="CX31" s="55"/>
-      <c r="CY31" s="55"/>
+      <c r="CX31" s="50"/>
+      <c r="CY31" s="50"/>
     </row>
     <row r="32" spans="1:103" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
@@ -5683,213 +5772,225 @@
         <v>38</v>
       </c>
       <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="82"/>
+      <c r="D32" s="90">
+        <f>F5</f>
+        <v>45334</v>
+      </c>
+      <c r="E32" s="90">
+        <f>CI5</f>
+        <v>45415</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="54"/>
       <c r="T32" s="8"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="41"/>
-      <c r="AF32" s="81"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="8"/>
-      <c r="AM32" s="81"/>
-      <c r="AN32" s="82"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="54"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="8"/>
-      <c r="AT32" s="55"/>
-      <c r="AU32" s="55"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
       <c r="AX32" s="8"/>
       <c r="AY32" s="5"/>
       <c r="AZ32" s="8"/>
-      <c r="BA32" s="55"/>
-      <c r="BB32" s="55"/>
+      <c r="BA32" s="50"/>
+      <c r="BB32" s="50"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="5"/>
       <c r="BF32" s="5"/>
       <c r="BG32" s="5"/>
-      <c r="BH32" s="55"/>
-      <c r="BI32" s="55"/>
+      <c r="BH32" s="50"/>
+      <c r="BI32" s="50"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="5"/>
       <c r="BL32" s="5"/>
       <c r="BM32" s="5"/>
       <c r="BN32" s="5"/>
-      <c r="BO32" s="55"/>
-      <c r="BP32" s="55"/>
-      <c r="BQ32" s="51"/>
-      <c r="BR32" s="51"/>
-      <c r="BS32" s="51"/>
-      <c r="BT32" s="51"/>
-      <c r="BU32" s="51"/>
-      <c r="BV32" s="55"/>
-      <c r="BW32" s="55"/>
-      <c r="BX32" s="51"/>
-      <c r="BY32" s="51"/>
+      <c r="BO32" s="50"/>
+      <c r="BP32" s="50"/>
+      <c r="BQ32" s="60"/>
+      <c r="BR32" s="60"/>
+      <c r="BS32" s="60"/>
+      <c r="BT32" s="60"/>
+      <c r="BU32" s="60"/>
+      <c r="BV32" s="50"/>
+      <c r="BW32" s="50"/>
+      <c r="BX32" s="60"/>
+      <c r="BY32" s="60"/>
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
       <c r="CB32" s="5"/>
-      <c r="CC32" s="55"/>
-      <c r="CD32" s="55"/>
+      <c r="CC32" s="50"/>
+      <c r="CD32" s="50"/>
       <c r="CE32" s="5"/>
       <c r="CF32" s="5"/>
-      <c r="CG32" s="86"/>
+      <c r="CG32" s="93"/>
       <c r="CH32" s="5"/>
       <c r="CI32" s="8"/>
-      <c r="CJ32" s="55"/>
-      <c r="CK32" s="55"/>
+      <c r="CJ32" s="50"/>
+      <c r="CK32" s="50"/>
       <c r="CL32" s="5"/>
       <c r="CM32" s="5"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="86"/>
+      <c r="CO32" s="93"/>
       <c r="CP32" s="5"/>
-      <c r="CQ32" s="55"/>
-      <c r="CR32" s="55"/>
+      <c r="CQ32" s="50"/>
+      <c r="CR32" s="50"/>
       <c r="CS32" s="5"/>
       <c r="CT32" s="5"/>
       <c r="CU32" s="5"/>
       <c r="CV32" s="5"/>
       <c r="CW32" s="5"/>
-      <c r="CX32" s="55"/>
-      <c r="CY32" s="55"/>
+      <c r="CX32" s="50"/>
+      <c r="CY32" s="50"/>
     </row>
     <row r="33" spans="1:104" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="61" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="91">
+        <f>J5</f>
+        <v>45338</v>
+      </c>
+      <c r="E33" s="45">
+        <f>BY5</f>
+        <v>45405</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="56"/>
       <c r="M33" s="8"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="84"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="56"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="83"/>
-      <c r="AN33" s="84"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="56"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
-      <c r="AT33" s="55"/>
-      <c r="AU33" s="55"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="51"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="60"/>
+      <c r="AW33" s="60"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
       <c r="AZ33" s="8"/>
-      <c r="BA33" s="55"/>
-      <c r="BB33" s="55"/>
+      <c r="BA33" s="50"/>
+      <c r="BB33" s="50"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="5"/>
-      <c r="BF33" s="51"/>
-      <c r="BG33" s="51"/>
-      <c r="BH33" s="55"/>
-      <c r="BI33" s="55"/>
+      <c r="BF33" s="60"/>
+      <c r="BG33" s="60"/>
+      <c r="BH33" s="50"/>
+      <c r="BI33" s="50"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="5"/>
       <c r="BL33" s="5"/>
       <c r="BM33" s="5"/>
       <c r="BN33" s="5"/>
-      <c r="BO33" s="55"/>
-      <c r="BP33" s="55"/>
-      <c r="BQ33" s="51"/>
-      <c r="BR33" s="51"/>
-      <c r="BS33" s="51"/>
-      <c r="BT33" s="51"/>
-      <c r="BU33" s="51"/>
-      <c r="BV33" s="55"/>
-      <c r="BW33" s="55"/>
-      <c r="BX33" s="51"/>
-      <c r="BY33" s="51"/>
+      <c r="BO33" s="50"/>
+      <c r="BP33" s="50"/>
+      <c r="BQ33" s="60"/>
+      <c r="BR33" s="60"/>
+      <c r="BS33" s="60"/>
+      <c r="BT33" s="60"/>
+      <c r="BU33" s="60"/>
+      <c r="BV33" s="50"/>
+      <c r="BW33" s="50"/>
+      <c r="BX33" s="60"/>
+      <c r="BY33" s="60"/>
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
       <c r="CB33" s="5"/>
-      <c r="CC33" s="55"/>
-      <c r="CD33" s="55"/>
+      <c r="CC33" s="50"/>
+      <c r="CD33" s="50"/>
       <c r="CE33" s="5"/>
       <c r="CF33" s="5"/>
-      <c r="CG33" s="86"/>
+      <c r="CG33" s="94"/>
       <c r="CH33" s="5"/>
       <c r="CI33" s="5"/>
-      <c r="CJ33" s="55"/>
-      <c r="CK33" s="55"/>
+      <c r="CJ33" s="50"/>
+      <c r="CK33" s="50"/>
       <c r="CL33" s="5"/>
       <c r="CM33" s="5"/>
       <c r="CN33" s="5"/>
-      <c r="CO33" s="86"/>
-      <c r="CP33" s="8"/>
-      <c r="CQ33" s="55"/>
-      <c r="CR33" s="55"/>
+      <c r="CO33" s="94"/>
+      <c r="CP33" s="88"/>
+      <c r="CQ33" s="50"/>
+      <c r="CR33" s="50"/>
       <c r="CS33" s="5"/>
-      <c r="CT33" s="5"/>
+      <c r="CT33" s="89"/>
       <c r="CU33" s="5"/>
       <c r="CV33" s="5"/>
       <c r="CW33" s="5"/>
-      <c r="CX33" s="55"/>
-      <c r="CY33" s="55"/>
+      <c r="CX33" s="50"/>
+      <c r="CY33" s="50"/>
       <c r="CZ33" s="40"/>
     </row>
     <row r="34" spans="1:104" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6002,7 +6103,103 @@
       <c r="E35" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="120">
+    <mergeCell ref="CS29:CV29"/>
+    <mergeCell ref="CS30:CT30"/>
+    <mergeCell ref="CO8:CO27"/>
+    <mergeCell ref="CO29:CO33"/>
+    <mergeCell ref="CG29:CG33"/>
+    <mergeCell ref="CG8:CG27"/>
+    <mergeCell ref="CH29:CI29"/>
+    <mergeCell ref="CH30:CI30"/>
+    <mergeCell ref="AC15:BD15"/>
+    <mergeCell ref="AM16:AN22"/>
+    <mergeCell ref="AT16:AU22"/>
+    <mergeCell ref="BA24:BB27"/>
+    <mergeCell ref="AT24:AU27"/>
+    <mergeCell ref="AI23:BC23"/>
+    <mergeCell ref="BZ30:CB30"/>
+    <mergeCell ref="BX29:CB29"/>
+    <mergeCell ref="BQ29:BU29"/>
+    <mergeCell ref="BJ29:BN29"/>
+    <mergeCell ref="CC8:CD27"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AO17:AP17"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="BX32:BY32"/>
+    <mergeCell ref="BX33:BY33"/>
+    <mergeCell ref="AW29:AY29"/>
+    <mergeCell ref="AQ29:AS29"/>
+    <mergeCell ref="BH8:BI27"/>
+    <mergeCell ref="BO8:BP27"/>
+    <mergeCell ref="BV8:BW27"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="BQ31:BU31"/>
+    <mergeCell ref="BQ32:BU32"/>
+    <mergeCell ref="BQ33:BU33"/>
+    <mergeCell ref="BA8:BB14"/>
+    <mergeCell ref="BA16:BB22"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="CS4:CY4"/>
+    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="BQ4:BW4"/>
+    <mergeCell ref="BX4:CD4"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CL4:CR4"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="AV4:BB4"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="Y8:Z27"/>
+    <mergeCell ref="AF8:AG14"/>
+    <mergeCell ref="AM8:AN14"/>
+    <mergeCell ref="AT8:AU14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AO4:AU4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="CJ8:CK27"/>
     <mergeCell ref="CQ8:CR27"/>
     <mergeCell ref="CX8:CY33"/>
@@ -6027,96 +6224,6 @@
     <mergeCell ref="CM29:CN29"/>
     <mergeCell ref="F31:J31"/>
     <mergeCell ref="F32:J32"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="Y8:Z27"/>
-    <mergeCell ref="AF8:AG14"/>
-    <mergeCell ref="AM8:AN14"/>
-    <mergeCell ref="AT8:AU14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AO4:AU4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="CS4:CY4"/>
-    <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BQ4:BW4"/>
-    <mergeCell ref="BX4:CD4"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CL4:CR4"/>
-    <mergeCell ref="BH7:BI7"/>
-    <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="BX32:BY32"/>
-    <mergeCell ref="BX33:BY33"/>
-    <mergeCell ref="AW29:AY29"/>
-    <mergeCell ref="AQ29:AS29"/>
-    <mergeCell ref="BH8:BI27"/>
-    <mergeCell ref="BO8:BP27"/>
-    <mergeCell ref="BV8:BW27"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="BQ31:BU31"/>
-    <mergeCell ref="BQ32:BU32"/>
-    <mergeCell ref="BQ33:BU33"/>
-    <mergeCell ref="BA8:BB14"/>
-    <mergeCell ref="BA16:BB22"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AO17:AP17"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="CH29:CI29"/>
-    <mergeCell ref="CH30:CI30"/>
-    <mergeCell ref="AC15:BD15"/>
-    <mergeCell ref="AM16:AN22"/>
-    <mergeCell ref="AT16:AU22"/>
-    <mergeCell ref="BA24:BB27"/>
-    <mergeCell ref="AT24:AU27"/>
-    <mergeCell ref="AI23:BC23"/>
-    <mergeCell ref="BZ30:CB30"/>
-    <mergeCell ref="BX29:CB29"/>
-    <mergeCell ref="BQ29:BU29"/>
-    <mergeCell ref="BJ29:BN29"/>
-    <mergeCell ref="CC8:CD27"/>
   </mergeCells>
   <conditionalFormatting sqref="C7">
     <cfRule type="dataBar" priority="20">
@@ -6196,23 +6303,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6504,29 +6600,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6553,9 +6649,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>